--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06092407856241663</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="B65" t="n">
-        <v>0.00909657125291235</v>
+        <v>0.01587865753343358</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0002720284045008778</v>
+        <v>0.001690855310993132</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007263961183499358</v>
+        <v>0.0007987970607606761</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001748314374042749</v>
+        <v>0.004469345075387127</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008071543705425124</v>
+        <v>0.0007889727742892696</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004478651904370162</v>
+        <v>0.008318010799860998</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007294274634319055</v>
+        <v>0.0007799980888680185</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007377027806997394</v>
+        <v>0.001690855310993132</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000728681290554688</v>
+        <v>0.0007987970607606761</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002355817693451008</v>
+        <v>0.003542173426154489</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001452792236699872</v>
+        <v>0.001597594121521352</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003849892081739963</v>
+        <v>0.006999999999999978</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001614308741085025</v>
+        <v>0.001281089743589739</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.009702709161020479</v>
+        <v>0.01711327269701873</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001458854926863811</v>
+        <v>0.001559996177736037</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.0164351530753199</v>
+        <v>0.003542173426154489</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001457362581109376</v>
+        <v>0.001597594121521352</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002783412796308421</v>
+        <v>0.004960400899396929</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002179188355049808</v>
+        <v>0.002396391182282029</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005362410148979598</v>
+        <v>0.01095605720852014</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002421463111627537</v>
+        <v>0.002366918322867808</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01373578891025121</v>
+        <v>0.02200000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002188282390295716</v>
+        <v>0.002035509259259261</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02450016554823808</v>
+        <v>0.004960400899396929</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002186043871664064</v>
+        <v>0.002396391182282029</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00303219041763745</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007343545601649619</v>
+        <v>0.01392691284481321</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00322861748217005</v>
+        <v>0.003155891097157078</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01824150829236268</v>
+        <v>0.02992954210527682</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002917709853727622</v>
+        <v>0.003119992355472074</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03109785496902223</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002914725162218752</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00303219041763745</v>
+        <v>0.003497374999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.006999999999999999</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006749438318866902</v>
+        <v>0.007582004856099965</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003631980591749679</v>
+        <v>0.00399398530380338</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.008750975465637946</v>
+        <v>0.01726158307421988</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004035771852712563</v>
+        <v>0.003944863871446348</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02138348444765523</v>
+        <v>0.03517894145407774</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003647137317159527</v>
+        <v>0.003899990444340092</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03745401108094287</v>
+        <v>0.007582004856099965</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00364340645277344</v>
+        <v>0.00399398530380338</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005477479000101426</v>
+        <v>0.008623418175891025</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004358376710099615</v>
+        <v>0.004792782364564058</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.009842376766832556</v>
+        <v>0.01986391921326239</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004842926223255074</v>
+        <v>0.004733836645735617</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02499999999999997</v>
+        <v>0.04037796316410819</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004429299645390064</v>
+        <v>0.00467998853320811</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04249442362727041</v>
+        <v>0.008623418175891025</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004372087743328128</v>
+        <v>0.004792782364564058</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008117905209568718</v>
+        <v>0.009401139394956307</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005084772828449551</v>
+        <v>0.005591579425324733</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.011</v>
+        <v>0.02283777257846309</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005495874999999997</v>
+        <v>0.005522809420024886</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02677956947574239</v>
+        <v>0.04483176165356229</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005105992244023338</v>
+        <v>0.005459986622076129</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04799999999999999</v>
+        <v>0.009401139394956307</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.00527076923076923</v>
+        <v>0.005591579425324733</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.008689476290245801</v>
+        <v>0.01032073721422318</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005811168946799486</v>
+        <v>0.006390376486085409</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01183759166119738</v>
+        <v>0.02548699448634426</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006457234964340099</v>
+        <v>0.006311782194314157</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02835224721166441</v>
+        <v>0.04824549134063438</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005835419707455244</v>
+        <v>0.006239984710944148</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04929821113398447</v>
+        <v>0.01032073721422318</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005829450324437504</v>
+        <v>0.006390376486085409</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008210951585109712</v>
+        <v>0.011187780334619</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006537565065149422</v>
+        <v>0.007189173546846085</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.0125860564279479</v>
+        <v>0.02771543625342818</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007264389334882611</v>
+        <v>0.007100754968603426</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03059312860646604</v>
+        <v>0.05212430664351886</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006564847170887149</v>
+        <v>0.007019982799812166</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0521416984647049</v>
+        <v>0.011187780334619</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006558131614992192</v>
+        <v>0.007189173546846085</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.009701090437137461</v>
+        <v>0.01200783745707112</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007263961183499357</v>
+        <v>0.007987970607606761</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01344351705627446</v>
+        <v>0.02962694919623718</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008071543705425125</v>
+        <v>0.007889727742892696</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.0318506239547785</v>
+        <v>0.05687336198040982</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007294274634319055</v>
+        <v>0.007799980888680184</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05470152920816135</v>
+        <v>0.01200783745707112</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00728681290554688</v>
+        <v>0.007987970607606761</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008178652189306093</v>
+        <v>0.01298647728250689</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.007990357301849294</v>
+        <v>0.008786767668367437</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01402970787691865</v>
+        <v>0.03192538463129352</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008878698075967636</v>
+        <v>0.008678700517181965</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03357314355123298</v>
+        <v>0.0599978117695017</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008023702097750961</v>
+        <v>0.008579978977548202</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05548168674464793</v>
+        <v>0.01298647728250689</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008015494196101569</v>
+        <v>0.008786767668367437</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.008662396184592629</v>
+        <v>0.01362926851185368</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00871675342019923</v>
+        <v>0.009585564729128115</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01426436322062212</v>
+        <v>0.03451459387511951</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009685852446510148</v>
+        <v>0.009467673291471234</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03430909769046053</v>
+        <v>0.06320281042898862</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008753129561182866</v>
+        <v>0.00935997706641622</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05748615445445887</v>
+        <v>0.01362926851185368</v>
       </c>
       <c r="O77" t="n">
-        <v>0.008744175486656257</v>
+        <v>0.009585564729128115</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.01444177984603884</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00909657125291235</v>
+        <v>0.01038436178988879</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0149672174181265</v>
+        <v>0.0361984282442375</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01049300681705266</v>
+        <v>0.0102566460657605</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03610689666709244</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009482557024614771</v>
+        <v>0.01021287852599455</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05841891571788826</v>
+        <v>0.01444177984603884</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009472856777210943</v>
+        <v>0.01038436178988879</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.009700219760214714</v>
+        <v>0.01492957998598972</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0101695456568991</v>
+        <v>0.01118315885064947</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01525800480017343</v>
+        <v>0.03838073905516967</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01130016118759517</v>
+        <v>0.01104561884004977</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03741495077575979</v>
+        <v>0.06809435186442148</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01021198448804668</v>
+        <v>0.01091997324415226</v>
       </c>
       <c r="N79" t="n">
-        <v>0.05988395391523021</v>
+        <v>0.01492957998598972</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01020153806776563</v>
+        <v>0.01118315885064947</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01124961709441129</v>
+        <v>0.01569823763263369</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01089594177524904</v>
+        <v>0.01198195591141014</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01595645969750452</v>
+        <v>0.03946537762443844</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01210731555813769</v>
+        <v>0.01183459161433904</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03828167031109378</v>
+        <v>0.06987588605556305</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01094141195147858</v>
+        <v>0.01169997133302028</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06248525242677899</v>
+        <v>0.01569823763263369</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01093021935832032</v>
+        <v>0.01198195591141014</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01281367372079094</v>
+        <v>0.01635332148689808</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01162233789359897</v>
+        <v>0.01278075297217082</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01648231644086144</v>
+        <v>0.04264890762500126</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0129144699286802</v>
+        <v>0.01300882812707036</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04045546556772556</v>
+        <v>0.07233738821004465</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01167083941491049</v>
+        <v>0.0124799694218883</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06482679463282864</v>
+        <v>0.01635332148689808</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01165890064887501</v>
+        <v>0.01278075297217082</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01138835019150329</v>
+        <v>0.01720040024971027</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01234873401194891</v>
+        <v>0.0135795500329315</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01685530936098581</v>
+        <v>0.04346922657825528</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01372162429922271</v>
+        <v>0.01341253716291758</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04264890762500126</v>
+        <v>0.07527685319885447</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01259365276131279</v>
+        <v>0.01325996751075631</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.01720040024971027</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01212077890997156</v>
+        <v>0.0135795500329315</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01296960705869796</v>
+        <v>0.01774504262199762</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01307513013029884</v>
+        <v>0.01437834709369217</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01779517278861925</v>
+        <v>0.04487570002857852</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01452877866976522</v>
+        <v>0.01420150993720685</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04383226057753162</v>
+        <v>0.07819227589298061</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0131296943417743</v>
+        <v>0.01403996559962433</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06855298988765285</v>
+        <v>0.01774504262199762</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01311626322998438</v>
+        <v>0.01437834709369217</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01255340487452459</v>
+        <v>0.01849281730468746</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01380152624864878</v>
+        <v>0.01517714415445285</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01852164105450342</v>
+        <v>0.04638449112832826</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01533593304030774</v>
+        <v>0.01499048271149612</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04543831018237157</v>
+        <v>0.08048165116341116</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0138591218052062</v>
+        <v>0.01481996368849235</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07249568528320943</v>
+        <v>0.01849281730468746</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01384494452053907</v>
+        <v>0.01517714415445285</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01313570419113278</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01452792236699871</v>
+        <v>0.01587865753343358</v>
       </c>
       <c r="J85" t="n">
+        <v>0.04779312871353036</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.01577945548578539</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.08184297388113426</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.01559996177736037</v>
+      </c>
+      <c r="N85" t="n">
         <v>0.01906869055803882</v>
       </c>
-      <c r="K85" t="n">
+      <c r="O85" t="n">
         <v>0.01587865753343358</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.04776452202204043</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.01458854926863811</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.07548126177718562</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.01457362581109376</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01471246556067218</v>
+        <v>0.01972197136892705</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01525431848534865</v>
+        <v>0.0167747382759742</v>
       </c>
       <c r="J86" t="n">
-        <v>0.02028185365628929</v>
+        <v>0.04939914162021067</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01695024178139276</v>
+        <v>0.01656842826007466</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05026960575415199</v>
+        <v>0.08427423891713803</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01531797673207001</v>
+        <v>0.01637995986622839</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0798461236697785</v>
+        <v>0.01972197136892705</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01530230710164845</v>
+        <v>0.0167747382759742</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01527964953529241</v>
+        <v>0.020411671593212</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01598071460369859</v>
+        <v>0.01757353533673487</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02166246604703329</v>
+        <v>0.05130005868439497</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01775739615193527</v>
+        <v>0.01735740103436393</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05351227103631995</v>
+        <v>0.08737344114241052</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01604740419550192</v>
+        <v>0.0171599579550964</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08402667526118501</v>
+        <v>0.020411671593212</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01603098839220314</v>
+        <v>0.01757353533673487</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01483321666714309</v>
+        <v>0.02101618678615408</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01670711072204852</v>
+        <v>0.01837233239749555</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02334626584675065</v>
+        <v>0.05289340874210915</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01856455052247779</v>
+        <v>0.0181463738086532</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05625122752615808</v>
+        <v>0.08873857542794</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01677683165893383</v>
+        <v>0.01793995604396443</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0882593208516021</v>
+        <v>0.02101618678615408</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01675966968275782</v>
+        <v>0.01837233239749555</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01736912750837385</v>
+        <v>0.02183326795375182</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01743350684039846</v>
+        <v>0.01917112945825623</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02507151388958152</v>
+        <v>0.05447672062937903</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0193717048930203</v>
+        <v>0.01893534658294247</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05894518488128009</v>
+        <v>0.09206763664471446</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01750625912236573</v>
+        <v>0.01871995413283244</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09168046474122671</v>
+        <v>0.02183326795375182</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01748835097331251</v>
+        <v>0.01917112945825623</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01688334261113432</v>
+        <v>0.0223606661020037</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0181599029587484</v>
+        <v>0.0199699265190169</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02697647100966601</v>
+        <v>0.05614752318223043</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02017885926356281</v>
+        <v>0.01972431935723174</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06165285275929985</v>
+        <v>0.09335861966372211</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01823568658579764</v>
+        <v>0.01949995222170046</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09652651123025591</v>
+        <v>0.0223606661020037</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0182170322638672</v>
+        <v>0.0199699265190169</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01837182252757411</v>
+        <v>0.02309613223690825</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01888629907709833</v>
+        <v>0.02076872357977758</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02869939804114412</v>
+        <v>0.05740334523668919</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02098601363410532</v>
+        <v>0.02051329213152101</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06443294081783105</v>
+        <v>0.09600951935595098</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01896511404922954</v>
+        <v>0.02027995031056848</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1008338646188866</v>
+        <v>0.02309613223690825</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01894571355442189</v>
+        <v>0.02076872357977758</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01883052780984285</v>
+        <v>0.02393741736446396</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01961269519544827</v>
+        <v>0.02156752064053825</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03027855581815606</v>
+        <v>0.05904171562878116</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02179316800464784</v>
+        <v>0.02130226490581028</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06734415871448743</v>
+        <v>0.09741833059238925</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01969454151266145</v>
+        <v>0.0210599483994365</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1042389292073158</v>
+        <v>0.02393741736446396</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01967439484497658</v>
+        <v>0.02156752064053825</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01825541901009017</v>
+        <v>0.02488227249066934</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0203390913137982</v>
+        <v>0.02236631770129893</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03195220517484183</v>
+        <v>0.06076016319453217</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02260032237519035</v>
+        <v>0.02209123768009955</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06964521610688279</v>
+        <v>0.09958304824402497</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02042396897609335</v>
+        <v>0.02183994648830452</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1086781092957404</v>
+        <v>0.02488227249066934</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02040307613553126</v>
+        <v>0.02236631770129893</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01964245668046571</v>
+        <v>0.0255284486215229</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02106548743214814</v>
+        <v>0.02316511476205961</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03345860694534161</v>
+        <v>0.06205621676996806</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02340747674573286</v>
+        <v>0.02288021045438882</v>
       </c>
       <c r="L94" t="n">
-        <v>0.07209482265263092</v>
+        <v>0.1014016671818463</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02115339643952526</v>
+        <v>0.02261994457717253</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1116878091843574</v>
+        <v>0.0255284486215229</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02113175742608595</v>
+        <v>0.02316511476205961</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01798760137311907</v>
+        <v>0.02617369676302313</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02179188355049808</v>
+        <v>0.02396391182282029</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03483602196379544</v>
+        <v>0.06332740519111466</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02421463111627538</v>
+        <v>0.02366918322867809</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07425168800934551</v>
+        <v>0.1044721822768415</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02188282390295716</v>
+        <v>0.02339994266604055</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1160044331733638</v>
+        <v>0.02617369676302313</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02186043871664064</v>
+        <v>0.02396391182282029</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01828681364019989</v>
+        <v>0.02691576792116857</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02251827966884801</v>
+        <v>0.02476270888358096</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03602271106434346</v>
+        <v>0.06527125729399783</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02502178548681789</v>
+        <v>0.02445815600296736</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07677452183464031</v>
+        <v>0.1061925883999983</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02261225136638907</v>
+        <v>0.02417994075490857</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1190643855629565</v>
+        <v>0.02691576792116857</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02258912000719533</v>
+        <v>0.02476270888358096</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0205360540338578</v>
+        <v>0.02785241310195771</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02324467578719795</v>
+        <v>0.02556150594434163</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03635693508112574</v>
+        <v>0.0660853019146434</v>
       </c>
       <c r="K97" t="n">
-        <v>0.0258289398573604</v>
+        <v>0.02524712877725663</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07842203378612914</v>
+        <v>0.1071608804223053</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02334167882982098</v>
+        <v>0.02495993884377659</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1213040706533325</v>
+        <v>0.02785241310195771</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02331780129775001</v>
+        <v>0.02556150594434163</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01873128310624243</v>
+        <v>0.02838138331138904</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02397107190554788</v>
+        <v>0.02636030300510231</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03677700962765186</v>
+        <v>0.06746706788907714</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02663609422790291</v>
+        <v>0.02603610155154589</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07925293352142576</v>
+        <v>0.1098750532147503</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02407110629325288</v>
+        <v>0.02573993693264461</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1230598927446889</v>
+        <v>0.02838138331138904</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0240464825883047</v>
+        <v>0.02636030300510231</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02086846140950337</v>
+        <v>0.02920042955546109</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02469746802389782</v>
+        <v>0.02715910006586299</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0365502127428209</v>
+        <v>0.06941408405332494</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02744324859844542</v>
+        <v>0.02682507432583517</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08072593069814391</v>
+        <v>0.1114331016483215</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02480053375668479</v>
+        <v>0.02651993502151263</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1255682561372224</v>
+        <v>0.02920042955546109</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02477516387885939</v>
+        <v>0.02715910006586299</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01994354949579028</v>
+        <v>0.02990730284017235</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02542386414224775</v>
+        <v>0.02795789712662367</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03647456671495476</v>
+        <v>0.0704238792434127</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02825040296898794</v>
+        <v>0.02761404710012444</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08129973497389725</v>
+        <v>0.1135330205940072</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02552996122011669</v>
+        <v>0.02729993311038064</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1255655651311303</v>
+        <v>0.02990730284017235</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02550384516941408</v>
+        <v>0.02795789712662367</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02095523792067865</v>
+        <v>0.03059975417152132</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02615026026059769</v>
+        <v>0.02875669418738434</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03665460580645925</v>
+        <v>0.07159398229536618</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02905755733953044</v>
+        <v>0.0284030198744137</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08173305635327924</v>
+        <v>0.1147728049227951</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0262593886835486</v>
+        <v>0.02807993119924867</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1260887422715803</v>
+        <v>0.03059975417152132</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02623252645996877</v>
+        <v>0.02875669418738434</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0209311550702757</v>
+        <v>0.03107553455550655</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02687665637894763</v>
+        <v>0.02955549124814501</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03649486427974016</v>
+        <v>0.07302192204521119</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02986471171007296</v>
+        <v>0.02919199264870297</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08146600702062679</v>
+        <v>0.1157504495056737</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0269888161469805</v>
+        <v>0.02885992928811668</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1264300532634101</v>
+        <v>0.03107553455550655</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02696120775052346</v>
+        <v>0.02955549124814501</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0198811718484228</v>
+        <v>0.03203239499812646</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02760305249729756</v>
+        <v>0.0303542883089057</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03629987639720331</v>
+        <v>0.07370522732897364</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03067186608061548</v>
+        <v>0.02998096542299225</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08097288513338682</v>
+        <v>0.117363949213631</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02771824361041241</v>
+        <v>0.0296399273769847</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1253022883344629</v>
+        <v>0.03203239499812646</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02768988904107814</v>
+        <v>0.0303542883089057</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01880742276164855</v>
+        <v>0.03266808650537963</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0283294486156475</v>
+        <v>0.03115308536966637</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03607417642125443</v>
+        <v>0.07554142698267935</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03147902045115798</v>
+        <v>0.03076993819728151</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08116514399720173</v>
+        <v>0.119911298917655</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02844767107384431</v>
+        <v>0.03041992546585272</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1249342876738778</v>
+        <v>0.03266808650537963</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02841857033163283</v>
+        <v>0.03115308536966637</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01871204231648152</v>
+        <v>0.03318036008326455</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02905584473399743</v>
+        <v>0.03195188243042704</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0355222986142994</v>
+        <v>0.07602804984235412</v>
       </c>
       <c r="K105" t="n">
-        <v>0.0322861748217005</v>
+        <v>0.03155891097157078</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08025423691771386</v>
+        <v>0.120390493488734</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02917709853727622</v>
+        <v>0.03119992355472074</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1248548914707941</v>
+        <v>0.03318036008326455</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02914725162218752</v>
+        <v>0.03195188243042704</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01959716501945032</v>
+        <v>0.03366696673777972</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02978224085234737</v>
+        <v>0.03275067949118773</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03554877723874393</v>
+        <v>0.07756262474402378</v>
       </c>
       <c r="K106" t="n">
-        <v>0.033093329192243</v>
+        <v>0.03234788374586005</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08005161720056547</v>
+        <v>0.122499527797856</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02990652600070812</v>
+        <v>0.03197992164358875</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1225929399143511</v>
+        <v>0.03366696673777972</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02987593291274221</v>
+        <v>0.03275067949118773</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02046492537708353</v>
+        <v>0.03432565747492365</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0305086369706973</v>
+        <v>0.0335494765519484</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03495814655699388</v>
+        <v>0.0781426805237142</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03390048356278552</v>
+        <v>0.03313685652014933</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07946873815139904</v>
+        <v>0.1231363967160092</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03063595346414003</v>
+        <v>0.03275991973245677</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1217772731936878</v>
+        <v>0.03432565747492365</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0306046142032969</v>
+        <v>0.0335494765519484</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01831745789590972</v>
+        <v>0.03495418330069483</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03123503308904724</v>
+        <v>0.03434827361270907</v>
       </c>
       <c r="J108" t="n">
-        <v>0.034654940831455</v>
+        <v>0.07876574601745126</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03470763793332804</v>
+        <v>0.0339258292944386</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07881705307585687</v>
+        <v>0.1246990951141816</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03136538092757193</v>
+        <v>0.0335399178213248</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1200367314979436</v>
+        <v>0.03495418330069483</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03133329549385158</v>
+        <v>0.03434827361270907</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01815689708245753</v>
+        <v>0.03515029522109181</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03196142920739718</v>
+        <v>0.03514707067346975</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0346436943245331</v>
+        <v>0.08002935006126072</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03551479230387054</v>
+        <v>0.03471480206872786</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0784080152795813</v>
+        <v>0.1252856178633615</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03209480839100384</v>
+        <v>0.03431991591019281</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1187001550162576</v>
+        <v>0.03515029522109181</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03206197678440628</v>
+        <v>0.03514707067346975</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01998537744325551</v>
+        <v>0.03561174424211305</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03268782532574711</v>
+        <v>0.03594586773423043</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03432894129863398</v>
+        <v>0.08063102149116846</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03632194667441306</v>
+        <v>0.03550377484301713</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07715307806821467</v>
+        <v>0.1257939598345369</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03282423585443574</v>
+        <v>0.03509991399906083</v>
       </c>
       <c r="N110" t="n">
-        <v>0.118196383937769</v>
+        <v>0.03561174424211305</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03279065807496096</v>
+        <v>0.03594586773423043</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01780503348483226</v>
+        <v>0.03623628136975707</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03341422144409704</v>
+        <v>0.0367446647949911</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03381521601616341</v>
+        <v>0.08136828914320027</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03712910104495557</v>
+        <v>0.0362927476173064</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07676369474739933</v>
+        <v>0.1280221158986959</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03355366331786765</v>
+        <v>0.03587991208792885</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1158542584516171</v>
+        <v>0.03623628136975707</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03351933936551565</v>
+        <v>0.0367446647949911</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01861799971371637</v>
+        <v>0.03652165761002234</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03414061756244698</v>
+        <v>0.03754346185575178</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03350705273952723</v>
+        <v>0.08243868185338199</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03793625541549808</v>
+        <v>0.03708172039159567</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07545131862277768</v>
+        <v>0.1287680809268267</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03428309078129956</v>
+        <v>0.03665991017679687</v>
       </c>
       <c r="N112" t="n">
-        <v>0.115202618746941</v>
+        <v>0.03652165761002234</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03424802065607033</v>
+        <v>0.03754346185575178</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01942641063643644</v>
+        <v>0.03686562396890744</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03486701368079692</v>
+        <v>0.03834225891651246</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03320898573113119</v>
+        <v>0.08303972845773955</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03874340978604059</v>
+        <v>0.03787069316588493</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07462740299999204</v>
+        <v>0.1284298497899173</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03501251824473146</v>
+        <v>0.03743990826566488</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1134703050128799</v>
+        <v>0.03686562396890744</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03497670194662503</v>
+        <v>0.03834225891651246</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01923240075952105</v>
+        <v>0.03706593145241084</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03559340979914685</v>
+        <v>0.03914105597727313</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03292554925338111</v>
+        <v>0.08366895779229871</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03955056415658311</v>
+        <v>0.03865966594017421</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07370340118468477</v>
+        <v>0.1290054173589559</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03574194570816337</v>
+        <v>0.0382199063545329</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1108861574385732</v>
+        <v>0.03706593145241084</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03570538323717971</v>
+        <v>0.03914105597727313</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0190381045894988</v>
+        <v>0.03752033106653103</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03631980591749679</v>
+        <v>0.0399398530380338</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03286127756868276</v>
+        <v>0.08412389869308529</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04035771852712562</v>
+        <v>0.03944863871446348</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07349076648249819</v>
+        <v>0.1302927785049307</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03647137317159527</v>
+        <v>0.03899990444340092</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1099790162131599</v>
+        <v>0.03752033106653103</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0364340645277344</v>
+        <v>0.0399398530380338</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01884565663289827</v>
+        <v>0.03762657381726654</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03704620203584672</v>
+        <v>0.04073865009879448</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03232070493944196</v>
+        <v>0.08440207999612517</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04116487289766813</v>
+        <v>0.04023761148875275</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07260095219907473</v>
+        <v>0.1302899280988297</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03720080063502718</v>
+        <v>0.03977990253226894</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1093777215257793</v>
+        <v>0.03762657381726654</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03716274581828909</v>
+        <v>0.04073865009879448</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01665719139624805</v>
+        <v>0.03768241071061589</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03777259815419667</v>
+        <v>0.04153744715955516</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03210836562806449</v>
+        <v>0.08450103053744418</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04197202726821064</v>
+        <v>0.04102658426304202</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07214541164005664</v>
+        <v>0.130994861011641</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03793022809845908</v>
+        <v>0.04055990062113696</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1075111135655705</v>
+        <v>0.03768241071061589</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03789142710884377</v>
+        <v>0.04153744715955516</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01847484338607674</v>
+        <v>0.03778559275257753</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0384989942725466</v>
+        <v>0.04233624422031584</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03212879389695612</v>
+        <v>0.08501827915306814</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04277918163875315</v>
+        <v>0.04181555703733129</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07063559811108633</v>
+        <v>0.1314055721143528</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03865965556189099</v>
+        <v>0.04133989871000498</v>
       </c>
       <c r="N118" t="n">
-        <v>0.106608032521673</v>
+        <v>0.03778559275257753</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03862010839939847</v>
+        <v>0.04233624422031584</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01730074710891293</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03922539039089654</v>
+        <v>0.04313504128107651</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0320865240085227</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04358633600929567</v>
+        <v>0.04260452981162056</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07058296491780616</v>
+        <v>0.1322200562779532</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03938908302532289</v>
+        <v>0.04211989679887299</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1055973185832256</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03934878968995315</v>
+        <v>0.04313504128107651</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01713703707128519</v>
+        <v>0.03783589559509369</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03995178650924647</v>
+        <v>0.04393383834183719</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03178609022516997</v>
+        <v>0.08499778595133423</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04439349037983818</v>
+        <v>0.04339350258590983</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06939896536585846</v>
+        <v>0.1324582493839274</v>
       </c>
       <c r="M120" t="n">
-        <v>0.0401185104887548</v>
+        <v>0.04289989488774101</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1058078119393678</v>
+        <v>0.03783589559509369</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04007747098050784</v>
+        <v>0.04393383834183719</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01698584777972215</v>
+        <v>0.03812791696355901</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04067818262759641</v>
+        <v>0.04473263540259786</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03163202680930377</v>
+        <v>0.08529474811984886</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04520064475038069</v>
+        <v>0.04418247536019909</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06939505276088556</v>
+        <v>0.1314568886759597</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04084793795218671</v>
+        <v>0.04367989297660903</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1053683527792388</v>
+        <v>0.03812791696355901</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04080615227106252</v>
+        <v>0.04473263540259786</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01784931374075235</v>
+        <v>0.03781320923703956</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04140457874594634</v>
+        <v>0.04553143246335854</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03173165458773827</v>
+        <v>0.08488525665874677</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04600779912092321</v>
+        <v>0.04497144813448837</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06858268040852983</v>
+        <v>0.1319373992439564</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04157736541561861</v>
+        <v>0.04445989106547705</v>
       </c>
       <c r="N122" t="n">
-        <v>0.105002606801627</v>
+        <v>0.03781320923703956</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04153483356161722</v>
+        <v>0.04553143246335854</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01672956946090442</v>
+        <v>0.03779196688280553</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04213097486429628</v>
+        <v>0.04633022952411921</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03190696079097093</v>
+        <v>0.08456939237990072</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04681495349146571</v>
+        <v>0.04576042090877763</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06837330161443364</v>
+        <v>0.1313952402065304</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04230679287905052</v>
+        <v>0.04523988915434507</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1056420206446642</v>
+        <v>0.03779196688280553</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0422635148521719</v>
+        <v>0.04633022952411921</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01762874944670693</v>
+        <v>0.03806438436812706</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04285737098264621</v>
+        <v>0.04712902658487989</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03195526901675515</v>
+        <v>0.08504720892568182</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04762210786200823</v>
+        <v>0.0465493936830669</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06867836968423932</v>
+        <v>0.131030983256774</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04303622034248242</v>
+        <v>0.04601988724321309</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1046474343341535</v>
+        <v>0.03806438436812706</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04299219614272659</v>
+        <v>0.04712902658487989</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0155489882046885</v>
+        <v>0.03793065616027434</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04358376710099615</v>
+        <v>0.04792782364564057</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03206862635934224</v>
+        <v>0.08441875993846135</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04842926223255075</v>
+        <v>0.04733836645735617</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06790933792358925</v>
+        <v>0.1317452000877798</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04376564780591433</v>
+        <v>0.04679988533208111</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1063068298156852</v>
+        <v>0.03793065616027434</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04372087743328128</v>
+        <v>0.04792782364564057</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01649242024137768</v>
+        <v>0.03799097672651754</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04431016321934608</v>
+        <v>0.04872662070640124</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03243907991298341</v>
+        <v>0.08438409906061042</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04923641660309325</v>
+        <v>0.04812733923164544</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0682901756592357</v>
+        <v>0.1315384623926403</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04449507526934623</v>
+        <v>0.04757988342094912</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1066081890348496</v>
+        <v>0.03799097672651754</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04444955872383596</v>
+        <v>0.04872662070640124</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01746118006330308</v>
+        <v>0.03764554053412682</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04503655933769602</v>
+        <v>0.04952541776716192</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03295867677192998</v>
+        <v>0.08494327993450027</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05004357097363577</v>
+        <v>0.04891631200593471</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06822881843928896</v>
+        <v>0.1307113418644477</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04522450273277814</v>
+        <v>0.04835988150981714</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1068394939372369</v>
+        <v>0.03764554053412682</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04517824001439066</v>
+        <v>0.04952541776716192</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01545887994869213</v>
+        <v>0.03759454205037235</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04576295545604595</v>
+        <v>0.0503242148279226</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03331946403043319</v>
+        <v>0.08439635620250205</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05085072534417828</v>
+        <v>0.04970528478022398</v>
       </c>
       <c r="L128" t="n">
-        <v>0.06911098853656114</v>
+        <v>0.1306644101962947</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04595393019621005</v>
+        <v>0.04913987959868516</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1077887264684373</v>
+        <v>0.03759454205037235</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04590692130494534</v>
+        <v>0.0503242148279226</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01750178967732859</v>
+        <v>0.0375381757425243</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04648935157439589</v>
+        <v>0.05112301188868327</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03351348878274429</v>
+        <v>0.08444338150698699</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05165787971472079</v>
+        <v>0.05049425755451326</v>
       </c>
       <c r="L129" t="n">
-        <v>0.06932240354998839</v>
+        <v>0.1309982390812736</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04668335765964195</v>
+        <v>0.04991987768755318</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1091438685740415</v>
+        <v>0.0375381757425243</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04663560259550003</v>
+        <v>0.05112301188868327</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01759024303154492</v>
+        <v>0.03777663607785282</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04721574769274583</v>
+        <v>0.05192180894944395</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03393279812311459</v>
+        <v>0.08438440949032627</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05246503408526331</v>
+        <v>0.05128323032880253</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07024878107850693</v>
+        <v>0.1314134002124769</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04741278512307386</v>
+        <v>0.0506998757764212</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1100929021996393</v>
+        <v>0.03777663607785282</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04736428388605472</v>
+        <v>0.05192180894944395</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01671965524868895</v>
+        <v>0.03751011752362811</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04794214381109576</v>
+        <v>0.05272060601020462</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03456943914579534</v>
+        <v>0.08471949379489105</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05327218845580582</v>
+        <v>0.05207220310309179</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07057583872105286</v>
+        <v>0.1300104652829969</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04814221258650576</v>
+        <v>0.05147987386528922</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1112238092908212</v>
+        <v>0.03751011752362811</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04809296517660941</v>
+        <v>0.05272060601020462</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01788544156610856</v>
+        <v>0.03743881454712032</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0486685399294457</v>
+        <v>0.0535194030709653</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03481545894503776</v>
+        <v>0.08464868806305251</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05407934282634833</v>
+        <v>0.05286117587738106</v>
       </c>
       <c r="L132" t="n">
-        <v>0.0717892940765624</v>
+        <v>0.1308900059859264</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04887164004993767</v>
+        <v>0.05225987195415724</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1118245717931775</v>
+        <v>0.03743881454712032</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0488216464671641</v>
+        <v>0.0535194030709653</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0180830172211516</v>
+        <v>0.03736292161559963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04939493604779564</v>
+        <v>0.05431820013172598</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03536290461509319</v>
+        <v>0.08437204593718192</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05488649719689084</v>
+        <v>0.05365014865167033</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07257486474397165</v>
+        <v>0.1304525940143575</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04960106751336957</v>
+        <v>0.05303987004302525</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1140831716522985</v>
+        <v>0.03736292161559963</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04955032775771878</v>
+        <v>0.05431820013172598</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01730779745116594</v>
+        <v>0.03728263319633619</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05012133216614557</v>
+        <v>0.05511699719248666</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03560382325021286</v>
+        <v>0.08408962105965045</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05569365156743335</v>
+        <v>0.0544391214259596</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07381826832221683</v>
+        <v>0.1305988010613828</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05033049497680148</v>
+        <v>0.05381986813189327</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1145875908137745</v>
+        <v>0.03728263319633619</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05027900904827348</v>
+        <v>0.05511699719248666</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01655519749349944</v>
+        <v>0.0371981437566002</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05084772828449551</v>
+        <v>0.05591579425324733</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03613026194464802</v>
+        <v>0.08420146707282919</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05650080593797587</v>
+        <v>0.05522809420024887</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07430522241023407</v>
+        <v>0.1291291988200948</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05105992244023339</v>
+        <v>0.05459986622076129</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1155258112231957</v>
+        <v>0.0371981437566002</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05100769033882815</v>
+        <v>0.05591579425324733</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01882063258549994</v>
+        <v>0.03710964776366181</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05157412440284544</v>
+        <v>0.056714591314008</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03673426779264996</v>
+        <v>0.08400763761908944</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05730796030851839</v>
+        <v>0.05601706697453814</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07592144460695957</v>
+        <v>0.1292443589835857</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05178934990366529</v>
+        <v>0.05537986430962932</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1170858148261524</v>
+        <v>0.03710964776366181</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05173637162938285</v>
+        <v>0.056714591314008</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01909951796451533</v>
+        <v>0.03711733968479118</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05230052052119537</v>
+        <v>0.05751338837476868</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03690788788846994</v>
+        <v>0.08400818634080234</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05811511467906089</v>
+        <v>0.05680603974882741</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07685265251132944</v>
+        <v>0.1289448532449483</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0525187773670972</v>
+        <v>0.05615986239849733</v>
       </c>
       <c r="N137" t="n">
-        <v>0.119555583568235</v>
+        <v>0.03711733968479118</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05246505291993753</v>
+        <v>0.05751338837476868</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01938726886789344</v>
+        <v>0.03712141398725848</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05302691663954531</v>
+        <v>0.05831218543552935</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03724316932635922</v>
+        <v>0.08360316688033911</v>
       </c>
       <c r="K138" t="n">
-        <v>0.0589222690496034</v>
+        <v>0.05759501252311668</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07748456372227991</v>
+        <v>0.1292312532972748</v>
       </c>
       <c r="M138" t="n">
-        <v>0.0532482048305291</v>
+        <v>0.05693986048736534</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1204230993950338</v>
+        <v>0.03712141398725848</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05319373421049223</v>
+        <v>0.05831218543552935</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01967930053298216</v>
+        <v>0.03682206513833389</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05375331275789525</v>
+        <v>0.05911098249629003</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03753215920056908</v>
+        <v>0.08359263288007093</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05972942342014592</v>
+        <v>0.05838398529740595</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07830289583874706</v>
+        <v>0.1278041308336577</v>
       </c>
       <c r="M139" t="n">
-        <v>0.053977632293961</v>
+        <v>0.05771985857623337</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1221763442521389</v>
+        <v>0.03682206513833389</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05392241550104691</v>
+        <v>0.05911098249629003</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01897102819712931</v>
+        <v>0.03671948760528758</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05447970887624518</v>
+        <v>0.05990977955705071</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03796690460535078</v>
+        <v>0.08377663798236895</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06053657779068843</v>
+        <v>0.05917295807169522</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07959336645966714</v>
+        <v>0.1286640575471895</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05470705975739291</v>
+        <v>0.05849985666510138</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1232033000851406</v>
+        <v>0.03671948760528758</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05465109679160159</v>
+        <v>0.05990977955705071</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01825786709768281</v>
+        <v>0.03681387585538971</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05520610499459512</v>
+        <v>0.06070857661781139</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.08355523582960442</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06134373216123095</v>
+        <v>0.05996193084598449</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08054169318397628</v>
+        <v>0.1283116051309627</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05543648722082482</v>
+        <v>0.05927985475396941</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1235919488396294</v>
+        <v>0.03681387585538971</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05537977808215628</v>
+        <v>0.06070857661781139</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01853523247199046</v>
+        <v>0.03650542435591045</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05593250111294506</v>
+        <v>0.06150737367857206</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03827840979294082</v>
+        <v>0.08342848006414846</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06215088653177345</v>
+        <v>0.06075090362027375</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08143359361061064</v>
+        <v>0.1272473452780695</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05616591468425672</v>
+        <v>0.06005985284283741</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1249302724611955</v>
+        <v>0.03650542435591045</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05610845937271097</v>
+        <v>0.06150737367857206</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02079853955740017</v>
+        <v>0.03629432757411998</v>
       </c>
       <c r="G143" t="n">
-        <v>0.056658897231295</v>
+        <v>0.06230617073933273</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03831546610941372</v>
+        <v>0.08339642432837238</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06295804090231596</v>
+        <v>0.06153987639456302</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08235478533850638</v>
+        <v>0.1269718496816026</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05689534214768863</v>
+        <v>0.06083985093170544</v>
       </c>
       <c r="N143" t="n">
-        <v>0.126806252895429</v>
+        <v>0.03629432757411998</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05683714066326566</v>
+        <v>0.06230617073933273</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02004320359125975</v>
+        <v>0.03618077997728845</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05738529334964492</v>
+        <v>0.06310496780009341</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0384503884503364</v>
+        <v>0.08325912226464721</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06376519527285848</v>
+        <v>0.0623288491688523</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08299098596659965</v>
+        <v>0.1263856900346544</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05762476961112053</v>
+        <v>0.06161984902057346</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1281078720879205</v>
+        <v>0.03618077997728845</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05756582195382035</v>
+        <v>0.06310496780009341</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02126463981091709</v>
+        <v>0.03626497603268602</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05811168946799486</v>
+        <v>0.06390376486085408</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03868293611831855</v>
+        <v>0.08321662751534425</v>
       </c>
       <c r="K145" t="n">
-        <v>0.064572349643401</v>
+        <v>0.06311782194314157</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08332791309382667</v>
+        <v>0.1268894380303173</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05835419707455244</v>
+        <v>0.06239984710944147</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1283231119842601</v>
+        <v>0.03626497603268602</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05829450324437504</v>
+        <v>0.06390376486085408</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01945826345372005</v>
+        <v>0.03614711020758291</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0588380855863448</v>
+        <v>0.06470256192161476</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03881286841596984</v>
+        <v>0.08276899372283469</v>
       </c>
       <c r="K146" t="n">
-        <v>0.0653795040139435</v>
+        <v>0.06390679471743084</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08445128431912358</v>
+        <v>0.1261836653616837</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05908362453798435</v>
+        <v>0.06317984519830949</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1290399545300381</v>
+        <v>0.03614711020758291</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05902318453492972</v>
+        <v>0.06470256192161476</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02161948975701649</v>
+        <v>0.03602737696924922</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05956448170469474</v>
+        <v>0.06550135898237545</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03893994464589996</v>
+        <v>0.08251627452948967</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06618665838448601</v>
+        <v>0.0646957674917201</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08424681724142646</v>
+        <v>0.1258689437218461</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05981305200141625</v>
+        <v>0.06395984328717751</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1307463816708449</v>
+        <v>0.03602737696924922</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05975186582548441</v>
+        <v>0.06550135898237545</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02074373395815426</v>
+        <v>0.03590597078495518</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06029087782304467</v>
+        <v>0.06630015604313612</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03876392411071865</v>
+        <v>0.08295852357768041</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06699381275502853</v>
+        <v>0.06548474026600937</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08490022945967157</v>
+        <v>0.1255458448038971</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06054247946484816</v>
+        <v>0.06473984137604553</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1315303753522706</v>
+        <v>0.03590597078495518</v>
       </c>
       <c r="O148" t="n">
-        <v>0.0604805471160391</v>
+        <v>0.06630015604313612</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02184815712483326</v>
+        <v>0.03578308612197094</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0610172739413946</v>
+        <v>0.0670989531038968</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03918456611303553</v>
+        <v>0.08279579450977811</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06780096712557104</v>
+        <v>0.06627371304029865</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08529781525000252</v>
+        <v>0.1251149403009288</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06127190692828006</v>
+        <v>0.06551983946491355</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1324582493839274</v>
+        <v>0.03578308612197094</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06120922840659379</v>
+        <v>0.0670989531038968</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02087065513895673</v>
+        <v>0.03545891744756666</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06174367005974454</v>
+        <v>0.06789775016465747</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03930162995546034</v>
+        <v>0.08222814096815392</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06860812149611356</v>
+        <v>0.06706268581458792</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08479743352061156</v>
+        <v>0.124776801906034</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06200133439171197</v>
+        <v>0.06629983755378158</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1318344383236587</v>
+        <v>0.03545891744756666</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06193790969714848</v>
+        <v>0.06789775016465747</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01990953784828049</v>
+        <v>0.03533365922901249</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06247006617809448</v>
+        <v>0.06869654722541814</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03911487494060278</v>
+        <v>0.08175561659517908</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06941527586665608</v>
+        <v>0.06785165858887719</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08459615070503679</v>
+        <v>0.1240320013123049</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06273076185514387</v>
+        <v>0.06707983564264959</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1329835292033766</v>
+        <v>0.03533365922901249</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06266659098770316</v>
+        <v>0.06869654722541814</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02194740943075579</v>
+        <v>0.03530750593357862</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06319646229644442</v>
+        <v>0.06949534428617882</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0393240603710725</v>
+        <v>0.08207827503322471</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07022243023719858</v>
+        <v>0.06864063136316645</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08499396675009444</v>
+        <v>0.1238811102128341</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06346018931857578</v>
+        <v>0.0678598337315176</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1325287896387566</v>
+        <v>0.03530750593357862</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06339527227825785</v>
+        <v>0.06949534428617882</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02198426549141051</v>
+        <v>0.03518065202853524</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06392285841479435</v>
+        <v>0.0702941413469395</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03932894554947923</v>
+        <v>0.0819961699246621</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07102958460774109</v>
+        <v>0.06942960413745572</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08499088465292856</v>
+        <v>0.123424700300714</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06418961678200769</v>
+        <v>0.06863983182038562</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1330697724633706</v>
+        <v>0.03518065202853524</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06412395356881255</v>
+        <v>0.0702941413469395</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02002010163527253</v>
+        <v>0.03495329198115248</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06464925453314428</v>
+        <v>0.07109293840770019</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03952928977843262</v>
+        <v>0.08110935491186236</v>
       </c>
       <c r="K154" t="n">
-        <v>0.0718367389782836</v>
+        <v>0.07021857691174499</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08528690741068332</v>
+        <v>0.122063343269037</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06491904424543959</v>
+        <v>0.06941982990925363</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1338060305107908</v>
+        <v>0.03495329198115248</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06485263485936724</v>
+        <v>0.07109293840770019</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02105491346736973</v>
+        <v>0.03512562025870053</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06537565065149423</v>
+        <v>0.07189173546846085</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03952485236054241</v>
+        <v>0.08121788363719665</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07264389334882612</v>
+        <v>0.07100754968603426</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08528203802050285</v>
+        <v>0.1212976108108956</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06564847170887149</v>
+        <v>0.07019982799812166</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1343371166145896</v>
+        <v>0.03512562025870053</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06558131614992192</v>
+        <v>0.07189173546846085</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02208869659272995</v>
+        <v>0.03489783132844954</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06610204676984416</v>
+        <v>0.07269053252922153</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03961539259841826</v>
+        <v>0.08092180974303628</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07345104771936864</v>
+        <v>0.07179652246032353</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08477627947953126</v>
+        <v>0.1214280746193823</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0663778991723034</v>
+        <v>0.07097982608698968</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1347625836083389</v>
+        <v>0.03489783132844954</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06630999744047661</v>
+        <v>0.07269053252922153</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02012144661638109</v>
+        <v>0.0348701196576697</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06682844288819409</v>
+        <v>0.07348932958998221</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03970066979466985</v>
+        <v>0.08092118687175237</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07425820208991114</v>
+        <v>0.0725854952346128</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08516963478491271</v>
+        <v>0.1215553063875895</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06710732663573531</v>
+        <v>0.0717598241758577</v>
       </c>
       <c r="N157" t="n">
-        <v>0.135681984325611</v>
+        <v>0.0348701196576697</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0670386787310313</v>
+        <v>0.07348932958998221</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.021153159143351</v>
+        <v>0.03464267971363118</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06755483900654402</v>
+        <v>0.07428812665074287</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03998044325190692</v>
+        <v>0.08111606866571611</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07506535646045365</v>
+        <v>0.07337446800890207</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08456210693379126</v>
+        <v>0.1205798778086095</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06783675409916722</v>
+        <v>0.07253982226472572</v>
       </c>
       <c r="N158" t="n">
-        <v>0.135894871599978</v>
+        <v>0.03464267971363118</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06776736002158598</v>
+        <v>0.07428812665074287</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02118382977866756</v>
+        <v>0.03451570596360413</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06828123512489397</v>
+        <v>0.07508692371150355</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03985447227273911</v>
+        <v>0.08050650876729865</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07587251083099616</v>
+        <v>0.07416344078319134</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08515369892331109</v>
+        <v>0.119902360575535</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06856618156259912</v>
+        <v>0.07331982035359373</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1363007982650121</v>
+        <v>0.03451570596360413</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06849604131214067</v>
+        <v>0.07508692371150355</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02121345412735866</v>
+        <v>0.03438939287485872</v>
       </c>
       <c r="G160" t="n">
-        <v>0.0690076312432439</v>
+        <v>0.07588572077226423</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03992251615977616</v>
+        <v>0.08009256081887128</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07667966520153868</v>
+        <v>0.07495241355748061</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08484441375061633</v>
+        <v>0.1189233263814582</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06929560902603102</v>
+        <v>0.07409981844246176</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1360993171542856</v>
+        <v>0.03438939287485872</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06922472260269537</v>
+        <v>0.07588572077226423</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02024202779445214</v>
+        <v>0.03416393491466514</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06973402736159384</v>
+        <v>0.07668451783302492</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03998433421562771</v>
+        <v>0.08017427846280512</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07748681957208119</v>
+        <v>0.07574138633176987</v>
       </c>
       <c r="L161" t="n">
-        <v>0.08473425441285107</v>
+        <v>0.1187433469194718</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07002503648946293</v>
+        <v>0.07487981653132976</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1371899811013704</v>
+        <v>0.03416393491466514</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06995340389325005</v>
+        <v>0.07668451783302492</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02226954638497587</v>
+        <v>0.03403952655029355</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07046042347994377</v>
+        <v>0.07748331489378558</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04033968574290347</v>
+        <v>0.07985171534147137</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0782939739426237</v>
+        <v>0.07653035910605914</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08482322390715946</v>
+        <v>0.1182629938826681</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07075446395289484</v>
+        <v>0.07565981462019779</v>
       </c>
       <c r="N162" t="n">
-        <v>0.137472342939839</v>
+        <v>0.03403952655029355</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07068208518380473</v>
+        <v>0.07748331489378558</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02129600550395776</v>
+        <v>0.03391636224901411</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0711868195982937</v>
+        <v>0.07828211195454626</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04038833004421315</v>
+        <v>0.07992492509724122</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07910112831316622</v>
+        <v>0.07731933188034841</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08461132523068562</v>
+        <v>0.1186828389641396</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07148389141632674</v>
+        <v>0.0764398127090658</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1371459555032633</v>
+        <v>0.03391636224901411</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07141076647435941</v>
+        <v>0.07828211195454626</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02032140075642565</v>
+        <v>0.03399133259210234</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07191321571664365</v>
+        <v>0.07908090901530694</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04033002642216642</v>
+        <v>0.07949396137248588</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07990828268370873</v>
+        <v>0.07810830465463769</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08469856138057363</v>
+        <v>0.1179034538569788</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07221331887975864</v>
+        <v>0.07721981079793383</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1379103716252155</v>
+        <v>0.03399133259210234</v>
       </c>
       <c r="O164" t="n">
-        <v>0.0721394477649141</v>
+        <v>0.07908090901530694</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02034572774740742</v>
+        <v>0.03356058233563895</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07263961183499358</v>
+        <v>0.07987970607606761</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04026453417937298</v>
+        <v>0.07895887780957653</v>
       </c>
       <c r="K165" t="n">
-        <v>0.08071543705425124</v>
+        <v>0.07889727742892697</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08458493535396772</v>
+        <v>0.1165249263916229</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07294274634319055</v>
+        <v>0.07799980888680184</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1376651441392679</v>
+        <v>0.03356058233563895</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0728681290554688</v>
+        <v>0.07987970607606761</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02236898208193094</v>
+        <v>0.03372437388411278</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07336600795334351</v>
+        <v>0.08067850313682828</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04029161261844252</v>
+        <v>0.07921972805088431</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08152259142479375</v>
+        <v>0.07968625020321622</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08497045014801188</v>
+        <v>0.1162280322415337</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07367217380662246</v>
+        <v>0.07877980697566986</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1393098258789926</v>
+        <v>0.03372437388411278</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07359681034602349</v>
+        <v>0.08067850313682828</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02239115936502407</v>
+        <v>0.03358298132107043</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07409240407169344</v>
+        <v>0.08147730019758896</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04031102104198477</v>
+        <v>0.07837656573878049</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08232974579533626</v>
+        <v>0.08047522297750549</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08495510875985032</v>
+        <v>0.1165031851730536</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07440160127005437</v>
+        <v>0.07955980506453789</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1392439696779618</v>
+        <v>0.03358298132107043</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07432549163657817</v>
+        <v>0.08147730019758896</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0204122552017147</v>
+        <v>0.03323667873005855</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07481880019004339</v>
+        <v>0.08227609725834964</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04052251875260936</v>
+        <v>0.07812944451563625</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08313690016587878</v>
+        <v>0.08126419575179476</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08453891418662718</v>
+        <v>0.1157512318366295</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07513102873348627</v>
+        <v>0.0803398031534059</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1388671283697476</v>
+        <v>0.03323667873005855</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07505417292713286</v>
+        <v>0.08227609725834964</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0224322651970307</v>
+        <v>0.0332857401946238</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07554519630839333</v>
+        <v>0.08307489431911032</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04052577009627659</v>
+        <v>0.07797841802382272</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08394405453642129</v>
+        <v>0.08205316852608403</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08432186942548656</v>
+        <v>0.1153730188827086</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07586045619691817</v>
+        <v>0.08111980124227391</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1397788547879222</v>
+        <v>0.0332857401946238</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07578285421768755</v>
+        <v>0.08307489431911032</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02145118495599993</v>
+        <v>0.03293043979831281</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07627159242674325</v>
+        <v>0.083873691379871</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04040895690971405</v>
+        <v>0.07772353990571113</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0847512089069638</v>
+        <v>0.0828421413003733</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08460397747357257</v>
+        <v>0.1139693929617382</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07658988366035008</v>
+        <v>0.08189979933114193</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1396787017660577</v>
+        <v>0.03293043979831281</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07651153550824223</v>
+        <v>0.083873691379871</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02046901008365026</v>
+        <v>0.03267105162467221</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0769979885450932</v>
+        <v>0.08467248844063167</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04016513987651836</v>
+        <v>0.07796486380367268</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08555836327750631</v>
+        <v>0.08363111407466257</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08488524132802933</v>
+        <v>0.1130412007241654</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07731931112378199</v>
+        <v>0.08267979742000996</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1400662221377265</v>
+        <v>0.03267105162467221</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07724021679879693</v>
+        <v>0.08467248844063167</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02148573618500958</v>
+        <v>0.03270784975724862</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07772438466344313</v>
+        <v>0.08547128550139234</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04029593521528149</v>
+        <v>0.07710244336007852</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08636551764804883</v>
+        <v>0.08442008684895184</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08496566398600103</v>
+        <v>0.1134892888204376</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07804873858721388</v>
+        <v>0.08345979550887797</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1405409687365006</v>
+        <v>0.03270784975724862</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07796889808935162</v>
+        <v>0.08547128550139234</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02250135886510575</v>
+        <v>0.03254110827958873</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07845078078179307</v>
+        <v>0.08627008256215302</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04020295914459551</v>
+        <v>0.07679922804998124</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08717267201859134</v>
+        <v>0.08520905962324112</v>
       </c>
       <c r="L173" t="n">
-        <v>0.0848452484446317</v>
+        <v>0.1129145039010017</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07877816605064579</v>
+        <v>0.08423979359774598</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1401024943959521</v>
+        <v>0.03254110827958873</v>
       </c>
       <c r="O173" t="n">
-        <v>0.0786975793799063</v>
+        <v>0.08627008256215302</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02151587372896663</v>
+        <v>0.03247110127523913</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07917717690014299</v>
+        <v>0.08706887962291369</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04008782788305243</v>
+        <v>0.0762786627233501</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08797982638913386</v>
+        <v>0.08599803239753039</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08472399770106553</v>
+        <v>0.1116176926163052</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0795075935140777</v>
+        <v>0.08501979168661401</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1405503519496533</v>
+        <v>0.03247110127523913</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07942626067046099</v>
+        <v>0.08706887962291369</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02252927638162011</v>
+        <v>0.03219810282774646</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07990357301849293</v>
+        <v>0.08786767668367437</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03985215764924427</v>
+        <v>0.07634680615404751</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08878698075967636</v>
+        <v>0.08678700517181966</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08500191475244664</v>
+        <v>0.110599701616795</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08023702097750959</v>
+        <v>0.08579978977548203</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1415840942311764</v>
+        <v>0.03219810282774646</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08015494196101568</v>
+        <v>0.08786767668367437</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02054156242809405</v>
+        <v>0.0319223870206574</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08062996913684288</v>
+        <v>0.08866647374443505</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03979756466176301</v>
+        <v>0.07581267008684589</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08959413513021887</v>
+        <v>0.08757597794610891</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08477900259591914</v>
+        <v>0.1103613775529185</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0809664484409415</v>
+        <v>0.08657978786435006</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1418032740740934</v>
+        <v>0.0319223870206574</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08088362325157036</v>
+        <v>0.08866647374443505</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02155272747341633</v>
+        <v>0.03174422793751858</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08135636525519281</v>
+        <v>0.08946527080519573</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0397256651392007</v>
+        <v>0.07488526626651729</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09040128950076139</v>
+        <v>0.08836495072039818</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08435526422862716</v>
+        <v>0.1100035670751228</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08169587590437341</v>
+        <v>0.08735978595321807</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1421074443119767</v>
+        <v>0.03174422793751858</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08161230454212505</v>
+        <v>0.08946527080519573</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0215627671226148</v>
+        <v>0.0316638996618766</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08208276137354276</v>
+        <v>0.09026406786595641</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03953807530014933</v>
+        <v>0.07367360643783397</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0912084438713039</v>
+        <v>0.08915392349468747</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08493070264771482</v>
+        <v>0.1092271168338551</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08242530336780532</v>
+        <v>0.08813978404208608</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1421961577783982</v>
+        <v>0.0316638996618766</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08234098583267975</v>
+        <v>0.09026406786595641</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02057167698071735</v>
+        <v>0.03148167627727814</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08280915749189267</v>
+        <v>0.09106286492671707</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03933641136320094</v>
+        <v>0.0729867023455682</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09201559824184642</v>
+        <v>0.08994289626897674</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08490532085032626</v>
+        <v>0.1081328734795627</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08315473083123721</v>
+        <v>0.0889197821309541</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1418689673069302</v>
+        <v>0.03148167627727814</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08306966712323444</v>
+        <v>0.09106286492671707</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02257945265275187</v>
+        <v>0.03129783186726981</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08353555361024262</v>
+        <v>0.09186166198747775</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03892228954694751</v>
+        <v>0.07193356573449231</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09282275261238893</v>
+        <v>0.09073186904326601</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08437912183360557</v>
+        <v>0.1066216836626926</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08388415829466912</v>
+        <v>0.08969978021982211</v>
       </c>
       <c r="N180" t="n">
-        <v>0.142025425731145</v>
+        <v>0.03129783186726981</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08379834841378912</v>
+        <v>0.09186166198747775</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02058608974374619</v>
+        <v>0.03101264051539826</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08426194972859255</v>
+        <v>0.09266045904823843</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03869732606998111</v>
+        <v>0.07132320834937844</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09362990698293143</v>
+        <v>0.09152084181755527</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0844521085946969</v>
+        <v>0.1059943940336922</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08461358575810103</v>
+        <v>0.09047977830869014</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1424650858846147</v>
+        <v>0.03101264051539826</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08452702970434381</v>
+        <v>0.09266045904823843</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.0215915838587282</v>
+        <v>0.03082637630521014</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0849883458469425</v>
+        <v>0.09345925610899911</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03836313715089373</v>
+        <v>0.07006464193499884</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09443706135347395</v>
+        <v>0.09230981459184454</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08422428413074443</v>
+        <v>0.1049518512430086</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08534301322153294</v>
+        <v>0.09125977639755815</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1417875006009112</v>
+        <v>0.03082637630521014</v>
       </c>
       <c r="O182" t="n">
-        <v>0.0852557109948985</v>
+        <v>0.09345925610899911</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02159593060272579</v>
+        <v>0.03053931332025209</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08571474196529243</v>
+        <v>0.09425805316975978</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03842133900827736</v>
+        <v>0.06876687823612584</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09524421572401646</v>
+        <v>0.09309878736613381</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08469565143889218</v>
+        <v>0.1048949019410889</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08607244068496485</v>
+        <v>0.09203977448642618</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1430922227136071</v>
+        <v>0.03053931332025209</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08598439228545318</v>
+        <v>0.09425805316975978</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02059912558076679</v>
+        <v>0.03065172564407072</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08644113808364236</v>
+        <v>0.09505685023052046</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03807354786072405</v>
+        <v>0.06783892899753152</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09605137009455898</v>
+        <v>0.09388776014042308</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08476621351628436</v>
+        <v>0.1038243927783805</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08680186814839674</v>
+        <v>0.0928197725752942</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1419788050562742</v>
+        <v>0.03065172564407072</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08671307357600787</v>
+        <v>0.09505685023052046</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0216011643978791</v>
+        <v>0.03016388736021269</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0871675342019923</v>
+        <v>0.09585564729128114</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0379213799268258</v>
+        <v>0.06658980596398825</v>
       </c>
       <c r="K185" t="n">
-        <v>0.0968585244651015</v>
+        <v>0.09467673291471235</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08433597336006501</v>
+        <v>0.1024411704053304</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08753129561182865</v>
+        <v>0.09359977066416221</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1427468004624849</v>
+        <v>0.03016388736021269</v>
       </c>
       <c r="O185" t="n">
-        <v>0.08744175486656255</v>
+        <v>0.09585564729128114</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.0206020426590906</v>
+        <v>0.03007607255222462</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08789393032034223</v>
+        <v>0.0966544443520418</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03766645142517462</v>
+        <v>0.06582852088026828</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09766567883564399</v>
+        <v>0.09546570568900162</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08400493396737838</v>
+        <v>0.101746081472386</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08826072307526056</v>
+        <v>0.09437976875303022</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1422957617658113</v>
+        <v>0.03007607255222462</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08817043615711724</v>
+        <v>0.0966544443520418</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02059792650316437</v>
+        <v>0.02998855530365319</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08862032643869217</v>
+        <v>0.09745324141280248</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03731037857436255</v>
+        <v>0.06466408549114375</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09847283320618651</v>
+        <v>0.09625467846329089</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08406872152004211</v>
+        <v>0.1013399726299942</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08899015053869247</v>
+        <v>0.09515976684189824</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1429252417998255</v>
+        <v>0.02998855530365319</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08889911744767193</v>
+        <v>0.09745324141280248</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02057969298591544</v>
+        <v>0.029701609698045</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0893467225570421</v>
+        <v>0.09825203847356316</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03715477759298158</v>
+        <v>0.06330551154138694</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09927998757672903</v>
+        <v>0.09704365123758016</v>
       </c>
       <c r="L188" t="n">
-        <v>0.084388725421878</v>
+        <v>0.1004236905286025</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08971957800212438</v>
+        <v>0.09593976493076627</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1427347513730686</v>
+        <v>0.029701609698045</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08962779873822661</v>
+        <v>0.09825203847356316</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02154763897406231</v>
+        <v>0.0296155098189467</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09007311867539204</v>
+        <v>0.09905083553432384</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03660126469962376</v>
+        <v>0.06216181077577013</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1000871419472715</v>
+        <v>0.09783262401186943</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08425883092139569</v>
+        <v>0.09929808181865801</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09044900546555627</v>
+        <v>0.09671976301963428</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1428669063997817</v>
+        <v>0.0296155098189467</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09035648002878131</v>
+        <v>0.09905083553432384</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02150251535363024</v>
+        <v>0.0294303487536154</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09079951479374197</v>
+        <v>0.09984963259508452</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03655145611288103</v>
+        <v>0.0613419949390655</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1008942963178141</v>
+        <v>0.0986215967861587</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08418270231109737</v>
+        <v>0.09876399315060785</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09117843292898818</v>
+        <v>0.09749976110850231</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1428752080087871</v>
+        <v>0.0294303487536154</v>
       </c>
       <c r="O190" t="n">
-        <v>0.091085161319336</v>
+        <v>0.09984963259508452</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02044507301064445</v>
+        <v>0.02934279200492183</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0915259109120919</v>
+        <v>0.1006484296558452</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03630696805134551</v>
+        <v>0.05945507577604539</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1017014506883566</v>
+        <v>0.09941056956044796</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08396400388348532</v>
+        <v>0.09791157826570779</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09190786039242009</v>
+        <v>0.09827975919737032</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1422665844151297</v>
+        <v>0.02934279200492183</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09181384260989069</v>
+        <v>0.1006484296558452</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02037606283113023</v>
+        <v>0.02895169810717076</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09225230703044185</v>
+        <v>0.1014472267166059</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03596941673360914</v>
+        <v>0.05881006503148192</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1025086050588991</v>
+        <v>0.1001995423347372</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08350639993106179</v>
+        <v>0.09629379758221107</v>
       </c>
       <c r="M192" t="n">
-        <v>0.092637287855852</v>
+        <v>0.09905975728623835</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1413479638338543</v>
+        <v>0.02895169810717076</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09254252390044537</v>
+        <v>0.1014472267166059</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02129623570111283</v>
+        <v>0.02875733137659542</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09297870314879178</v>
+        <v>0.1022460237773665</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03564041837826397</v>
+        <v>0.05771597445014739</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1033157594294416</v>
+        <v>0.1009885151090265</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08321355474632905</v>
+        <v>0.09500905437767398</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09336671531928391</v>
+        <v>0.09983975537510636</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1415262744800056</v>
+        <v>0.02875733137659542</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09327120519100006</v>
+        <v>0.1022460237773665</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02220634250661747</v>
+        <v>0.02865995612942908</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09370509926714173</v>
+        <v>0.1030448208381272</v>
       </c>
       <c r="J194" t="n">
-        <v>0.035421589203902</v>
+        <v>0.05708181577681404</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1041229137999841</v>
+        <v>0.1017774878833158</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08298913262178936</v>
+        <v>0.09366207676201604</v>
       </c>
       <c r="M194" t="n">
-        <v>0.0940961427827158</v>
+        <v>0.1006197534639744</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1407084445686285</v>
+        <v>0.02865995612942908</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09399988648155475</v>
+        <v>0.1030448208381272</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02210713413366944</v>
+        <v>0.02845983668190506</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09443149538549166</v>
+        <v>0.1038436178988879</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03531454542911525</v>
+        <v>0.05631660075625414</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1049300681705266</v>
+        <v>0.1025664606576051</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08243679784994501</v>
+        <v>0.09275759284515639</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09482557024614771</v>
+        <v>0.1013997515528424</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1400014023147677</v>
+        <v>0.02845983668190506</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09472856777210943</v>
+        <v>0.1038436178988879</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01999936146829395</v>
+        <v>0.02815723735025659</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09515789150384159</v>
+        <v>0.1046424149596486</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03522090327249573</v>
+        <v>0.05562934113323989</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1057372225410691</v>
+        <v>0.1033554334318943</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0824602147232982</v>
+        <v>0.09200033073701419</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09555499770957962</v>
+        <v>0.1021797496417104</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1385120759334681</v>
+        <v>0.02815723735025659</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09545724906266413</v>
+        <v>0.1046424149596486</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02088377539651628</v>
+        <v>0.02785242245071697</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09588428762219152</v>
+        <v>0.1054412120204092</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03514227895263547</v>
+        <v>0.05442904865254353</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1065443769116116</v>
+        <v>0.1041444062061836</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08166304753435125</v>
+        <v>0.08999501854750891</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09628442517301153</v>
+        <v>0.1029597477305784</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1387473936397745</v>
+        <v>0.02785242245071697</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09618593035321882</v>
+        <v>0.1054412120204092</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02076112680436168</v>
+        <v>0.02784565629951943</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09661068374054146</v>
+        <v>0.1062400090811699</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0348802886881265</v>
+        <v>0.05422473505893732</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1073515312821541</v>
+        <v>0.1049333789804728</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08114896057560639</v>
+        <v>0.08924638438655963</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09701385263644342</v>
+        <v>0.1037397458194464</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1379142836487317</v>
+        <v>0.02784565629951943</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0969146116437735</v>
+        <v>0.1062400090811699</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02063216657785538</v>
+        <v>0.02753720321289731</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0973370798588914</v>
+        <v>0.1070388061419306</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0348365486975608</v>
+        <v>0.05312541209719349</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1081586856526967</v>
+        <v>0.1057223517547621</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08082161813956587</v>
+        <v>0.08815915636408583</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09774328009987533</v>
+        <v>0.1045197439083145</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1361196741753844</v>
+        <v>0.02753720321289731</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09764329293432819</v>
+        <v>0.1070388061419306</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01949764560302267</v>
+        <v>0.02742732750708382</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09806347597724133</v>
+        <v>0.1078376032026913</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03451267519953037</v>
+        <v>0.0533400915120843</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1089658400232392</v>
+        <v>0.1065113245290514</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08058468451873199</v>
+        <v>0.08613806259000667</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09847270756330724</v>
+        <v>0.1052997419971825</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1350704934347776</v>
+        <v>0.02742732750708382</v>
       </c>
       <c r="O200" t="n">
-        <v>0.09837197422488288</v>
+        <v>0.1078376032026913</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01935831476588876</v>
+        <v>0.02711629349831227</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09878987209559127</v>
+        <v>0.108636400263452</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0343102844126273</v>
+        <v>0.05277778504838188</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1097729943937817</v>
+        <v>0.1073002973033407</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07984182400560702</v>
+        <v>0.0845878311742414</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09920213502673915</v>
+        <v>0.1060797400860505</v>
       </c>
       <c r="N201" t="n">
-        <v>0.134473669641956</v>
+        <v>0.02711629349831227</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09910065551543756</v>
+        <v>0.108636400263452</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01921492495247892</v>
+        <v>0.02700436550281593</v>
       </c>
       <c r="G202" t="n">
-        <v>0.0995162682139412</v>
+        <v>0.1094351973242126</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03433099255544353</v>
+        <v>0.0526133409654799</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1105801487643242</v>
+        <v>0.1080892700776299</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07959670089269316</v>
+        <v>0.08341319022670929</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09993156249017106</v>
+        <v>0.1068597381749185</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1335361310119644</v>
+        <v>0.02700436550281593</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09982933680599226</v>
+        <v>0.1094351973242126</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0210682270488184</v>
+        <v>0.02669180783682805</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1002426643322911</v>
+        <v>0.1102339943849733</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03417641584657113</v>
+        <v>0.05276725930059836</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1113873031348667</v>
+        <v>0.1088782428519192</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07945297947249266</v>
+        <v>0.08221886785732968</v>
       </c>
       <c r="M203" t="n">
-        <v>0.100660989953603</v>
+        <v>0.1076397362637865</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1314648057598476</v>
+        <v>0.02669180783682805</v>
       </c>
       <c r="O203" t="n">
-        <v>0.100558018096547</v>
+        <v>0.1102339943849733</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01991897194093244</v>
+        <v>0.02647888481658194</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1009690604506411</v>
+        <v>0.111032791445734</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03434817050460207</v>
+        <v>0.05233470178834332</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1121944575054092</v>
+        <v>0.1096672156262085</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07871432403750786</v>
+        <v>0.08080959217602179</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1013904174170349</v>
+        <v>0.1084197343526546</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1304666221006505</v>
+        <v>0.02647888481658194</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1012866993871016</v>
+        <v>0.111032791445734</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01976791051484632</v>
+        <v>0.02616586075831086</v>
       </c>
       <c r="G205" t="n">
-        <v>0.101695456568991</v>
+        <v>0.1118315885064947</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03434442625722163</v>
+        <v>0.05181449152238479</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1130016118759517</v>
+        <v>0.1104561884004977</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07818439888024095</v>
+        <v>0.0779900912927049</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1021198448804668</v>
+        <v>0.1091997324415226</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1295485082494178</v>
+        <v>0.02616586075831086</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1020153806776563</v>
+        <v>0.1118315885064947</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02061579365658527</v>
+        <v>0.02605299997824805</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1024218526873409</v>
+        <v>0.1126303855672553</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03444446493240563</v>
+        <v>0.05200545159639247</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1138087662464942</v>
+        <v>0.111245161174787</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07816686829319427</v>
+        <v>0.07656509331729838</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1028492723438987</v>
+        <v>0.1099797305303906</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1281173924211942</v>
+        <v>0.02605299997824805</v>
       </c>
       <c r="O206" t="n">
-        <v>0.102744061968211</v>
+        <v>0.1126303855672553</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01846337225217453</v>
+        <v>0.02604056679262683</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1031482488056909</v>
+        <v>0.113429182628016</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03444461233331989</v>
+        <v>0.05170640510403632</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1146159206170368</v>
+        <v>0.1120341339490763</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07706539656887001</v>
+        <v>0.07603932635972127</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1035786998073306</v>
+        <v>0.1107597286192586</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1272802028310248</v>
+        <v>0.02604056679262683</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1034727432587657</v>
+        <v>0.113429182628016</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02031139718763937</v>
+        <v>0.02552882551768045</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1038746449240408</v>
+        <v>0.1142279796887767</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03444494156233049</v>
+        <v>0.05221617513898616</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1154230749875793</v>
+        <v>0.1128231067233655</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07718364799977045</v>
+        <v>0.07431751852989299</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1043081272707625</v>
+        <v>0.1115397267081266</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1253438676939542</v>
+        <v>0.02552882551768045</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1042014245493204</v>
+        <v>0.1142279796887767</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01916061934900504</v>
+        <v>0.02551804046964216</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1046010410423907</v>
+        <v>0.1150267767495374</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03434552572180358</v>
+        <v>0.05153358479491182</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1162302293581218</v>
+        <v>0.1136120794976548</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07632528687839787</v>
+        <v>0.07210439793773288</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1050375547341944</v>
+        <v>0.1123197247969947</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1240153152250273</v>
+        <v>0.02551804046964216</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1049301058398751</v>
+        <v>0.1150267767495374</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01801178962229678</v>
+        <v>0.02510847596474529</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1053274371607407</v>
+        <v>0.115825573810298</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03444643791410529</v>
+        <v>0.05165745716548323</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1170373837286643</v>
+        <v>0.1144010522719441</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07619397749725454</v>
+        <v>0.07040469269316013</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1057669821976263</v>
+        <v>0.1130997228858627</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1239014736392888</v>
+        <v>0.02510847596474529</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1056587871304298</v>
+        <v>0.115825573810298</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01986565889353986</v>
+        <v>0.02500039631922306</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1060538332790906</v>
+        <v>0.1166243708710587</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03424775124160172</v>
+        <v>0.05198661534437019</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1178445380992068</v>
+        <v>0.1151900250462334</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07609338414884265</v>
+        <v>0.06952313090609402</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1064964096610582</v>
+        <v>0.1138797209747307</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1227092711517835</v>
+        <v>0.02500039631922306</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1063874684209845</v>
+        <v>0.1166243708710587</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01872297804875951</v>
+        <v>0.0249940658493088</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1067802293974406</v>
+        <v>0.1174231679318194</v>
       </c>
       <c r="J212" t="n">
-        <v>0.034349538806659</v>
+        <v>0.05201988242524255</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1186516924697493</v>
+        <v>0.1159789978205226</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07542717112566455</v>
+        <v>0.06746444068645369</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1072258371244901</v>
+        <v>0.1146597190635987</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1209456359775564</v>
+        <v>0.0249940658493088</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1071161497115391</v>
+        <v>0.1174231679318194</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01958449797398099</v>
+        <v>0.02448974887123573</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1075066255157905</v>
+        <v>0.1182219649925801</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03435187371164326</v>
+        <v>0.05195608150177022</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1194588468402918</v>
+        <v>0.1167679705948119</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07549900272022242</v>
+        <v>0.06613335014415872</v>
       </c>
       <c r="M213" t="n">
-        <v>0.107955264587922</v>
+        <v>0.1154397171524667</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1192174963316521</v>
+        <v>0.02448974887123573</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1078448310020938</v>
+        <v>0.1182219649925801</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01745096955522955</v>
+        <v>0.02428770970123713</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1082330216341404</v>
+        <v>0.1190207620533407</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03435482905892062</v>
+        <v>0.05129403566762308</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1202660012108343</v>
+        <v>0.1175569433691012</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07561254322501862</v>
+        <v>0.06503458738912804</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1086846920513539</v>
+        <v>0.1162197152413347</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1184317804291155</v>
+        <v>0.02428770970123713</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1085735122926485</v>
+        <v>0.1190207620533407</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01932314367853046</v>
+        <v>0.02428821265554629</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1089594177524904</v>
+        <v>0.1198195591141014</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03415847795085722</v>
+        <v>0.05113256801647087</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1210731555813769</v>
+        <v>0.1183459161433904</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07557145693255529</v>
+        <v>0.06367288053128117</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1094141195147858</v>
+        <v>0.1169997133302028</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1170954164849914</v>
+        <v>0.02428821265554629</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1093021935832032</v>
+        <v>0.1198195591141014</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01720144096648936</v>
+        <v>0.02419152205039647</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1096858138708403</v>
+        <v>0.1206183561748621</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03436289348981914</v>
+        <v>0.05157050164198354</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1218803099519194</v>
+        <v>0.1191348889176797</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07537940813533478</v>
+        <v>0.06245295768053727</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1101435469782177</v>
+        <v>0.1177797114190708</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1170153327143246</v>
+        <v>0.02419152205039647</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1100308748737579</v>
+        <v>0.1206183561748621</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01808119038591369</v>
+        <v>0.02389790220202098</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1104122099891902</v>
+        <v>0.1214171532356228</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03416814877817252</v>
+        <v>0.05150665963783094</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1226874643224619</v>
+        <v>0.119923861691969</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07504006112585931</v>
+        <v>0.06177954694681564</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1108729744416496</v>
+        <v>0.1185597095079388</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1161984573321599</v>
+        <v>0.02389790220202098</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1107595561643126</v>
+        <v>0.1214171532356228</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01796065396776624</v>
+        <v>0.02370761742665305</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1111386061075402</v>
+        <v>0.1222159502963834</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03437431691828349</v>
+        <v>0.05143986509768292</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1234946186930044</v>
+        <v>0.1207128344662582</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07463884513579816</v>
+        <v>0.06015737644003555</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1116024019050815</v>
+        <v>0.1193397075968068</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1146212723067289</v>
+        <v>0.02370761742665305</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1114882374548673</v>
+        <v>0.1222159502963834</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01883982987599308</v>
+        <v>0.02342093204052596</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1118650022258901</v>
+        <v>0.1230147473571441</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03428147101251817</v>
+        <v>0.05076894111520933</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1243017730635469</v>
+        <v>0.1215018072405475</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07493893334974425</v>
+        <v>0.05939117427011625</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1123318293685134</v>
+        <v>0.1201197056856748</v>
       </c>
       <c r="N219" t="n">
-        <v>0.113446057909856</v>
+        <v>0.02342093204052596</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1122169187454219</v>
+        <v>0.1230147473571441</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01671871627454028</v>
+        <v>0.02313786757866912</v>
       </c>
       <c r="G220" t="n">
-        <v>0.11259139834424</v>
+        <v>0.1238135444179048</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03428968416324268</v>
+        <v>0.05119271078408008</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1251089274340894</v>
+        <v>0.1222907800148368</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07483920187502646</v>
+        <v>0.05728566854697709</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1130612568319454</v>
+        <v>0.1208997037745428</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1137726554835924</v>
+        <v>0.02313786757866912</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1129456000359766</v>
+        <v>0.1238135444179048</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01759731132735391</v>
+        <v>0.02305609968253386</v>
       </c>
       <c r="G221" t="n">
-        <v>0.11331779446259</v>
+        <v>0.1246123414786655</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03439902947282317</v>
+        <v>0.05130999719796492</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1259160818046319</v>
+        <v>0.123079752789126</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07523975130358362</v>
+        <v>0.05614558738053715</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1137906842953773</v>
+        <v>0.1216797018634109</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1128010948980598</v>
+        <v>0.02305609968253386</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1136742813265313</v>
+        <v>0.1246123414786655</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01747561319838006</v>
+        <v>0.02277499645150088</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1140441905809399</v>
+        <v>0.1254111385394261</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03430958004362571</v>
+        <v>0.05131962345053381</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1267232361751744</v>
+        <v>0.1238687255634153</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0746406822273547</v>
+        <v>0.056375658880716</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1145201117588092</v>
+        <v>0.1224596999522789</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1113314060233789</v>
+        <v>0.02277499645150088</v>
       </c>
       <c r="O222" t="n">
-        <v>0.114402962617086</v>
+        <v>0.1254111385394261</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01835362005156477</v>
+        <v>0.02259457244535479</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1147705866992898</v>
+        <v>0.1262099356001868</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03442140897801645</v>
+        <v>0.05122041263545651</v>
       </c>
       <c r="K223" t="n">
-        <v>0.127530390545717</v>
+        <v>0.1246576983377046</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07464209523827847</v>
+        <v>0.0553806111574327</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1152495392222411</v>
+        <v>0.1232396980411469</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1107636187296713</v>
+        <v>0.02259457244535479</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1151316439076407</v>
+        <v>0.1262099356001868</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01823133005085412</v>
+        <v>0.02251484222388025</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1154969828176398</v>
+        <v>0.1270087326609475</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03423458937836153</v>
+        <v>0.05031118784640301</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1283375449162595</v>
+        <v>0.1254466711119939</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07534409092829389</v>
+        <v>0.0537651723206064</v>
       </c>
       <c r="M224" t="n">
-        <v>0.115978966685673</v>
+        <v>0.1240196961300149</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1103977628870583</v>
+        <v>0.02251484222388025</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1158603251981954</v>
+        <v>0.1270087326609475</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01810874136019417</v>
+        <v>0.02223582034686186</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1162233789359897</v>
+        <v>0.1278075297217082</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03454919434702702</v>
+        <v>0.05099077217704309</v>
       </c>
       <c r="K225" t="n">
-        <v>0.129144699286802</v>
+        <v>0.1262356438862831</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07484676988933978</v>
+        <v>0.05383012087711375</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1167083941491049</v>
+        <v>0.1247996942188829</v>
       </c>
       <c r="N225" t="n">
-        <v>0.109333868365661</v>
+        <v>0.02223582034686186</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1165890064887501</v>
+        <v>0.1278075297217082</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.017985852143531</v>
+        <v>0.02235752137408424</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1169497750543397</v>
+        <v>0.1286063267824689</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0342652969863791</v>
+        <v>0.0503579887210466</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1299518536573445</v>
+        <v>0.1270246166605724</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07545023271335502</v>
+        <v>0.05331742773115794</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1174378216125368</v>
+        <v>0.125579692307751</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1084719650356007</v>
+        <v>0.02235752137408424</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1173176877793048</v>
+        <v>0.1286063267824689</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01786266056481069</v>
+        <v>0.02187995986533203</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1176761711726896</v>
+        <v>0.1294051238432295</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03428297039878388</v>
+        <v>0.05021112440048475</v>
       </c>
       <c r="K227" t="n">
-        <v>0.130759008027887</v>
+        <v>0.1278135894348617</v>
       </c>
       <c r="L227" t="n">
-        <v>0.07535457999227854</v>
+        <v>0.05140705570170934</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1181672490759687</v>
+        <v>0.126359690396619</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1077120827669988</v>
+        <v>0.02187995986533203</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1180463690698594</v>
+        <v>0.1294051238432295</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01673916478797929</v>
+        <v>0.02170315038038985</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1184025672910395</v>
+        <v>0.1302039209039902</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03450228768660744</v>
+        <v>0.05004562449035888</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1315661623984295</v>
+        <v>0.1286025622091509</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07535991231804917</v>
+        <v>0.05089978907472903</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1188966765394006</v>
+        <v>0.127139688485487</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1068542514299763</v>
+        <v>0.02170315038038985</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1187750503604141</v>
+        <v>0.1302039209039902</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01661536297698288</v>
+        <v>0.02162710747904233</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1191289634093895</v>
+        <v>0.1310027179647509</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03442332195221594</v>
+        <v>0.0498609817613507</v>
       </c>
       <c r="K229" t="n">
-        <v>0.132373316768972</v>
+        <v>0.1293915349834402</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07526633028260582</v>
+        <v>0.05089641213617829</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1196261040028325</v>
+        <v>0.127919686574355</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1051985008946548</v>
+        <v>0.02162710747904233</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1195037316509688</v>
+        <v>0.1310027179647509</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01549125329576752</v>
+        <v>0.02135184572107413</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1198553595277394</v>
+        <v>0.1318015150255116</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03454614629797551</v>
+        <v>0.05015755047674389</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1331804711395146</v>
+        <v>0.1301805077577295</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07497393447788733</v>
+        <v>0.05029770917201826</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1203555314662644</v>
+        <v>0.128699684663223</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1040448610311552</v>
+        <v>0.02135184572107413</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1202324129415235</v>
+        <v>0.1318015150255116</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01636683390827929</v>
+        <v>0.02127737966626982</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1205817556460893</v>
+        <v>0.1326003120862722</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03437083382625225</v>
+        <v>0.04933568489982201</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1339876255100571</v>
+        <v>0.1309694805320187</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07548282549583263</v>
+        <v>0.04940446446821001</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1210849589296963</v>
+        <v>0.1294796827520911</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1042933617095991</v>
+        <v>0.02127737966626982</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1209610942320782</v>
+        <v>0.1326003120862722</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01524210297846425</v>
+        <v>0.02100372387441407</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1213081517644393</v>
+        <v>0.1333991091470329</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03449745763941228</v>
+        <v>0.04929573929386857</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1347947798805996</v>
+        <v>0.131758453306308</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07489310392838056</v>
+        <v>0.04891746231071481</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1218143863931282</v>
+        <v>0.1302596808409591</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1027440328001075</v>
+        <v>0.02100372387441407</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1216897755226329</v>
+        <v>0.1333991091470329</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01611705867026848</v>
+        <v>0.02083089290529147</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1220345478827892</v>
+        <v>0.1341979062077936</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03462609083982174</v>
+        <v>0.04933806792216719</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1356019342511421</v>
+        <v>0.1325474260805973</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07520487036746998</v>
+        <v>0.04723748698549374</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1225438138565601</v>
+        <v>0.1310396789298271</v>
       </c>
       <c r="N233" t="n">
-        <v>0.102696904172802</v>
+        <v>0.02083089290529147</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1224184568131876</v>
+        <v>0.1341979062077936</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01599169914763802</v>
+        <v>0.02095890131868668</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1227609440011392</v>
+        <v>0.1349967032685543</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03475680652984675</v>
+        <v>0.04856302504800145</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1364090886216846</v>
+        <v>0.1333363988548866</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0750182254050398</v>
+        <v>0.04676532277850798</v>
       </c>
       <c r="M234" t="n">
-        <v>0.123273241319992</v>
+        <v>0.1318196770186951</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1009520056978034</v>
+        <v>0.02095890131868668</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1231471381037423</v>
+        <v>0.1349967032685543</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01686602257451898</v>
+        <v>0.0204877636743843</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1234873401194891</v>
+        <v>0.1357955003293149</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03478967781185342</v>
+        <v>0.0483709649346549</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1372162429922271</v>
+        <v>0.1341253716291758</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07483326963302891</v>
+        <v>0.04660175397571875</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1240026687834239</v>
+        <v>0.1325996751075632</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1002093672452334</v>
+        <v>0.0204877636743843</v>
       </c>
       <c r="O235" t="n">
-        <v>0.123875819394297</v>
+        <v>0.1357955003293149</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01574002711485741</v>
+        <v>0.02061749453216898</v>
       </c>
       <c r="G236" t="n">
-        <v>0.124213736237839</v>
+        <v>0.1365942973900756</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03452477778820789</v>
+        <v>0.04806224184541114</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1380233973627696</v>
+        <v>0.1349143444034651</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07515010364337615</v>
+        <v>0.04614756486308713</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1247320962468558</v>
+        <v>0.1333796731964312</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09926901868521298</v>
+        <v>0.02061749453216898</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1246045006848516</v>
+        <v>0.1365942973900756</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01461371093259937</v>
+        <v>0.02034810845182534</v>
       </c>
       <c r="G237" t="n">
-        <v>0.124940132356189</v>
+        <v>0.1373930944508363</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03466217956127625</v>
+        <v>0.04813721004355373</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1388305517333122</v>
+        <v>0.1357033171777544</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07516882802802044</v>
+        <v>0.04570353972657443</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1254615237102877</v>
+        <v>0.1341596712852992</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09933098988786354</v>
+        <v>0.02034810845182534</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1253331819754063</v>
+        <v>0.1373930944508363</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01548707219169096</v>
+        <v>0.020179619993138</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1256665284745389</v>
+        <v>0.138191891511597</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03490195623342467</v>
+        <v>0.04779622379236625</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1396377061038546</v>
+        <v>0.1364922899520436</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07518954337890063</v>
+        <v>0.04497046285214162</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1261909511737196</v>
+        <v>0.1349396693741672</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09749531072330636</v>
+        <v>0.020179619993138</v>
       </c>
       <c r="O238" t="n">
-        <v>0.126061863265961</v>
+        <v>0.138191891511597</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01636010905607822</v>
+        <v>0.0198120437158916</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1263929245928888</v>
+        <v>0.1389906885723576</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03494418090701923</v>
+        <v>0.04673963735513226</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1404448604743972</v>
+        <v>0.1372812627263329</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07491235028795559</v>
+        <v>0.04354911852574994</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1269203786371516</v>
+        <v>0.1357196674630352</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09736201106166259</v>
+        <v>0.0198120437158916</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1267905445565157</v>
+        <v>0.1389906885723576</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01623281968970722</v>
+        <v>0.01974539417987073</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1271193207112388</v>
+        <v>0.1397894856331183</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03488892668442606</v>
+        <v>0.04696780499513534</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1412520148449397</v>
+        <v>0.1380702355006222</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07513734934712424</v>
+        <v>0.0429402910333605</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1276498061005834</v>
+        <v>0.1364996655519032</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09563112077305364</v>
+        <v>0.01974539417987073</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1275192258470704</v>
+        <v>0.1397894856331183</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01410520225652404</v>
+        <v>0.01977968594486007</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1278457168295887</v>
+        <v>0.140588282693879</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0348362666680113</v>
+        <v>0.04618108097565912</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1420591692154822</v>
+        <v>0.1388592082749114</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07546464114834539</v>
+        <v>0.04234476466093456</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1283792335640154</v>
+        <v>0.1372796636407712</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09560266972760056</v>
+        <v>0.01977968594486007</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1282479071376251</v>
+        <v>0.140588282693879</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01497725492047475</v>
+        <v>0.0196149335706442</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1285721129479386</v>
+        <v>0.1413870797546397</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03498627396014108</v>
+        <v>0.04587981955998707</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1428663235860247</v>
+        <v>0.1396481810492007</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07549432628355798</v>
+        <v>0.0422633236944332</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1291086610274473</v>
+        <v>0.1380596617296393</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09387668779542491</v>
+        <v>0.0196149335706442</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1289765884281798</v>
+        <v>0.1413870797546397</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01384897584550541</v>
+        <v>0.01935115161700778</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1292985090662886</v>
+        <v>0.1421858768154004</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03503902166318149</v>
+        <v>0.04566437501140283</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1436734779565672</v>
+        <v>0.14043715382349</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07512650534470089</v>
+        <v>0.04169675241981763</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1298380884908792</v>
+        <v>0.1388396598185073</v>
       </c>
       <c r="N243" t="n">
-        <v>0.09435320484664766</v>
+        <v>0.01935115161700778</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1297052697187345</v>
+        <v>0.1421858768154004</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01372036319556209</v>
+        <v>0.01908835464373541</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1300249051846385</v>
+        <v>0.142984673876161</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03509458287949865</v>
+        <v>0.04523510159319</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1444806323271097</v>
+        <v>0.1412261265977793</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07566127892371294</v>
+        <v>0.040445835123049</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1305675159543111</v>
+        <v>0.1396196579073753</v>
       </c>
       <c r="N244" t="n">
-        <v>0.0927322507513903</v>
+        <v>0.01908835464373541</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1304339510092891</v>
+        <v>0.142984673876161</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01359141513459088</v>
+        <v>0.01882655721061179</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1307513013029885</v>
+        <v>0.1437834709369217</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03495303071145874</v>
+        <v>0.04509235356863209</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1452877866976522</v>
+        <v>0.1420150993720685</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07579874761253305</v>
+        <v>0.0408113560900884</v>
       </c>
       <c r="M245" t="n">
-        <v>0.131296943417743</v>
+        <v>0.1403996559962433</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09141385537977398</v>
+        <v>0.01882655721061179</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1311626322998438</v>
+        <v>0.1437834709369217</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01446212982653781</v>
+        <v>0.01876577387742141</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1314776974213384</v>
+        <v>0.1445822679976824</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03521443826142781</v>
+        <v>0.04383648520101271</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1460949410681947</v>
+        <v>0.1428040721463578</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0752390120031001</v>
+        <v>0.04049409960689709</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1320263708811749</v>
+        <v>0.1411796540851114</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09169804860192005</v>
+        <v>0.01876577387742141</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1318913135903985</v>
+        <v>0.1445822679976824</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.014332505435349</v>
+        <v>0.01850601920394902</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1322040935396883</v>
+        <v>0.1453810650584431</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03517887863177202</v>
+        <v>0.04356785075361547</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1469020954387373</v>
+        <v>0.1435930449206471</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07508217268735293</v>
+        <v>0.03939484995943621</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1327557983446068</v>
+        <v>0.1419596521739794</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09068486028794959</v>
+        <v>0.01850601920394902</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1326199948809532</v>
+        <v>0.1453810650584431</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01320254012497047</v>
+        <v>0.0183473077499792</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1329304896580382</v>
+        <v>0.1461798621192037</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03514642492485751</v>
+        <v>0.04338680448972387</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1477092498092798</v>
+        <v>0.1443820176949363</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07542833025723045</v>
+        <v>0.03951439143366686</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1334852258080387</v>
+        <v>0.1427396502628474</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08917432030798406</v>
+        <v>0.0183473077499792</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1333486761715079</v>
+        <v>0.1461798621192037</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01507223205934833</v>
+        <v>0.01838965407529655</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1336568857763882</v>
+        <v>0.1469786591799644</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03531715024305034</v>
+        <v>0.04279370067262148</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1485164041798223</v>
+        <v>0.1451709904692256</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07577758530467155</v>
+        <v>0.03895350831555028</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1342146532714706</v>
+        <v>0.1435196483517154</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08916645853214467</v>
+        <v>0.01838965407529655</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1340773574620626</v>
+        <v>0.1469786591799644</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01394157940242861</v>
+        <v>0.01813307273968574</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1343832818947381</v>
+        <v>0.1477774562407251</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03559112768871669</v>
+        <v>0.04188889356559197</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1493235585503648</v>
+        <v>0.1459599632435149</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07563003842161506</v>
+        <v>0.03851298489104754</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1349440807349025</v>
+        <v>0.1442996464405834</v>
       </c>
       <c r="N250" t="n">
-        <v>0.08826130483055261</v>
+        <v>0.01813307273968574</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1348060387526173</v>
+        <v>0.1477774562407251</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01381058031815741</v>
+        <v>0.0180775783029314</v>
       </c>
       <c r="G251" t="n">
-        <v>0.135109678013088</v>
+        <v>0.1485762533014857</v>
       </c>
       <c r="J251" t="n">
-        <v>0.03566843036422268</v>
+        <v>0.04157273743191886</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1501307129209073</v>
+        <v>0.1467489360178041</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07558579019999992</v>
+        <v>0.03709360544611989</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1356735081983344</v>
+        <v>0.1450796445294514</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08675888907332929</v>
+        <v>0.0180775783029314</v>
       </c>
       <c r="O251" t="n">
-        <v>0.135534720043172</v>
+        <v>0.1485762533014857</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01267923297048078</v>
+        <v>0.01792318532481814</v>
       </c>
       <c r="G252" t="n">
-        <v>0.135836074131438</v>
+        <v>0.1493750503622464</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0356491313719344</v>
+        <v>0.04144558653488567</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1509378672914498</v>
+        <v>0.1475379087920934</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07594494123176498</v>
+        <v>0.03749615426672848</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1364029356617663</v>
+        <v>0.1458596426183194</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0867592411305958</v>
+        <v>0.01792318532481814</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1362634013337266</v>
+        <v>0.1493750503622464</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01454753552334481</v>
+        <v>0.01786990836513057</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1365624702497879</v>
+        <v>0.1501738474230071</v>
       </c>
       <c r="J253" t="n">
-        <v>0.035833303814218</v>
+        <v>0.04030779513777605</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1517450216619923</v>
+        <v>0.1483268815663827</v>
       </c>
       <c r="L253" t="n">
-        <v>0.0758075921088491</v>
+        <v>0.03622141563883435</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1371323631251982</v>
+        <v>0.1466396407071875</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08566239087247357</v>
+        <v>0.01786990836513057</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1369920826242813</v>
+        <v>0.1501738474230071</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01441548614069555</v>
+        <v>0.01761776198365332</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1372888663681379</v>
+        <v>0.1509726444837678</v>
       </c>
       <c r="J254" t="n">
-        <v>0.03572102079343957</v>
+        <v>0.04025971750387358</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1525521760325348</v>
+        <v>0.149115854340672</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07607384342319118</v>
+        <v>0.03597017384839885</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1378617905886301</v>
+        <v>0.1474196387960555</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08546836816908382</v>
+        <v>0.01761776198365332</v>
       </c>
       <c r="O254" t="n">
-        <v>0.137720763914836</v>
+        <v>0.1509726444837678</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01228308298647907</v>
+        <v>0.01746676074017105</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1380152624864878</v>
+        <v>0.1517714415445285</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03571235541196528</v>
+        <v>0.04000170789646179</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1533593304030774</v>
+        <v>0.1499048271149612</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0757437957667301</v>
+        <v>0.03584321318138295</v>
       </c>
       <c r="M255" t="n">
-        <v>0.138591218052062</v>
+        <v>0.1481996368849235</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08357720289054771</v>
+        <v>0.01746676074017105</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1384494452053907</v>
+        <v>0.1517714415445285</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01415032422464146</v>
+        <v>0.01721691919446836</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1387416586048377</v>
+        <v>0.1525702386052891</v>
       </c>
       <c r="J256" t="n">
-        <v>0.0359073807721612</v>
+        <v>0.0390341205788243</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1541664847736199</v>
+        <v>0.1506937998892505</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07641754973140469</v>
+        <v>0.03574131792374796</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1393206455154939</v>
+        <v>0.1489796349737915</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08338892490698663</v>
+        <v>0.01721691919446836</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1391781264959454</v>
+        <v>0.1525702386052891</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01401720801912876</v>
+        <v>0.01726825190632988</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1394680547231877</v>
+        <v>0.1533690356660498</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03590616997639351</v>
+        <v>0.03885730981424462</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1549736391441624</v>
+        <v>0.1514827726635397</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0762952059091539</v>
+        <v>0.03626527236145499</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1400500729789259</v>
+        <v>0.1497596330626595</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08300356408852178</v>
+        <v>0.01726825190632988</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1399068077865001</v>
+        <v>0.1533690356660498</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01288373253388706</v>
+        <v>0.01692077343554024</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1401944508415376</v>
+        <v>0.1541678327268105</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03620879612702826</v>
+        <v>0.03827162986600641</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1557807935147049</v>
+        <v>0.152271745437829</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07587686489191656</v>
+        <v>0.03511586078046514</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1407795004423578</v>
+        <v>0.1505396311515275</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0821211503052745</v>
+        <v>0.01692077343554024</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1406354890770548</v>
+        <v>0.1541678327268105</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01374989593286242</v>
+        <v>0.01667449834188407</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1409208469598875</v>
+        <v>0.1549666297875712</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03611533232643165</v>
+        <v>0.03737743499739316</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1565879478852474</v>
+        <v>0.1530607182121183</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07606262727163157</v>
+        <v>0.03519386746673964</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1415089279057897</v>
+        <v>0.1513196292403956</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08074171342736586</v>
+        <v>0.01667449834188407</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1413641703676095</v>
+        <v>0.1549666297875712</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01161569638000092</v>
+        <v>0.016529441185146</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1416472430782375</v>
+        <v>0.1557654268483319</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03652585167696974</v>
+        <v>0.03667507947168844</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1573951022557899</v>
+        <v>0.1538496909864076</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07655259364023778</v>
+        <v>0.03540007670623974</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1422383553692216</v>
+        <v>0.1520996273292636</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07976528332491734</v>
+        <v>0.016529441185146</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1420928516581642</v>
+        <v>0.1557654268483319</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01348113203924862</v>
+        <v>0.01658561652511063</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1423736391965874</v>
+        <v>0.1565642239090925</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03664042728100869</v>
+        <v>0.03606491755217592</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1582022566263324</v>
+        <v>0.1546386637606968</v>
       </c>
       <c r="L261" t="n">
-        <v>0.0768468645896741</v>
+        <v>0.03433527278492637</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1429677828326535</v>
+        <v>0.1528796254181316</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07899188986805017</v>
+        <v>0.01658561652511063</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1428215329487188</v>
+        <v>0.1565642239090925</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01234620107455159</v>
+        <v>0.01624303892156265</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1431000353149373</v>
+        <v>0.1573630209698532</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03645913224091461</v>
+        <v>0.03534730350213913</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1590094109968749</v>
+        <v>0.1554276365349861</v>
       </c>
       <c r="L262" t="n">
-        <v>0.07694554071187942</v>
+        <v>0.03440023998876079</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1436972102960854</v>
+        <v>0.1536596235069996</v>
       </c>
       <c r="N262" t="n">
-        <v>0.07822156292688542</v>
+        <v>0.01624303892156265</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1435502142392735</v>
+        <v>0.1573630209698532</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0132109016498559</v>
+        <v>0.01610172293428659</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1438264314332873</v>
+        <v>0.1581618180306139</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03688203965905362</v>
+        <v>0.03442259158486161</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1598165653674175</v>
+        <v>0.1562166093092754</v>
       </c>
       <c r="L263" t="n">
-        <v>0.07704872259879256</v>
+        <v>0.03429576260370432</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1444266377595173</v>
+        <v>0.1544396215958677</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07845433237154464</v>
+        <v>0.01610172293428659</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1442788955298282</v>
+        <v>0.1581618180306139</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01107523192910761</v>
+        <v>0.01626168312306717</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1445528275516372</v>
+        <v>0.1589606150913745</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03670922263779185</v>
+        <v>0.03419113606362692</v>
       </c>
       <c r="K264" t="n">
-        <v>0.16062371973796</v>
+        <v>0.1570055820835647</v>
       </c>
       <c r="L264" t="n">
-        <v>0.07695651084235244</v>
+        <v>0.0344226249157179</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1451560652229492</v>
+        <v>0.1552196196847357</v>
       </c>
       <c r="N264" t="n">
-        <v>0.07759022807214899</v>
+        <v>0.01626168312306717</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1450075768203829</v>
+        <v>0.1589606150913745</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08227573013870366</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.03227573013870366</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01587865753343358</v>
+        <v>0.01676896805879152</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001690855310993132</v>
+        <v>0.001255867105464964</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007987970607606761</v>
+        <v>0.0005731208894827425</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004469345075387127</v>
+        <v>0.001982239489595014</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007889727742892696</v>
+        <v>0.0007987970607606761</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008318010799860998</v>
+        <v>0.005426585841309756</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007799980888680185</v>
+        <v>0.0007863364712676682</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001690855310993132</v>
+        <v>0.006926046386658002</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007987970607606761</v>
+        <v>0.0007844393698201131</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003542173426154489</v>
+        <v>0.002499409952496007</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001597594121521352</v>
+        <v>0.001146241778965485</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006999999999999978</v>
+        <v>0.004005023616197992</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001281089743589739</v>
+        <v>0.001597594121521352</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01711327269701873</v>
+        <v>0.01044980517334887</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001559996177736037</v>
+        <v>0.001572672942535336</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003542173426154489</v>
+        <v>0.01489013593601313</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001597594121521352</v>
+        <v>0.001568878739640226</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004960400899396929</v>
+        <v>0.00373086893089964</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002396391182282029</v>
+        <v>0.001719362668448228</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01095605720852014</v>
+        <v>0.005939403489528448</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002366918322867808</v>
+        <v>0.002396391182282029</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02200000000000002</v>
+        <v>0.01535357589547506</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002035509259259261</v>
+        <v>0.002359009413803004</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004960400899396929</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002396391182282029</v>
+        <v>0.002208868421052634</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.004950484430482412</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.00229248355793097</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01392691284481321</v>
+        <v>0.007656430219305836</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003155891097157078</v>
+        <v>0.003195188243042704</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02992954210527682</v>
+        <v>0.01882181590704593</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003119992355472074</v>
+        <v>0.003145345885070673</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02604820871880381</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.003137757479280452</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003497374999999999</v>
+        <v>0.01212876167054981</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006999999999999999</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007582004856099965</v>
+        <v>0.006158496841050826</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00399398530380338</v>
+        <v>0.002865604447413713</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01726158307421988</v>
+        <v>0.00952715491524965</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003944863871446348</v>
+        <v>0.00399398530380338</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03517894145407774</v>
+        <v>0.02299999999999996</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003899990444340092</v>
+        <v>0.003948926116838482</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.007582004856099965</v>
+        <v>0.03201111999430084</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00399398530380338</v>
+        <v>0.003922196849100565</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008623418175891025</v>
+        <v>0.007355146552411436</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004792782364564058</v>
+        <v>0.003438725336896455</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01986391921326239</v>
+        <v>0.01072262868707937</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004733836645735617</v>
+        <v>0.004792782364564058</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04037796316410819</v>
+        <v>0.02550912686632503</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00467998853320811</v>
+        <v>0.004718018827606009</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.008623418175891025</v>
+        <v>0.0359851952048445</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004792782364564058</v>
+        <v>0.004706636218920679</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009401139394956307</v>
+        <v>0.008540673954370755</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005591579425324733</v>
+        <v>0.004011846226379198</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02283777257846309</v>
+        <v>0.01211390264451449</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005522809420024886</v>
+        <v>0.005591579425324733</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04483176165356229</v>
+        <v>0.02753598546780517</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005459986622076129</v>
+        <v>0.005504355298873677</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.009401139394956307</v>
+        <v>0.03968231592246646</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005591579425324733</v>
+        <v>0.005491075588740792</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01032073721422318</v>
+        <v>0.009715319436735308</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006390376486085409</v>
+        <v>0.00458496711586194</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02548699448634426</v>
+        <v>0.01317202789727449</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006311782194314157</v>
+        <v>0.006390376486085409</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04824549134063438</v>
+        <v>0.02954604616594431</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006239984710944148</v>
+        <v>0.006290691770141346</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01032073721422318</v>
+        <v>0.04481436371919872</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006390376486085409</v>
+        <v>0.006275514958560905</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.011187780334619</v>
+        <v>0.01087932338931162</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007189173546846085</v>
+        <v>0.005158088005344683</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02771543625342818</v>
+        <v>0.014</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007100754968603426</v>
+        <v>0.006994749999999998</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05212430664351886</v>
+        <v>0.03196614367093037</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007019982799812166</v>
+        <v>0.007077028241409014</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.011187780334619</v>
+        <v>0.04809322016707318</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007189173546846085</v>
+        <v>0.007059954328381018</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01200783745707112</v>
+        <v>0.01203292620190623</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007987970607606761</v>
+        <v>0.005731208894827425</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02962694919623718</v>
+        <v>0.01482666063981099</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007889727742892696</v>
+        <v>0.007987970607606761</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05687336198040982</v>
+        <v>0.03342311269295142</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007799980888680184</v>
+        <v>0.007863364712676683</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01200783745707112</v>
+        <v>0.05163076683812168</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007987970607606761</v>
+        <v>0.00784439369820113</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01298647728250689</v>
+        <v>0.01317636826432566</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008786767668367437</v>
+        <v>0.006304329784310168</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03192538463129352</v>
+        <v>0.01529482843985334</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008678700517181965</v>
+        <v>0.008786767668367437</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0599978117695017</v>
+        <v>0.0357437879421954</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008579978977548202</v>
+        <v>0.00864970118394435</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01298647728250689</v>
+        <v>0.05443888530437607</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008786767668367437</v>
+        <v>0.008628833068021244</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01362926851185368</v>
+        <v>0.01430988996637644</v>
       </c>
       <c r="G77" t="n">
+        <v>0.006877450673792911</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.01589283110439056</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009585564729128115</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.03451459387511951</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009467673291471234</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.06320281042898862</v>
+        <v>0.03745500412885033</v>
       </c>
       <c r="M77" t="n">
-        <v>0.00935997706641622</v>
+        <v>0.009436037655212018</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01362926851185368</v>
+        <v>0.05852945713786817</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009585564729128115</v>
+        <v>0.009413272437841357</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01444177984603884</v>
+        <v>0.01543373169786509</v>
       </c>
       <c r="G78" t="n">
+        <v>0.007450571563275654</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01603548630640153</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01038436178988879</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.0361984282442375</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.0102566460657605</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.03848359596310422</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01021287852599455</v>
+        <v>0.01022237412647969</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01444177984603884</v>
+        <v>0.06101436391062987</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01038436178988879</v>
+        <v>0.01019771180766147</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01492957998598972</v>
+        <v>0.01654813384859814</v>
       </c>
       <c r="G79" t="n">
+        <v>0.008023692452758396</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01653761171886518</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01118315885064947</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.03838073905516967</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01104561884004977</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06809435186442148</v>
+        <v>0.04005639815514508</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01091997324415226</v>
+        <v>0.01100871059774735</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01492957998598972</v>
+        <v>0.06400548719469323</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01118315885064947</v>
+        <v>0.01098215117748158</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01569823763263369</v>
+        <v>0.01765333680838213</v>
       </c>
       <c r="G80" t="n">
+        <v>0.008596813342241138</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01711402501476046</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01198195591141014</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.03946537762443844</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01183459161433904</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06987588605556305</v>
+        <v>0.04140024541516091</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01169997133302028</v>
+        <v>0.01179504706901502</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01569823763263369</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01198195591141014</v>
+        <v>0.01161043032428855</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01635332148689808</v>
+        <v>0.01874958096702357</v>
       </c>
       <c r="G81" t="n">
+        <v>0.009169934231723881</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01727954386706623</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01278075297217082</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>0.04264890762500126</v>
       </c>
-      <c r="K81" t="n">
-        <v>0.01300882812707036</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.07233738821004465</v>
-      </c>
       <c r="M81" t="n">
-        <v>0.0124799694218883</v>
+        <v>0.01220415834601447</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01635332148689808</v>
+        <v>0.06867314787992729</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01278075297217082</v>
+        <v>0.01255102991712181</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01720040024971027</v>
+        <v>0.01983710671432899</v>
       </c>
       <c r="G82" t="n">
+        <v>0.009743055121206623</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01754898594876146</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.0135795500329315</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04346922657825528</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01341253716291758</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07527685319885447</v>
+        <v>0.04449836889259823</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01325996751075631</v>
+        <v>0.01336772001155036</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01720040024971027</v>
+        <v>0.07062406503006008</v>
       </c>
       <c r="O82" t="n">
-        <v>0.0135795500329315</v>
+        <v>0.01333546928694192</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01774504262199762</v>
+        <v>0.02091615444010493</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01031617601068937</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01793716893282504</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01437834709369217</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04487570002857852</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01420150993720685</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07819227589298061</v>
+        <v>0.04596792904310246</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01403996559962433</v>
+        <v>0.01415405648281803</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01774504262199762</v>
+        <v>0.07286788493858559</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01437834709369217</v>
+        <v>0.01411990865676204</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01849281730468746</v>
+        <v>0.02198696453415792</v>
       </c>
       <c r="G84" t="n">
+        <v>0.01088929690017211</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01845891049223587</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01517714415445285</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04638449112832826</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01499048271149612</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.08048165116341116</v>
+        <v>0.04704803219163139</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01481996368849235</v>
+        <v>0.0149403929540857</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01849281730468746</v>
+        <v>0.07560164790411633</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01517714415445285</v>
+        <v>0.01490434802658215</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
+        <v>0.02304977738629445</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.01146241778965485</v>
+      </c>
+      <c r="J85" t="n">
         <v>0.01906869055803882</v>
       </c>
-      <c r="G85" t="n">
+      <c r="K85" t="n">
         <v>0.01587865753343358</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04779312871353036</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01577945548578539</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.08184297388113426</v>
+        <v>0.04923598066796903</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01559996177736037</v>
+        <v>0.01572672942535337</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.07842239422526492</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01587865753343358</v>
+        <v>0.01568878739640226</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01972197136892705</v>
+        <v>0.02427573013870366</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01212876167054981</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01944418430587092</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.0167747382759742</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.04939914162021067</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01656842826007466</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08427423891713803</v>
+        <v>0.0507290768018992</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01637995986622839</v>
+        <v>0.01651306589662103</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01972197136892705</v>
+        <v>0.0813271642006439</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0167747382759742</v>
+        <v>0.01647322676622238</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.020411671593212</v>
+        <v>0.02516670431818731</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01260865956862034</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.02019526363445508</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01757353533673487</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.05130005868439497</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01735740103436393</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.08737344114241052</v>
+        <v>0.05192462292320579</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0171599579550964</v>
+        <v>0.0172994023678887</v>
       </c>
       <c r="N87" t="n">
-        <v>0.020411671593212</v>
+        <v>0.08371299812886573</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01757353533673487</v>
+        <v>0.01725766613604249</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02101618678615408</v>
+        <v>0.02625016277797795</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01318178045810308</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.02077899257845132</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01837233239749555</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05289340874210915</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0181463738086532</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08873857542794</v>
+        <v>0.05301992136167274</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01793995604396443</v>
+        <v>0.01808573883915637</v>
       </c>
       <c r="N88" t="n">
-        <v>0.02101618678615408</v>
+        <v>0.08607693630854296</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01837233239749555</v>
+        <v>0.0180421055058626</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02183326795375182</v>
+        <v>0.02733568341935441</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01375490134758582</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.02109226712026413</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01917112945825623</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.05447672062937903</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01893534658294247</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.09206763664471446</v>
+        <v>0.05481227444708392</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01871995413283244</v>
+        <v>0.01887207531042404</v>
       </c>
       <c r="N89" t="n">
-        <v>0.02183326795375182</v>
+        <v>0.08841601903828827</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01917112945825623</v>
+        <v>0.01882654487568271</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0223606661020037</v>
+        <v>0.02840311015485662</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01432802223706856</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.0217319832422979</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0199699265190169</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05614752318223043</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01972431935723174</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.09335861966372211</v>
+        <v>0.05629898450922319</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01949995222170046</v>
+        <v>0.01965841178169171</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0223606661020037</v>
+        <v>0.08952728661671405</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0199699265190169</v>
+        <v>0.01961098424550283</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02309613223690825</v>
+        <v>0.02943228689702455</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01490114312655131</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02259503692695711</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02076872357977758</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05740334523668919</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02051329213152101</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.09600951935595098</v>
+        <v>0.05817735387787454</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02027995031056848</v>
+        <v>0.02044474825295937</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02309613223690825</v>
+        <v>0.09250777934243287</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02076872357977758</v>
+        <v>0.02039542361532294</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02393741736446396</v>
+        <v>0.03040305755839816</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01547426401603405</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.02307832415664618</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02156752064053825</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05904171562878116</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02130226490581028</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.09741833059238925</v>
+        <v>0.05904468488282175</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0210599483994365</v>
+        <v>0.02123108472422704</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02393741736446396</v>
+        <v>0.09445453751405736</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02156752064053825</v>
+        <v>0.02117986298514305</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02488227249066934</v>
+        <v>0.0312952660515174</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01604738490551679</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02387874091376953</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02236631770129893</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.06076016319453217</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02209123768009955</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.09958304824402497</v>
+        <v>0.06049827985384876</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02183994648830452</v>
+        <v>0.02201742119549471</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02488227249066934</v>
+        <v>0.09696460143020003</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02236631770129893</v>
+        <v>0.02196430235496317</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.0255284486215229</v>
+        <v>0.03227573013870366</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01676896805879152</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.02469318318073165</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02316511476205961</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06205621676996806</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02288021045438882</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1014016671818463</v>
+        <v>0.06173544112073939</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02261994457717253</v>
+        <v>0.02280375766676238</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0255284486215229</v>
+        <v>0.09863501138947334</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02316511476205961</v>
+        <v>0.02274874172478328</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02617369676302313</v>
+        <v>0.03279596151979598</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01719362668448228</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02541854693993693</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02396391182282029</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06332740519111466</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02366918322867809</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1044721822768415</v>
+        <v>0.06375347101327766</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02339994266604055</v>
+        <v>0.02359009413803005</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02617369676302313</v>
+        <v>0.1014628076904899</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02396391182282029</v>
+        <v>0.02353318109460339</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02691576792116857</v>
+        <v>0.03348821529074697</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01776674757396502</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02605172817378984</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02476270888358096</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06527125729399783</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02445815600296736</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1061925883999983</v>
+        <v>0.0653496718612474</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02417994075490857</v>
+        <v>0.02437643060929772</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02691576792116857</v>
+        <v>0.1031450306318622</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02476270888358096</v>
+        <v>0.02431762046442351</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02785241310195771</v>
+        <v>0.0341676345072775</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01833986846344776</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02688962286469483</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02556150594434163</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.0660853019146434</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02524712877725663</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1071608804223053</v>
+        <v>0.06652134599443246</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02495993884377659</v>
+        <v>0.02516276708056538</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02785241310195771</v>
+        <v>0.1054787205122028</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02556150594434163</v>
+        <v>0.02510205983424362</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02838138331138904</v>
+        <v>0.03483255977754086</v>
       </c>
       <c r="G98" t="n">
+        <v>0.0189129893529305</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02772912699505629</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02636030300510231</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06746706788907714</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02603610155154589</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1098750532147503</v>
+        <v>0.06736579574261681</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02573993693264461</v>
+        <v>0.02594910355183305</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02838138331138904</v>
+        <v>0.1068609176301242</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02636030300510231</v>
+        <v>0.02588649920406373</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02920042955546109</v>
+        <v>0.03548133170969033</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01948611024241325</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.02836713654727871</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02715910006586299</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.06941408405332494</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02682507432583517</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1114331016483215</v>
+        <v>0.06898032343558427</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02651993502151263</v>
+        <v>0.02673544002310071</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02920042955546109</v>
+        <v>0.1091886622842391</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02715910006586299</v>
+        <v>0.02667093857388385</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02990730284017235</v>
+        <v>0.03611229091187917</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02005923113189599</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.0289005475037665</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02795789712662367</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.0704238792434127</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02761404710012444</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1135330205940072</v>
+        <v>0.07006223140311885</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02729993311038064</v>
+        <v>0.02752177649436839</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02990730284017235</v>
+        <v>0.1106589947731599</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02795789712662367</v>
+        <v>0.02745537794370396</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03059975417152132</v>
+        <v>0.03672377799226068</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02063235202137873</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02972625584692409</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02875669418738434</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.07159398229536618</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.0284030198744137</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1147728049227951</v>
+        <v>0.07140882197500428</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02807993119924867</v>
+        <v>0.02830811296563606</v>
       </c>
       <c r="N101" t="n">
-        <v>0.03059975417152132</v>
+        <v>0.1129689553954991</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02875669418738434</v>
+        <v>0.02823981731352407</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03107553455550655</v>
+        <v>0.03731413355898813</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02120547291086147</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03034115755915597</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02955549124814501</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.07302192204521119</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02919199264870297</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1157504495056737</v>
+        <v>0.07281739748102453</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02885992928811668</v>
+        <v>0.02909444943690372</v>
       </c>
       <c r="N102" t="n">
-        <v>0.03107553455550655</v>
+        <v>0.1146155844498694</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02955549124814501</v>
+        <v>0.02902425668334419</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03203239499812646</v>
+        <v>0.0378816982202148</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02177859380034422</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03124214862286652</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.0303542883089057</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.07370522732897364</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02998096542299225</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.117363949213631</v>
+        <v>0.07428526025096349</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0296399273769847</v>
+        <v>0.0298807859081714</v>
       </c>
       <c r="N103" t="n">
-        <v>0.03203239499812646</v>
+        <v>0.1168959222348832</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0303542883089057</v>
+        <v>0.0298086960531643</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03266808650537963</v>
+        <v>0.03842481258409393</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02235171468982696</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03182612502046021</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03115308536966637</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.07554142698267935</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03076993819728151</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.119911298917655</v>
+        <v>0.07500971261460504</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03041992546585272</v>
+        <v>0.03066712237943906</v>
       </c>
       <c r="N104" t="n">
-        <v>0.03266808650537963</v>
+        <v>0.1178070090491531</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03115308536966637</v>
+        <v>0.03059313542298441</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03318036008326455</v>
+        <v>0.03894181725877886</v>
       </c>
       <c r="G105" t="n">
+        <v>0.0229248355793097</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.0323899827343415</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03195188243042704</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.07602804984235412</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03155891097157078</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.120390493488734</v>
+        <v>0.0757880569017331</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03119992355472074</v>
+        <v>0.03145345885070673</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03318036008326455</v>
+        <v>0.1198458851912917</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03195188243042704</v>
+        <v>0.03137757479280452</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03366696673777972</v>
+        <v>0.03943105285242283</v>
       </c>
       <c r="G106" t="n">
+        <v>0.02349795646879245</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03303061774691482</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.03275067949118773</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.07756262474402378</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03234788374586005</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.122499527797856</v>
+        <v>0.07731759544213157</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03197992164358875</v>
+        <v>0.03223979532197439</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03366696673777972</v>
+        <v>0.1206095909599114</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03275067949118773</v>
+        <v>0.03216201416262463</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03432565747492365</v>
+        <v>0.03989085997317914</v>
       </c>
       <c r="G107" t="n">
+        <v>0.02407107735827519</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.03394492604058455</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.0335494765519484</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.0781426805237142</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03313685652014933</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1231363967160092</v>
+        <v>0.07779563056558431</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03275991973245677</v>
+        <v>0.03302613179324206</v>
       </c>
       <c r="N107" t="n">
-        <v>0.03432565747492365</v>
+        <v>0.1226951666536248</v>
       </c>
       <c r="O107" t="n">
-        <v>0.0335494765519484</v>
+        <v>0.03294645353244476</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03495418330069483</v>
+        <v>0.04031957922920106</v>
       </c>
       <c r="G108" t="n">
+        <v>0.02464419824775793</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03422980359775521</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03434827361270907</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.07876574601745126</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.0339258292944386</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1246990951141816</v>
+        <v>0.07921946460187518</v>
       </c>
       <c r="M108" t="n">
-        <v>0.0335399178213248</v>
+        <v>0.03381246826450973</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03495418330069483</v>
+        <v>0.1232996525710445</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03434827361270907</v>
+        <v>0.03373089290226487</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03515029522109181</v>
+        <v>0.04071555122864184</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02521731913724067</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03488214640083118</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03514707067346975</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.08002935006126072</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03471480206872786</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1252856178633615</v>
+        <v>0.07988639988078816</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03431991591019281</v>
+        <v>0.0345988047357774</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03515029522109181</v>
+        <v>0.125420089010783</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03514707067346975</v>
+        <v>0.03451533227208498</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03561174424211305</v>
+        <v>0.04107711657965479</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02579044002672342</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03549885043221693</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03594586773423043</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.08063102149116846</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03550377484301713</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1257939598345369</v>
+        <v>0.08049373873210708</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03509991399906083</v>
+        <v>0.03538514120704507</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03561174424211305</v>
+        <v>0.1262535162714528</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03594586773423043</v>
+        <v>0.03529977164190509</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03623628136975707</v>
+        <v>0.04140261589039319</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02636356091620616</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03577681167431691</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.0367446647949911</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.08136828914320027</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.0362927476173064</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1280221158986959</v>
+        <v>0.08103878348561583</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03587991208792885</v>
+        <v>0.03617147767831274</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03623628136975707</v>
+        <v>0.1262969746516666</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0367446647949911</v>
+        <v>0.0360842110117252</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03652165761002234</v>
+        <v>0.04169038976901032</v>
       </c>
       <c r="G112" t="n">
+        <v>0.0269366818056889</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03651292610953553</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03754346185575178</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.08243868185338199</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03708172039159567</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1287680809268267</v>
+        <v>0.08231883647109828</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03665991017679687</v>
+        <v>0.03695781414958041</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03652165761002234</v>
+        <v>0.1273475044500367</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03754346185575178</v>
+        <v>0.03686865038154532</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03686562396890744</v>
+        <v>0.04193877882365943</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02750980269517164</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.03680408972027724</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03834225891651246</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.08303972845773955</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03787069316588493</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1284298497899173</v>
+        <v>0.08253120001833841</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03743990826566488</v>
+        <v>0.03774415062084807</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03686562396890744</v>
+        <v>0.1291021459651757</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03834225891651246</v>
+        <v>0.03765308975136543</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03706593145241084</v>
+        <v>0.04216202441237438</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02808292358465439</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.03694719848894651</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03914105597727313</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.08366895779229871</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03865966594017421</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1290054173589559</v>
+        <v>0.08317317645712002</v>
       </c>
       <c r="M114" t="n">
-        <v>0.0382199063545329</v>
+        <v>0.03853048709211574</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03706593145241084</v>
+        <v>0.1291579394956963</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03914105597727313</v>
+        <v>0.03843752912118554</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03752033106653103</v>
+        <v>0.04238235549366705</v>
       </c>
       <c r="G115" t="n">
+        <v>0.02865604447413712</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.03743914839794774</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0399398530380338</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.08412389869308529</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03944863871446348</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1302927785049307</v>
+        <v>0.08334206811722705</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03899990444340092</v>
+        <v>0.03931682356338341</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03752033106653103</v>
+        <v>0.130111925340211</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0399398530380338</v>
+        <v>0.03922196849100566</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03762657381726654</v>
+        <v>0.04259988558392498</v>
       </c>
       <c r="G116" t="n">
+        <v>0.02922916536361987</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.03767683542968536</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04073865009879448</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.08440207999612517</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04023761148875275</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1302899280988297</v>
+        <v>0.08423517732844343</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03977990253226894</v>
+        <v>0.04010316003465108</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03762657381726654</v>
+        <v>0.1312611437973322</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04073865009879448</v>
+        <v>0.04000640786082577</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03768241071061589</v>
+        <v>0.0428145466336966</v>
       </c>
       <c r="G117" t="n">
+        <v>0.02980228625310262</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.03785715556656385</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04153744715955516</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.08450103053744418</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.04102658426304202</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.130994861011641</v>
+        <v>0.08474980642055296</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04055990062113696</v>
+        <v>0.04088949650591875</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03768241071061589</v>
+        <v>0.1306026351656724</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04153744715955516</v>
+        <v>0.04079084723064588</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03778559275257753</v>
+        <v>0.04302627059353027</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03037540714258535</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.03787700479098763</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04233624422031584</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.08501827915306814</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04181555703733129</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1314055721143528</v>
+        <v>0.08498325772333959</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04133989871000498</v>
+        <v>0.04167583297718641</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03778559275257753</v>
+        <v>0.1311334397438444</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04233624422031584</v>
+        <v>0.041575286600466</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
+        <v>0.04323498941397443</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0.0309485280320681</v>
+      </c>
+      <c r="J119" t="n">
         <v>0.03813738111607763</v>
       </c>
-      <c r="G119" t="n">
+      <c r="K119" t="n">
         <v>0.04313504128107651</v>
       </c>
-      <c r="J119" t="n">
+      <c r="L119" t="n">
         <v>0.08529781525000252</v>
       </c>
-      <c r="K119" t="n">
-        <v>0.04260452981162056</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1322200562779532</v>
-      </c>
       <c r="M119" t="n">
-        <v>0.04211989679887299</v>
+        <v>0.04246216944845409</v>
       </c>
       <c r="N119" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.1315505978304606</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04313504128107651</v>
+        <v>0.04235972597028611</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03783589559509369</v>
+        <v>0.04344063504557744</v>
       </c>
       <c r="G120" t="n">
+        <v>0.03152164892155084</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.03783461320204463</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04393383834183719</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.08499778595133423</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04339350258590983</v>
-      </c>
       <c r="L120" t="n">
+        <v>0.08519583628007965</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0.04324850591972176</v>
+      </c>
+      <c r="N120" t="n">
         <v>0.1324582493839274</v>
       </c>
-      <c r="M120" t="n">
-        <v>0.04289989488774101</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.03783589559509369</v>
-      </c>
       <c r="O120" t="n">
-        <v>0.04393383834183719</v>
+        <v>0.04314416534010622</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03812791696355901</v>
+        <v>0.04364313943888772</v>
       </c>
       <c r="G121" t="n">
+        <v>0.03209476981103358</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.03781981060745492</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04473263540259786</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.08529474811984886</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04418247536019909</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1314568886759597</v>
+        <v>0.08478921729636743</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04367989297660903</v>
+        <v>0.04403484239098942</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03812791696355901</v>
+        <v>0.1321511585842302</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04473263540259786</v>
+        <v>0.04392860470992634</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03781320923703956</v>
+        <v>0.04384243454445362</v>
       </c>
       <c r="G122" t="n">
+        <v>0.03266789070051632</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.03809267094523149</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04553143246335854</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.08488525665874677</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04497144813448837</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1319373992439564</v>
+        <v>0.08475424260857287</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04445989106547705</v>
+        <v>0.04482117886225709</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03781320923703956</v>
+        <v>0.1315135362794613</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04553143246335854</v>
+        <v>0.04471304407974645</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03779196688280553</v>
+        <v>0.04403845231282359</v>
       </c>
       <c r="G123" t="n">
+        <v>0.03324101158999906</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.03805369671570372</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04633022952411921</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.08456939237990072</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04576042090877763</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1313952402065304</v>
+        <v>0.08449335396559188</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04523988915434507</v>
+        <v>0.04560751533352475</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03779196688280553</v>
+        <v>0.1319443892704967</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04633022952411921</v>
+        <v>0.04549748344956656</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03806438436812706</v>
+        <v>0.04423112469454601</v>
       </c>
       <c r="G124" t="n">
+        <v>0.03381413247948181</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.037903390419201</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04712902658487989</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.08504720892568182</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.0465493936830669</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.131030983256774</v>
+        <v>0.08470763049583516</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04601988724321309</v>
+        <v>0.04639385180479243</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03806438436812706</v>
+        <v>0.1314446870700477</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04712902658487989</v>
+        <v>0.04628192281938667</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03793065616027434</v>
+        <v>0.04442038364016929</v>
       </c>
       <c r="G125" t="n">
+        <v>0.03438725336896455</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.03794225455605278</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04792782364564057</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.08441875993846135</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04733836645735617</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1317452000877798</v>
+        <v>0.0844981513277136</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04679988533208111</v>
+        <v>0.0471801882760601</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03793065616027434</v>
+        <v>0.1313153991908259</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04792782364564057</v>
+        <v>0.04706636218920679</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03799097672651754</v>
+        <v>0.04460616110024181</v>
       </c>
       <c r="G126" t="n">
+        <v>0.03496037425844729</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.03767079162658843</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04872662070640124</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.08438409906061042</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04812733923164544</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1315384623926403</v>
+        <v>0.0842659955896379</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04757988342094912</v>
+        <v>0.04796652474732776</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03799097672651754</v>
+        <v>0.1313574951455425</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04872662070640124</v>
+        <v>0.0478508015590269</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03764554053412682</v>
+        <v>0.04478838902531199</v>
       </c>
       <c r="G127" t="n">
+        <v>0.03553349514793004</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.03768950413113735</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04952541776716192</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.08494327993450027</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04891631200593471</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1307113418644477</v>
+        <v>0.08391224241001888</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04835988150981714</v>
+        <v>0.04875286121859543</v>
       </c>
       <c r="N127" t="n">
-        <v>0.03764554053412682</v>
+        <v>0.1309719444469085</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04952541776716192</v>
+        <v>0.04863524092884702</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03759454205037235</v>
+        <v>0.0449669993659282</v>
       </c>
       <c r="G128" t="n">
+        <v>0.03610661603741278</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.03749889457002893</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.0503242148279226</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.08439635620250205</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.04970528478022398</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1306644101962947</v>
+        <v>0.08393797091726732</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04913987959868516</v>
+        <v>0.0495391976898631</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03759454205037235</v>
+        <v>0.1313597166076356</v>
       </c>
       <c r="O128" t="n">
-        <v>0.0503242148279226</v>
+        <v>0.04941968029866713</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0375381757425243</v>
+        <v>0.04514192407263884</v>
       </c>
       <c r="G129" t="n">
+        <v>0.03667973692689552</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.03749946544359259</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05112301188868327</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.08444338150698699</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05049425755451326</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1309982390812736</v>
+        <v>0.08374426023979401</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04991987768755318</v>
+        <v>0.05032553416113077</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0375381757425243</v>
+        <v>0.1305217811404349</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05112301188868327</v>
+        <v>0.05020411966848724</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03777663607785282</v>
+        <v>0.04531309509599231</v>
       </c>
       <c r="G130" t="n">
+        <v>0.03725285781637827</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.03739171925215772</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05192180894944395</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.08438440949032627</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05128323032880253</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1314134002124769</v>
+        <v>0.08403218950600974</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0506998757764212</v>
+        <v>0.05111187063239844</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03777663607785282</v>
+        <v>0.1299591075580179</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05192180894944395</v>
+        <v>0.05098855903830735</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03751011752362811</v>
+        <v>0.04548044438653703</v>
       </c>
       <c r="G131" t="n">
+        <v>0.037825978705861</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.03717615849605371</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05272060601020462</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.08471949379489105</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05207220310309179</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1300104652829969</v>
+        <v>0.08350283784432525</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05147987386528922</v>
+        <v>0.0518982071036661</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03751011752362811</v>
+        <v>0.1307726653730957</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05272060601020462</v>
+        <v>0.05177299840812746</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03743881454712032</v>
+        <v>0.04564390389482137</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03839909959534375</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.03725328567560998</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.0535194030709653</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.08464868806305251</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05286117587738106</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1308900059859264</v>
+        <v>0.08365728438315143</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05225987195415724</v>
+        <v>0.05268454357493377</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03743881454712032</v>
+        <v>0.1293634240983798</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0535194030709653</v>
+        <v>0.05255743777794758</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03736292161559963</v>
+        <v>0.04580340557139374</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03897222048482649</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.03712360329115591</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05431820013172598</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.08437204593718192</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05365014865167033</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1304525940143575</v>
+        <v>0.08329660825089899</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05303987004302525</v>
+        <v>0.05347088004620143</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03736292161559963</v>
+        <v>0.1292323532465814</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05431820013172598</v>
+        <v>0.0533418771477677</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03728263319633619</v>
+        <v>0.04595888136680255</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03954534137430923</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.0367876138430209</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05511699719248666</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.08408962105965045</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.0544391214259596</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1305988010613828</v>
+        <v>0.08302188857597873</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05381986813189327</v>
+        <v>0.05425721651746911</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03728263319633619</v>
+        <v>0.1294804223304117</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05511699719248666</v>
+        <v>0.0541263165175878</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0371981437566002</v>
+        <v>0.04611026323159617</v>
       </c>
       <c r="G135" t="n">
+        <v>0.04011846226379198</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.03684581983153437</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05591579425324733</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.08420146707282919</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05522809420024887</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1291291988200948</v>
+        <v>0.08283420448680143</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05459986622076129</v>
+        <v>0.05504355298873678</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0371981437566002</v>
+        <v>0.1289086008625823</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05591579425324733</v>
+        <v>0.05491075588740792</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03710964776366181</v>
+        <v>0.04625748311632301</v>
       </c>
       <c r="G136" t="n">
+        <v>0.04069158315327472</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.03669872375702571</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.056714591314008</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.08400763761908944</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05601706697453814</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1292443589835857</v>
+        <v>0.08223463511177792</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05537986430962932</v>
+        <v>0.05582988946000444</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03710964776366181</v>
+        <v>0.1284178583558043</v>
       </c>
       <c r="O136" t="n">
-        <v>0.056714591314008</v>
+        <v>0.05569519525722803</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03711733968479118</v>
+        <v>0.04640047297153146</v>
       </c>
       <c r="G137" t="n">
+        <v>0.04126470404275746</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.03654682811982429</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05751338837476868</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.08400818634080234</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05680603974882741</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1289448532449483</v>
+        <v>0.08222425957931892</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05615986239849733</v>
+        <v>0.05661622593127211</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03711733968479118</v>
+        <v>0.1273091643227891</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05751338837476868</v>
+        <v>0.05647963462704814</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03712141398725848</v>
+        <v>0.04653916474776994</v>
       </c>
       <c r="G138" t="n">
+        <v>0.0418378249322402</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.03629063542025956</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05831218543552935</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.08360316688033911</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05759501252311668</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1292312532972748</v>
+        <v>0.0811041570178353</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05693986048736534</v>
+        <v>0.05740256240253978</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03712141398725848</v>
+        <v>0.127783488276248</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05831218543552935</v>
+        <v>0.05726407399686825</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03682206513833389</v>
+        <v>0.04667349039558683</v>
       </c>
       <c r="G139" t="n">
+        <v>0.04241094582172295</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.03603064815866089</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05911098249629003</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.08359263288007093</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.05838398529740595</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1278041308336577</v>
+        <v>0.08137540655573774</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05771985857623337</v>
+        <v>0.05818889887380745</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03682206513833389</v>
+        <v>0.1267417997288922</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05911098249629003</v>
+        <v>0.05804851336668837</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03671948760528758</v>
+        <v>0.04680338186553051</v>
       </c>
       <c r="G140" t="n">
+        <v>0.04298406671120569</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03576736883535769</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05990977955705071</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.08377663798236895</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05917295807169522</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1286640575471895</v>
+        <v>0.08073908732143711</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05849985666510138</v>
+        <v>0.05897523534507512</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03671948760528758</v>
+        <v>0.1264850681934331</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05990977955705071</v>
+        <v>0.05883295273650849</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03681387585538971</v>
+        <v>0.04692877110814941</v>
       </c>
       <c r="G141" t="n">
+        <v>0.04355718760068843</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03590129995067935</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06070857661781139</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.08355523582960442</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05996193084598449</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1283116051309627</v>
+        <v>0.08059627844334419</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05927985475396941</v>
+        <v>0.05976157181634279</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03681387585538971</v>
+        <v>0.1258142631825822</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06070857661781139</v>
+        <v>0.0596173921063286</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03650542435591045</v>
+        <v>0.04704959007399194</v>
       </c>
       <c r="G142" t="n">
+        <v>0.04413030849017117</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03573294400495529</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06150737367857206</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.08342848006414846</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06075090362027375</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1272473452780695</v>
+        <v>0.08054805904986975</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06005985284283741</v>
+        <v>0.06054790828761045</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03650542435591045</v>
+        <v>0.1259303542090505</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06150737367857206</v>
+        <v>0.06040183147614871</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03629432757411998</v>
+        <v>0.04716577071360643</v>
       </c>
       <c r="G143" t="n">
+        <v>0.04470342937965392</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03556280349851487</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06230617073933273</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.08339642432837238</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06153987639456302</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1269718496816026</v>
+        <v>0.07939550826942457</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06083985093170544</v>
+        <v>0.06133424475887812</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03629432757411998</v>
+        <v>0.1258343107855495</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06230617073933273</v>
+        <v>0.06118627084596882</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03618077997728845</v>
+        <v>0.04727724497754135</v>
       </c>
       <c r="G144" t="n">
+        <v>0.04527655026913666</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03529138093168753</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06310496780009341</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.08325912226464721</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.0623288491688523</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1263856900346544</v>
+        <v>0.07983970523041944</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06161984902057346</v>
+        <v>0.06212058123014579</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03618077997728845</v>
+        <v>0.1246271024247904</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06310496780009341</v>
+        <v>0.06197071021578894</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03626497603268602</v>
+        <v>0.04738394481634506</v>
       </c>
       <c r="G145" t="n">
+        <v>0.0458496711586194</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03521917880480264</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06390376486085408</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.08321662751534425</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06311782194314157</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1268894380303173</v>
+        <v>0.07928172906126518</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06239984710944147</v>
+        <v>0.06290691770141346</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03626497603268602</v>
+        <v>0.1237096986394846</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06390376486085408</v>
+        <v>0.06275514958560904</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03614711020758291</v>
+        <v>0.04748580218056596</v>
       </c>
       <c r="G146" t="n">
+        <v>0.04642279204810214</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03504669961818963</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06470256192161476</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.08276899372283469</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06390679471743084</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1261836653616837</v>
+        <v>0.07862265889037254</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06317984519830949</v>
+        <v>0.06369325417268112</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03614711020758291</v>
+        <v>0.1240830689423433</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06470256192161476</v>
+        <v>0.06353958895542916</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03602737696924922</v>
+        <v>0.04758274902075245</v>
       </c>
       <c r="G147" t="n">
+        <v>0.04699591293758489</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03477444587217787</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.06550135898237545</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.08251627452948967</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.0646957674917201</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1258689437218461</v>
+        <v>0.07876357384615229</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06395984328717751</v>
+        <v>0.06447959064394879</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03602737696924922</v>
+        <v>0.122948182846078</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06550135898237545</v>
+        <v>0.06432402832524926</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03590597078495518</v>
+        <v>0.04767471728745293</v>
       </c>
       <c r="G148" t="n">
+        <v>0.04756903382706763</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.03450292006709678</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06630015604313612</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.08295852357768041</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06548474026600937</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1255458448038971</v>
+        <v>0.07770555305701526</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06473984137604553</v>
+        <v>0.06526592711521646</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03590597078495518</v>
+        <v>0.1227060098633999</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06630015604313612</v>
+        <v>0.06510846769506939</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03578308612197094</v>
+        <v>0.04776163893121579</v>
       </c>
       <c r="G149" t="n">
+        <v>0.04814215471655037</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03453262470327575</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0670989531038968</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.08279579450977811</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06627371304029865</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1251149403009288</v>
+        <v>0.07734967565137224</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06551983946491355</v>
+        <v>0.06605226358648413</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03578308612197094</v>
+        <v>0.1214575195070203</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0670989531038968</v>
+        <v>0.06589290706488951</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03545891744756666</v>
+        <v>0.04784344590258946</v>
       </c>
       <c r="G150" t="n">
+        <v>0.04871527560603311</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.03406406228104419</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06789775016465747</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.08222814096815392</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06706268581458792</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.124776801906034</v>
+        <v>0.07699702075763398</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06629983755378158</v>
+        <v>0.0668386000577518</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03545891744756666</v>
+        <v>0.1209036812896506</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06789775016465747</v>
+        <v>0.06667734643470961</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03533365922901249</v>
+        <v>0.0479200701521223</v>
       </c>
       <c r="G151" t="n">
+        <v>0.04928839649551586</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03389773530073148</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06869654722541814</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.08175561659517908</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06785165858887719</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1240320013123049</v>
+        <v>0.07664866750421129</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06707983564264959</v>
+        <v>0.06762493652901946</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03533365922901249</v>
+        <v>0.1207454647240019</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06869654722541814</v>
+        <v>0.06746178580452973</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03530750593357862</v>
+        <v>0.0479914436303627</v>
       </c>
       <c r="G152" t="n">
+        <v>0.0498615173849986</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03393414626266704</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06949534428617882</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.08207827503322471</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06864063136316645</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1238811102128341</v>
+        <v>0.07660569501951495</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0678598337315176</v>
+        <v>0.06841127300028714</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03530750593357862</v>
+        <v>0.1209838393227857</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06949534428617882</v>
+        <v>0.06824622517434983</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03518065202853524</v>
+        <v>0.04805749828785912</v>
       </c>
       <c r="G153" t="n">
+        <v>0.05043463827448134</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03357379766718026</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.0702941413469395</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.0819961699246621</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06942960413745572</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.123424700300714</v>
+        <v>0.07666918243195578</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06863983182038562</v>
+        <v>0.0691976094715548</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03518065202853524</v>
+        <v>0.1192197745987134</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0702941413469395</v>
+        <v>0.06903066454416995</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03495329198115248</v>
+        <v>0.04811816607515985</v>
       </c>
       <c r="G154" t="n">
+        <v>0.05100775916396409</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03341719201460053</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07109293840770019</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.08110935491186236</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07021857691174499</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.122063343269037</v>
+        <v>0.07574020886994451</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06941982990925363</v>
+        <v>0.06998394594282246</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03495329198115248</v>
+        <v>0.119054240064496</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07109293840770019</v>
+        <v>0.06981510391399007</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03512562025870053</v>
+        <v>0.0481733789428134</v>
       </c>
       <c r="G155" t="n">
+        <v>0.05158088005344683</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03326483180525726</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07189173546846085</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.08121788363719665</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07100754968603426</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1212976108108956</v>
+        <v>0.07521985346189197</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07019982799812166</v>
+        <v>0.07077028241409014</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03512562025870053</v>
+        <v>0.1182882052328451</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07189173546846085</v>
+        <v>0.07059954328381018</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03489783132844954</v>
+        <v>0.04822306884136811</v>
       </c>
       <c r="G156" t="n">
+        <v>0.05215400094292957</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03341721953947986</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07269053252922153</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.08092180974303628</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07179652246032353</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1214280746193823</v>
+        <v>0.07540919533620888</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07097982608698968</v>
+        <v>0.0715566188853578</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03489783132844954</v>
+        <v>0.1179226396164719</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07269053252922153</v>
+        <v>0.07138398265363029</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0348701196576697</v>
+        <v>0.04826716772137236</v>
       </c>
       <c r="G157" t="n">
+        <v>0.05272712183241231</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03297485771759771</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07348932958998221</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.08092118687175237</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.0725854952346128</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1215553063875895</v>
+        <v>0.07520931362130609</v>
       </c>
       <c r="M157" t="n">
-        <v>0.0717598241758577</v>
+        <v>0.07234295535662548</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0348701196576697</v>
+        <v>0.1169585127280877</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07348932958998221</v>
+        <v>0.0721684220234504</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03464267971363118</v>
+        <v>0.04830560753337459</v>
       </c>
       <c r="G158" t="n">
+        <v>0.05330024272189506</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.03303551579794084</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07428812665074287</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.08111606866571611</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07337446800890207</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1205798778086095</v>
+        <v>0.07451773321899177</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07253982226472572</v>
+        <v>0.07312929182789314</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03464267971363118</v>
+        <v>0.1169691796110315</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07428812665074287</v>
+        <v>0.07295286139327052</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03451570596360413</v>
+        <v>0.0483383202279232</v>
       </c>
       <c r="G159" t="n">
+        <v>0.0538733636113778</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03289477548000934</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07508692371150355</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.08050650876729865</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07416344078319134</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.119902360575535</v>
+        <v>0.07402873049308392</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07331982035359373</v>
+        <v>0.07391562829916082</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03451570596360413</v>
+        <v>0.1168106042336486</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07508692371150355</v>
+        <v>0.07373730076309064</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03438939287485872</v>
+        <v>0.04836523775556655</v>
       </c>
       <c r="G160" t="n">
+        <v>0.05444648450086054</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03275263846663387</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07588572077226423</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.08009256081887128</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07495241355748061</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1189233263814582</v>
+        <v>0.07424183884376892</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07409981844246176</v>
+        <v>0.07470196477042848</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03438939287485872</v>
+        <v>0.1149862198696164</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07588572077226423</v>
+        <v>0.07452174013291075</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03416393491466514</v>
+        <v>0.04838629206685306</v>
       </c>
       <c r="G161" t="n">
+        <v>0.05501960539034328</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03240918458452013</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07668451783302492</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.08017427846280512</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07574138633176987</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1187433469194718</v>
+        <v>0.07415668112504697</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07487981653132976</v>
+        <v>0.07548830124169614</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03416393491466514</v>
+        <v>0.1153002441901867</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07668451783302492</v>
+        <v>0.07530617950273086</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03403952655029355</v>
+        <v>0.04840141511233112</v>
       </c>
       <c r="G162" t="n">
+        <v>0.05559272627982603</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03226449366037382</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07748331489378558</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.07985171534147137</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07653035910605914</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1182629938826681</v>
+        <v>0.07347288019091841</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07565981462019779</v>
+        <v>0.07627463771296382</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03403952655029355</v>
+        <v>0.1135568948666111</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07748331489378558</v>
+        <v>0.07609061887255097</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03391636224901411</v>
+        <v>0.04841053884254913</v>
       </c>
       <c r="G163" t="n">
+        <v>0.05616584716930877</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03241864552090061</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07828211195454626</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.07992492509724122</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07731933188034841</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1186828389641396</v>
+        <v>0.07309005889538353</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0764398127090658</v>
+        <v>0.07706097418423148</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03391636224901411</v>
+        <v>0.1132603895701417</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07828211195454626</v>
+        <v>0.07687505824237108</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03399133259210234</v>
+        <v>0.04841359520805548</v>
       </c>
       <c r="G164" t="n">
+        <v>0.05673896805879151</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0322717199928062</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07908090901530694</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.07949396137248588</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07810830465463769</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1179034538569788</v>
+        <v>0.07260784009244259</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07721981079793383</v>
+        <v>0.07784731065549914</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03399133259210234</v>
+        <v>0.1126149459720301</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07908090901530694</v>
+        <v>0.07765949761219119</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03356058233563895</v>
+        <v>0.04841359520805549</v>
       </c>
       <c r="G165" t="n">
+        <v>0.05673896805879151</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03192379690279627</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07987970607606761</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.07895887780957653</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07889727742892697</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1165249263916229</v>
+        <v>0.07262584663609581</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07799980888680184</v>
+        <v>0.07863364712676682</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03356058233563895</v>
+        <v>0.1114247817435282</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07987970607606761</v>
+        <v>0.07844393698201131</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03372437388411278</v>
+        <v>0.0475832181880647</v>
       </c>
       <c r="G166" t="n">
+        <v>0.0567386995303275</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03177495607757654</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08067850313682828</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.07921972805088431</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.07968625020321622</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1162280322415337</v>
+        <v>0.07264370138034359</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07877980697566986</v>
+        <v>0.0794199835980345</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03372437388411278</v>
+        <v>0.1096941145558878</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08067850313682828</v>
+        <v>0.07922837635183143</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03358298132107043</v>
+        <v>0.04676221926241728</v>
       </c>
       <c r="G167" t="n">
+        <v>0.05673843100186349</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03152527734385266</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08147730019758896</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.07837656573878049</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08047522297750549</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1165031851730536</v>
+        <v>0.07226102717918612</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07955980506453789</v>
+        <v>0.08020632006930216</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03358298132107043</v>
+        <v>0.1094271620803608</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08147730019758896</v>
+        <v>0.08001281572165155</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03323667873005855</v>
+        <v>0.04595105702454035</v>
       </c>
       <c r="G168" t="n">
+        <v>0.05673816247339946</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03147484052833033</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08227609725834964</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.07812944451563625</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08126419575179476</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1157512318366295</v>
+        <v>0.07197744688662369</v>
       </c>
       <c r="M168" t="n">
-        <v>0.0803398031534059</v>
+        <v>0.08099265654056982</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03323667873005855</v>
+        <v>0.1085281419881988</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08227609725834964</v>
+        <v>0.08079725509147165</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0332857401946238</v>
+        <v>0.04515019006796669</v>
       </c>
       <c r="G169" t="n">
+        <v>0.05673789394493545</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03132372545771527</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08307489431911032</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.07797841802382272</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08205316852608403</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1153730188827086</v>
+        <v>0.07199258335665659</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08111980124227391</v>
+        <v>0.0817789930118375</v>
       </c>
       <c r="N169" t="n">
-        <v>0.0332857401946238</v>
+        <v>0.1067012719506539</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08307489431911032</v>
+        <v>0.08158169446129176</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03293043979831281</v>
+        <v>0.04436007698612293</v>
       </c>
       <c r="G170" t="n">
+        <v>0.05673762541647143</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03137201195871316</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.083873691379871</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.07772353990571113</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.0828421413003733</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1139693929617382</v>
+        <v>0.07090605944328515</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08189979933114193</v>
+        <v>0.08256532948310516</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03293043979831281</v>
+        <v>0.1054507696389775</v>
       </c>
       <c r="O170" t="n">
-        <v>0.083873691379871</v>
+        <v>0.08236613383111187</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03267105162467221</v>
+        <v>0.04358117637247126</v>
       </c>
       <c r="G171" t="n">
+        <v>0.05673735688800742</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03091977985802967</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08467248844063167</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.07796486380367268</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08363111407466257</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1130412007241654</v>
+        <v>0.07121749800050953</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08267979742000996</v>
+        <v>0.08335166595437282</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03267105162467221</v>
+        <v>0.1046808527244218</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08467248844063167</v>
+        <v>0.083150573200932</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03270784975724862</v>
+        <v>0.04281394682044071</v>
       </c>
       <c r="G172" t="n">
+        <v>0.05673708835954339</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0310671089823705</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08547128550139234</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.07710244336007852</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08442008684895184</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1134892888204376</v>
+        <v>0.07082652188233013</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08345979550887797</v>
+        <v>0.0841380024256405</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03270784975724862</v>
+        <v>0.1034957388782385</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08547128550139234</v>
+        <v>0.0839350125707521</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03254110827958873</v>
+        <v>0.04205884692356024</v>
       </c>
       <c r="G173" t="n">
+        <v>0.05673681983107938</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03091407915844135</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08627008256215302</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.07679922804998124</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08520905962324112</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1129145039010017</v>
+        <v>0.07003275394274719</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08423979359774598</v>
+        <v>0.08492433889690817</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03254110827958873</v>
+        <v>0.1020996457716794</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08627008256215302</v>
+        <v>0.08471945194057222</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03247110127523913</v>
+        <v>0.04131633527525838</v>
       </c>
       <c r="G174" t="n">
+        <v>0.05673655130261537</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03046077021294792</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08706887962291369</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.0762786627233501</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08599803239753039</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1116176926163052</v>
+        <v>0.06983581703576097</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08501979168661401</v>
+        <v>0.08571067536817584</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03247110127523913</v>
+        <v>0.1011967910759963</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08706887962291369</v>
+        <v>0.08550389131039232</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03219810282774646</v>
+        <v>0.04058687046899728</v>
       </c>
       <c r="G175" t="n">
+        <v>0.05673628277415135</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03060726197259586</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.08786767668367437</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.07634680615404751</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08678700517181966</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.110599701616795</v>
+        <v>0.06943533401537177</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08579978977548203</v>
+        <v>0.08649701183944351</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03219810282774646</v>
+        <v>0.09929139246244095</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08786767668367437</v>
+        <v>0.08628833068021244</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0319223870206574</v>
+        <v>0.03987091109820828</v>
       </c>
       <c r="G176" t="n">
+        <v>0.05673601424568733</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03035363426409089</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08866647374443505</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.07581267008684589</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08757597794610891</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1103613775529185</v>
+        <v>0.06933092773557983</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08657978786435006</v>
+        <v>0.08728334831071118</v>
       </c>
       <c r="N176" t="n">
-        <v>0.0319223870206574</v>
+        <v>0.09908766760226528</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08866647374443505</v>
+        <v>0.08707277005003256</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03174422793751858</v>
+        <v>0.03916891575641583</v>
       </c>
       <c r="G177" t="n">
+        <v>0.05673574571722331</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0301999669141387</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.08946527080519573</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.07488526626651729</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08836495072039818</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1100035670751228</v>
+        <v>0.06902222105038547</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08735978595321807</v>
+        <v>0.08806968478197884</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03174422793751858</v>
+        <v>0.09758983416672101</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08946527080519573</v>
+        <v>0.08785720941985267</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0316638996618766</v>
+        <v>0.03848134303705068</v>
       </c>
       <c r="G178" t="n">
+        <v>0.05673547718875929</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03014633974944499</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09026406786595641</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.07367360643783397</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08915392349468747</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1092271168338551</v>
+        <v>0.06930883681378897</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08813978404208608</v>
+        <v>0.0888560212532465</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0316638996618766</v>
+        <v>0.09580210982706</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09026406786595641</v>
+        <v>0.08864164878967279</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03148167627727814</v>
+        <v>0.03780865153357502</v>
       </c>
       <c r="G179" t="n">
+        <v>0.05673520866029528</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.02989283259671544</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09106286492671707</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.0729867023455682</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08994289626897674</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1081328734795627</v>
+        <v>0.06859039787979057</v>
       </c>
       <c r="M179" t="n">
-        <v>0.0889197821309541</v>
+        <v>0.08964235772451418</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03148167627727814</v>
+        <v>0.09492871225453414</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09106286492671707</v>
+        <v>0.08942608815949289</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03129783186726981</v>
+        <v>0.03715129983942268</v>
       </c>
       <c r="G180" t="n">
+        <v>0.05673494013183125</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.02953952528265573</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09186166198747775</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.07193356573449231</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09073186904326601</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1066216836626926</v>
+        <v>0.06806652710239064</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08969978021982211</v>
+        <v>0.09042869419578184</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03129783186726981</v>
+        <v>0.09387385912039503</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09186166198747775</v>
+        <v>0.09021052752931301</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03101264051539826</v>
+        <v>0.03650974654811313</v>
       </c>
       <c r="G181" t="n">
+        <v>0.05673467160336724</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.02958649763397156</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.09266045904823843</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.07132320834937844</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09152084181755527</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1059943940336922</v>
+        <v>0.06813684733558933</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09047977830869014</v>
+        <v>0.0912150306670495</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03101264051539826</v>
+        <v>0.0919417680958946</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09266045904823843</v>
+        <v>0.09099496689913311</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03082637630521014</v>
+        <v>0.03588445025307954</v>
       </c>
       <c r="G182" t="n">
+        <v>0.05673440307490323</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.02953382947736861</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09345925610899911</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.07006464193499884</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09230981459184454</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1049518512430086</v>
+        <v>0.06750098143338701</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09125977639755815</v>
+        <v>0.09200136713831719</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03082637630521014</v>
+        <v>0.09173665685228477</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09345925610899911</v>
+        <v>0.09177940626895324</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03053931332025209</v>
+        <v>0.03527586954778412</v>
       </c>
       <c r="G183" t="n">
+        <v>0.05673413454643921</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.02908160063955259</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09425805316975978</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.06876687823612584</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09309878736613381</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1048949019410889</v>
+        <v>0.06755855224978394</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09203977448642618</v>
+        <v>0.09278770360958485</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03053931332025209</v>
+        <v>0.0905627430608173</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09425805316975978</v>
+        <v>0.09256384563877335</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03065172564407072</v>
+        <v>0.03468446302566365</v>
       </c>
       <c r="G184" t="n">
+        <v>0.05673386601797518</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.02892989094722918</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09505685023052046</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.06783892899753152</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09388776014042308</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1038243927783805</v>
+        <v>0.0672091826387804</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0928197725752942</v>
+        <v>0.09357404008085252</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03065172564407072</v>
+        <v>0.0896242443927438</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09505685023052046</v>
+        <v>0.09334828500859346</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03016388736021269</v>
+        <v>0.0341106892802318</v>
       </c>
       <c r="G185" t="n">
+        <v>0.05673359748951117</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.02897878022710407</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09585564729128114</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.06658980596398825</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09467673291471235</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1024411704053304</v>
+        <v>0.06655249545437661</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09359977066416221</v>
+        <v>0.09436037655212019</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03016388736021269</v>
+        <v>0.08862537851931629</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09585564729128114</v>
+        <v>0.09413272437841358</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03007607255222462</v>
+        <v>0.03355500690492461</v>
       </c>
       <c r="G186" t="n">
+        <v>0.05673332896104716</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.02872834830588296</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.0966544443520418</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.06582852088026828</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09546570568900162</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.101746081472386</v>
+        <v>0.06648811355057302</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09437976875303022</v>
+        <v>0.09514671302338785</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03007607255222462</v>
+        <v>0.08707036311178667</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0966544443520418</v>
+        <v>0.09491716374823368</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02998855530365319</v>
+        <v>0.03301787449320426</v>
       </c>
       <c r="G187" t="n">
+        <v>0.05673306043258314</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.02867867501027153</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09745324141280248</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.06466408549114375</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09625467846329089</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1013399726299942</v>
+        <v>0.06591565978136968</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09515976684189824</v>
+        <v>0.09593304949465552</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02998855530365319</v>
+        <v>0.0867634158414064</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09745324141280248</v>
+        <v>0.0957016031180538</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.029701609698045</v>
+        <v>0.03249975063851081</v>
       </c>
       <c r="G188" t="n">
+        <v>0.05673279190411912</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.02852984016697549</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.09825203847356316</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.06330551154138694</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09704365123758016</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1004236905286025</v>
+        <v>0.06583475700076705</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09593976493076627</v>
+        <v>0.09671938596592318</v>
       </c>
       <c r="N188" t="n">
-        <v>0.029701609698045</v>
+        <v>0.08620875437942765</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09825203847356316</v>
+        <v>0.09648604248787392</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0296155098189467</v>
+        <v>0.03200109393435151</v>
       </c>
       <c r="G189" t="n">
+        <v>0.0567325233756551</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.0283819236027005</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09905083553432384</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.06216181077577013</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09783262401186943</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.09929808181865801</v>
+        <v>0.06534502806276529</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09671976301963428</v>
+        <v>0.09750572243719087</v>
       </c>
       <c r="N189" t="n">
-        <v>0.0296155098189467</v>
+        <v>0.08501059639710207</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09905083553432384</v>
+        <v>0.09727048185769403</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0294303487536154</v>
+        <v>0.03152049038419487</v>
       </c>
       <c r="G190" t="n">
+        <v>0.05673225484719108</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.02833500514415226</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.09984963259508452</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.0613419949390655</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.0986215967861587</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.09876399315060785</v>
+        <v>0.06454609582136478</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09749976110850231</v>
+        <v>0.09829205890845853</v>
       </c>
       <c r="N190" t="n">
-        <v>0.0294303487536154</v>
+        <v>0.08387315956568153</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09984963259508452</v>
+        <v>0.09805492122751414</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02934279200492183</v>
+        <v>0.03104716304167987</v>
       </c>
       <c r="G191" t="n">
+        <v>0.05673198631872707</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02808916461803648</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1006484296558452</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.05945507577604539</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.09941056956044796</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.09791157826570779</v>
+        <v>0.06443758313056572</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09827975919737032</v>
+        <v>0.09907839537972619</v>
       </c>
       <c r="N191" t="n">
-        <v>0.02934279200492183</v>
+        <v>0.08320066155641764</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1006484296558452</v>
+        <v>0.09883936059733425</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02895169810717076</v>
+        <v>0.03057969791027806</v>
       </c>
       <c r="G192" t="n">
+        <v>0.05673171779026304</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.02774448185105884</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1014472267166059</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.05881006503148192</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1001995423347372</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.09629379758221107</v>
+        <v>0.06351911284436845</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09905975728623835</v>
+        <v>0.09986473185099387</v>
       </c>
       <c r="N192" t="n">
-        <v>0.02895169810717076</v>
+        <v>0.08279732004056256</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1014472267166059</v>
+        <v>0.09962379996715436</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02875733137659542</v>
+        <v>0.03011855358349236</v>
       </c>
       <c r="G193" t="n">
+        <v>0.05673144926179903</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02770024455250719</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1022460237773665</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.05771597445014739</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1009885151090265</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.09500905437767398</v>
+        <v>0.06328275773109054</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09983975537510636</v>
+        <v>0.1006510683222615</v>
       </c>
       <c r="N193" t="n">
-        <v>0.02875733137659542</v>
+        <v>0.0825450603926679</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1022460237773665</v>
+        <v>0.1004082393369745</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02865995612942908</v>
+        <v>0.02966418865476443</v>
       </c>
       <c r="G194" t="n">
+        <v>0.05673118073333502</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02745554974870208</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1030448208381272</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.05708181577681404</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1017774878833158</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.09366207676201604</v>
+        <v>0.06301952946626083</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1006197534639744</v>
+        <v>0.1014374047935292</v>
       </c>
       <c r="N194" t="n">
-        <v>0.02865995612942908</v>
+        <v>0.08221692349258319</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1030448208381272</v>
+        <v>0.1011926787067946</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02845983668190506</v>
+        <v>0.02921706171755645</v>
       </c>
       <c r="G195" t="n">
+        <v>0.056730912204871</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02741045798215046</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1038436178988879</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.05631660075625414</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1025664606576051</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.09275759284515639</v>
+        <v>0.0624307298713043</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1013997515528424</v>
+        <v>0.1022237412647969</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02845983668190506</v>
+        <v>0.08101155558983197</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1038436178988879</v>
+        <v>0.1019771180766147</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02815723735025659</v>
+        <v>0.02877763136531161</v>
       </c>
       <c r="G196" t="n">
+        <v>0.05673064367640698</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02736503227560033</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1046424149596486</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.05562934113323989</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1033554334318943</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.09200033073701419</v>
+        <v>0.0620176983406624</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1021797496417104</v>
+        <v>0.1030100777360645</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02815723735025659</v>
+        <v>0.08072768012614734</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1046424149596486</v>
+        <v>0.1027615574464348</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02785242245071697</v>
+        <v>0.02834635619153038</v>
       </c>
       <c r="G197" t="n">
+        <v>0.05673037514794296</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02731933565179971</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1054412120204092</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.05442904865254353</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1041444062061836</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.08999501854750891</v>
+        <v>0.06168177426877647</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1029597477305784</v>
+        <v>0.1037964142073322</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02785242245071697</v>
+        <v>0.08026402054326204</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1054412120204092</v>
+        <v>0.1035459968162549</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02784565629951943</v>
+        <v>0.0279236947896556</v>
       </c>
       <c r="G198" t="n">
+        <v>0.05673010661947895</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.02697343113349654</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1062400090811699</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.05422473505893732</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1049333789804728</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.08924638438655963</v>
+        <v>0.06082429705008788</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1037397458194464</v>
+        <v>0.1045827506785999</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02784565629951943</v>
+        <v>0.07941930028290883</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1062400090811699</v>
+        <v>0.104330436186075</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02753720321289731</v>
+        <v>0.02751010575314947</v>
       </c>
       <c r="G199" t="n">
+        <v>0.05672983809101493</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02672738174343885</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1070388061419306</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.05312541209719349</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1057223517547621</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.08815915636408583</v>
+        <v>0.06034660607903805</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1045197439083145</v>
+        <v>0.1053690871498675</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02753720321289731</v>
+        <v>0.07989224278682083</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1070388061419306</v>
+        <v>0.1051148755558952</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02742732750708382</v>
+        <v>0.02710604767545671</v>
       </c>
       <c r="G200" t="n">
+        <v>0.05672956956255091</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02658125050437456</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1078376032026913</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.0533400915120843</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1065113245290514</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.08613806259000667</v>
+        <v>0.05935004075006825</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1052997419971825</v>
+        <v>0.1061554236211352</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02742732750708382</v>
+        <v>0.07968157149673072</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1078376032026913</v>
+        <v>0.1058993149257153</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02711629349831227</v>
+        <v>0.02671197915007477</v>
       </c>
       <c r="G201" t="n">
+        <v>0.05672930103408689</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02643510043905173</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.108636400263452</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.05277778504838188</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1073002973033407</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.0845878311742414</v>
+        <v>0.05933594045762</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1060797400860505</v>
+        <v>0.1069417600924029</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02711629349831227</v>
+        <v>0.0787860098543714</v>
       </c>
       <c r="O201" t="n">
-        <v>0.108636400263452</v>
+        <v>0.1066837542955354</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02700436550281593</v>
+        <v>0.02632835877044797</v>
       </c>
       <c r="G202" t="n">
+        <v>0.05672903250562288</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.02658899457021829</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1094351973242126</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.0526133409654799</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1080892700776299</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.08341319022670929</v>
+        <v>0.05870564459613453</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1068597381749185</v>
+        <v>0.1077280965636706</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02700436550281593</v>
+        <v>0.07880428130147571</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1094351973242126</v>
+        <v>0.1074681936653555</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02669180783682805</v>
+        <v>0.02595564513003845</v>
       </c>
       <c r="G203" t="n">
+        <v>0.05672876397715886</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.02614299592062226</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1102339943849733</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.05276725930059836</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1088782428519192</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.08221886785732968</v>
+        <v>0.05756049256005324</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1076397362637865</v>
+        <v>0.1085144330349382</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02669180783682805</v>
+        <v>0.07773510927977656</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1102339943849733</v>
+        <v>0.1082526330351756</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02647888481658194</v>
+        <v>0.02559429682229294</v>
       </c>
       <c r="G204" t="n">
+        <v>0.05672849544869484</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02609716751301161</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.111032791445734</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.05233470178834332</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1096672156262085</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.08080959217602179</v>
+        <v>0.05670182374381763</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1084197343526546</v>
+        <v>0.1093007695062059</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02647888481658194</v>
+        <v>0.07747721723100681</v>
       </c>
       <c r="O204" t="n">
-        <v>0.111032791445734</v>
+        <v>0.1090370724049957</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02616586075831086</v>
+        <v>0.02524477244070508</v>
       </c>
       <c r="G205" t="n">
+        <v>0.05672822692023082</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02585157237013436</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1118315885064947</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.05181449152238479</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1104561884004977</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.0779900912927049</v>
+        <v>0.05663097754186888</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1091997324415226</v>
+        <v>0.1100871059774736</v>
       </c>
       <c r="N205" t="n">
-        <v>0.02616586075831086</v>
+        <v>0.07682932859689917</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1118315885064947</v>
+        <v>0.1098215117748158</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02605299997824805</v>
+        <v>0.02490753057872105</v>
       </c>
       <c r="G206" t="n">
+        <v>0.05672795839176681</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02590627351473845</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1126303855672553</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.05200545159639247</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.111245161174787</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.07656509331729838</v>
+        <v>0.05594929334864851</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1099797305303906</v>
+        <v>0.1108734424487412</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02605299997824805</v>
+        <v>0.07649016681918669</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1126303855672553</v>
+        <v>0.110605951144636</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02604056679262683</v>
+        <v>0.02458302982980301</v>
       </c>
       <c r="G207" t="n">
+        <v>0.0567276898633028</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02576133396957188</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.113429182628016</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.05170640510403632</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1120341339490763</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.07603932635972127</v>
+        <v>0.05495811055859781</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1107597286192586</v>
+        <v>0.1116597789200089</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02604056679262683</v>
+        <v>0.07625845533960218</v>
       </c>
       <c r="O207" t="n">
-        <v>0.113429182628016</v>
+        <v>0.1113903905144561</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02552882551768045</v>
+        <v>0.02427172878739986</v>
       </c>
       <c r="G208" t="n">
+        <v>0.05672742133483877</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02541681675738267</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1142279796887767</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.05221617513898616</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1128231067233655</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.07431751852989299</v>
+        <v>0.05395876856615825</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1115397267081266</v>
+        <v>0.1124461153912765</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02552882551768045</v>
+        <v>0.07613291759987845</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1142279796887767</v>
+        <v>0.1121748298842762</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02551804046964216</v>
+        <v>0.02397408604500091</v>
       </c>
       <c r="G209" t="n">
+        <v>0.05672715280637475</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02557278490091874</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1150267767495374</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.05153358479491182</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1136120794976548</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.07210439793773288</v>
+        <v>0.05325260676577104</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1123197247969947</v>
+        <v>0.1132324518625442</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02551804046964216</v>
+        <v>0.07571227704174827</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1150267767495374</v>
+        <v>0.1129592692540963</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02510847596474529</v>
+        <v>0.02369056019605448</v>
       </c>
       <c r="G210" t="n">
+        <v>0.05672688427791074</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02512930142292814</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.115825573810298</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.05165745716548323</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1144010522719441</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.07040469269316013</v>
+        <v>0.05294096455187769</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1130997228858627</v>
+        <v>0.1140187883338119</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02510847596474529</v>
+        <v>0.07579525710694474</v>
       </c>
       <c r="O210" t="n">
-        <v>0.115825573810298</v>
+        <v>0.1137437086239164</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02500039631922306</v>
+        <v>0.02342160983402269</v>
       </c>
       <c r="G211" t="n">
+        <v>0.05672661574944673</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02498642934615883</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1166243708710587</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.05198661534437019</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1151900250462334</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.06952313090609402</v>
+        <v>0.05202518131891956</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1138797209747307</v>
+        <v>0.1148051248050796</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02500039631922306</v>
+        <v>0.07488058123720059</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1166243708710587</v>
+        <v>0.1145281479937365</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.0249940658493088</v>
+        <v>0.02316769355235704</v>
       </c>
       <c r="G212" t="n">
+        <v>0.0567263472209827</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.02494423169335878</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1174231679318194</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.05201988242524255</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1159789978205226</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.06746444068645369</v>
+        <v>0.05130659646133795</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1146597190635987</v>
+        <v>0.1155914612763472</v>
       </c>
       <c r="N212" t="n">
-        <v>0.0249940658493088</v>
+        <v>0.07516697287424862</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1174231679318194</v>
+        <v>0.1153125873635566</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02448974887123573</v>
+        <v>0.02292926994454178</v>
       </c>
       <c r="G213" t="n">
+        <v>0.05672607869251869</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.025002771487276</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1182219649925801</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.05195608150177022</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1167679705948119</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.06613335014415872</v>
+        <v>0.05118654937357425</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1154397171524667</v>
+        <v>0.1163777977476149</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02448974887123573</v>
+        <v>0.0742531554598217</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1182219649925801</v>
+        <v>0.1160970267333767</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02428770970123713</v>
+        <v>0.02270679760402775</v>
       </c>
       <c r="G214" t="n">
+        <v>0.05672581016405467</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02486211175065847</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1190207620533407</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.05129403566762308</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1175569433691012</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.06503458738912804</v>
+        <v>0.05006637945006989</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1162197152413347</v>
+        <v>0.1171641342188826</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02428770970123713</v>
+        <v>0.07443785243565276</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1190207620533407</v>
+        <v>0.1168814661031969</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02428821265554629</v>
+        <v>0.02270679760402775</v>
       </c>
       <c r="G215" t="n">
+        <v>0.05672581016405467</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02442231550625419</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1198195591141014</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.05113256801647087</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1183459161433904</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.06367288053128117</v>
+        <v>0.04924742608526625</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1169997133302028</v>
+        <v>0.1179504706901502</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02428821265554629</v>
+        <v>0.0734197872434747</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1198195591141014</v>
+        <v>0.117665905473017</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02419152205039647</v>
+        <v>0.02212694198862039</v>
       </c>
       <c r="G216" t="n">
+        <v>0.05664744829361024</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02448344577681111</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1206183561748621</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.05157050164198354</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1191348889176797</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.06245295768053727</v>
+        <v>0.0489310286736046</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1177797114190708</v>
+        <v>0.1187368071614179</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02419152205039647</v>
+        <v>0.07369768332502025</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1206183561748621</v>
+        <v>0.1184503448428371</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02389790220202098</v>
+        <v>0.02155369915568851</v>
       </c>
       <c r="G217" t="n">
+        <v>0.05656908642316583</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02434556558507724</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1214171532356228</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.05150665963783094</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.119923861691969</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.06177954694681564</v>
+        <v>0.0483185266095264</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1185597095079388</v>
+        <v>0.1195231436326856</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02389790220202098</v>
+        <v>0.07367026412202232</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1214171532356228</v>
+        <v>0.1192347842126572</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02370761742665305</v>
+        <v>0.02098740895716705</v>
       </c>
       <c r="G218" t="n">
+        <v>0.0564907245527214</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02410873795380059</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1222159502963834</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.05143986509768292</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1207128344662582</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.06015737644003555</v>
+        <v>0.046911259287473</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1193397075968068</v>
+        <v>0.1203094801039532</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02370761742665305</v>
+        <v>0.07343625307621388</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1222159502963834</v>
+        <v>0.1200192235824773</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02342093204052596</v>
+        <v>0.02042841124499135</v>
       </c>
       <c r="G219" t="n">
+        <v>0.05641236268227699</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02387302590572911</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1230147473571441</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.05076894111520933</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1215018072405475</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.05939117427011625</v>
+        <v>0.04621056610188573</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1201197056856748</v>
+        <v>0.1210958165752209</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02342093204052596</v>
+        <v>0.0732943736293275</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1230147473571441</v>
+        <v>0.1208036629522974</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02313786757866912</v>
+        <v>0.01987704587109635</v>
       </c>
       <c r="G220" t="n">
+        <v>0.05633400081183255</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02383849246361079</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1238135444179048</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.05119271078408008</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1222907800148368</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.05728566854697709</v>
+        <v>0.04561778644720604</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1208997037745428</v>
+        <v>0.1218821530464886</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02313786757866912</v>
+        <v>0.07194334922309631</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1238135444179048</v>
+        <v>0.1215881023221175</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02305609968253386</v>
+        <v>0.01933365268741728</v>
       </c>
       <c r="G221" t="n">
+        <v>0.05625563894138813</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02360520065019361</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1246123414786655</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.05130999719796492</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.123079752789126</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.05614558738053715</v>
+        <v>0.04493425971787526</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1216797018634109</v>
+        <v>0.1226684895177562</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02305609968253386</v>
+        <v>0.07138190329925315</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1246123414786655</v>
+        <v>0.1223725416919376</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02277499645150088</v>
+        <v>0.01879857154588935</v>
       </c>
       <c r="G222" t="n">
+        <v>0.05617727707094371</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02357321348822559</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1254111385394261</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.05131962345053381</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1238687255634153</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.056375658880716</v>
+        <v>0.04456132530833473</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1224596999522789</v>
+        <v>0.1234548259890239</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02277499645150088</v>
+        <v>0.0721087592995307</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1254111385394261</v>
+        <v>0.1231569810617578</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02259457244535479</v>
+        <v>0.01827214229844756</v>
       </c>
       <c r="G223" t="n">
+        <v>0.05609891520049928</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02364259400045471</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1262099356001868</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.05122041263545651</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1246576983377046</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.0553806111574327</v>
+        <v>0.04390032261302587</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1232396980411469</v>
+        <v>0.1242411624602916</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02259457244535479</v>
+        <v>0.07082264066566191</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1262099356001868</v>
+        <v>0.1239414204315779</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02251484222388025</v>
+        <v>0.01775470479702708</v>
       </c>
       <c r="G224" t="n">
+        <v>0.05602055333005486</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02321340520962893</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1270087326609475</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.05031118784640301</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1254466711119939</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.0537651723206064</v>
+        <v>0.04325259102639009</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1240196961300149</v>
+        <v>0.1250274989315592</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02251484222388025</v>
+        <v>0.07142227083937974</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1270087326609475</v>
+        <v>0.124725859801398</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02223582034686186</v>
+        <v>0.01724659889356317</v>
       </c>
       <c r="G225" t="n">
+        <v>0.05594219145961044</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02338571013849623</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1278075297217082</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.05099077217704309</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1262356438862831</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.05383012087711375</v>
+        <v>0.04261946994286867</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1247996942188829</v>
+        <v>0.1258138354028269</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02223582034686186</v>
+        <v>0.07100637326241693</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1278075297217082</v>
+        <v>0.1255102991712181</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02235752137408424</v>
+        <v>0.01674816443999079</v>
       </c>
       <c r="G226" t="n">
+        <v>0.05586382958916601</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02325957180980463</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1286063267824689</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.0503579887210466</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1270246166605724</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.05331742773115794</v>
+        <v>0.042302298756903</v>
       </c>
       <c r="M226" t="n">
-        <v>0.125579692307751</v>
+        <v>0.1266001718740946</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02235752137408424</v>
+        <v>0.0699736713765064</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1286063267824689</v>
+        <v>0.1262947385410382</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02187995986533203</v>
+        <v>0.01625974128824516</v>
       </c>
       <c r="G227" t="n">
+        <v>0.05578546771872159</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02283505324630211</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1294051238432295</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.05021112440048475</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1278135894348617</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.05140705570170934</v>
+        <v>0.04150241686293452</v>
       </c>
       <c r="M227" t="n">
-        <v>0.126359690396619</v>
+        <v>0.1273865083453622</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02187995986533203</v>
+        <v>0.06972288862338089</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1294051238432295</v>
+        <v>0.1270791779108583</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02170315038038985</v>
+        <v>0.01578166929026147</v>
       </c>
       <c r="G228" t="n">
+        <v>0.05570710584827717</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02281221747073663</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.1302039209039902</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.05004562449035888</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1286025622091509</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.05089978907472903</v>
+        <v>0.04092116365540452</v>
       </c>
       <c r="M228" t="n">
-        <v>0.127139688485487</v>
+        <v>0.1281728448166299</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02170315038038985</v>
+        <v>0.06905274844477344</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1302039209039902</v>
+        <v>0.1278636172806784</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02162710747904233</v>
+        <v>0.01531428829797474</v>
       </c>
       <c r="G229" t="n">
+        <v>0.05562874397783274</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02259112750585622</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1310027179647509</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.0498609817613507</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1293915349834402</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.05089641213617829</v>
+        <v>0.03985987852875442</v>
       </c>
       <c r="M229" t="n">
-        <v>0.127919686574355</v>
+        <v>0.1289591812878976</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02162710747904233</v>
+        <v>0.0683619742824168</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1310027179647509</v>
+        <v>0.1286480566504985</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02135184572107413</v>
+        <v>0.01485793816332023</v>
       </c>
       <c r="G230" t="n">
+        <v>0.05555038210738833</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02257184062617165</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1318015150255116</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.05015755047674389</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1301805077577295</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.05029770917201826</v>
+        <v>0.04001980389023452</v>
       </c>
       <c r="M230" t="n">
-        <v>0.128699684663223</v>
+        <v>0.1297455177591653</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02135184572107413</v>
+        <v>0.06864931132089713</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1318015150255116</v>
+        <v>0.1294324960203187</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02127737966626982</v>
+        <v>0.01441295873823295</v>
       </c>
       <c r="G231" t="n">
+        <v>0.0554720202369439</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02265374733798188</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1326003120862722</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.04933568489982201</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1309694805320187</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.04940446446821001</v>
+        <v>0.03899084170491207</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1294796827520911</v>
+        <v>0.1305318542304329</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02127737966626982</v>
+        <v>0.06791630156012946</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1326003120862722</v>
+        <v>0.1302169353901388</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02100372387441407</v>
+        <v>0.01397968987464809</v>
       </c>
       <c r="G232" t="n">
+        <v>0.05539365836649947</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02253641249942821</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1333991091470329</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.04929573929386857</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.131758453306308</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.04891746231071481</v>
+        <v>0.03856558535498786</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1302596808409591</v>
+        <v>0.1313181907017006</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02100372387441407</v>
+        <v>0.06696478393050326</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1333991091470329</v>
+        <v>0.1310013747599589</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02083089290529147</v>
+        <v>0.01355847142450086</v>
       </c>
       <c r="G233" t="n">
+        <v>0.05531529649605506</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02241984589786546</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1341979062077936</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.04933806792216719</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1325474260805973</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.04723748698549374</v>
+        <v>0.0383440948783563</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1310396789298271</v>
+        <v>0.1321045271729683</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02083089290529147</v>
+        <v>0.06649512086099219</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1341979062077936</v>
+        <v>0.131785814129779</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02095890131868668</v>
+        <v>0.01314964323972626</v>
       </c>
       <c r="G234" t="n">
+        <v>0.05523693462561063</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02220405732064841</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1349967032685543</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.04856302504800145</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1333363988548866</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.04676532277850798</v>
+        <v>0.03772643031291173</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1318196770186951</v>
+        <v>0.1328908636442359</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02095890131868668</v>
+        <v>0.06580767478057009</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1349967032685543</v>
+        <v>0.1325702534995991</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.0204877636743843</v>
+        <v>0.01275354517225951</v>
       </c>
       <c r="G235" t="n">
+        <v>0.0551585727551662</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02208905655513195</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1357955003293149</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.0483709649346549</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1341253716291758</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.04660175397571875</v>
+        <v>0.0374126516965487</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1325996751075632</v>
+        <v>0.1336772001155036</v>
       </c>
       <c r="N235" t="n">
-        <v>0.0204877636743843</v>
+        <v>0.06470280811821066</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1357955003293149</v>
+        <v>0.1333546928694192</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02061749453216898</v>
+        <v>0.01237051707403578</v>
       </c>
       <c r="G236" t="n">
+        <v>0.05508021088472179</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.0218748533886708</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1365942973900756</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.04806224184541114</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1349143444034651</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.04614756486308713</v>
+        <v>0.03670281906716152</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1333796731964312</v>
+        <v>0.1344635365867713</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02061749453216898</v>
+        <v>0.06438088330288766</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1365942973900756</v>
+        <v>0.1341391322392393</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02034810845182534</v>
+        <v>0.01200089879699012</v>
       </c>
       <c r="G237" t="n">
+        <v>0.05500184901427736</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02196145760861987</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1373930944508363</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.04813721004355373</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1357033171777544</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.04570353972657443</v>
+        <v>0.03559699246264467</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1341596712852992</v>
+        <v>0.1352498730580389</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02034810845182534</v>
+        <v>0.06364226276357493</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1373930944508363</v>
+        <v>0.1349235716090595</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.020179619993138</v>
+        <v>0.01164503019305768</v>
       </c>
       <c r="G238" t="n">
+        <v>0.05492348714383293</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02174887900233391</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.138191891511597</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.04779622379236625</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1364922899520436</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.04497046285214162</v>
+        <v>0.03539523192089256</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1349396693741672</v>
+        <v>0.1360362095293066</v>
       </c>
       <c r="N238" t="n">
-        <v>0.020179619993138</v>
+        <v>0.06258730892924613</v>
       </c>
       <c r="O238" t="n">
-        <v>0.138191891511597</v>
+        <v>0.1357080109788796</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0198120437158916</v>
+        <v>0.01130325111417369</v>
       </c>
       <c r="G239" t="n">
+        <v>0.05484512527338851</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02173712735716778</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1389906885723576</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.04673963735513226</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1372812627263329</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.04354911852574994</v>
+        <v>0.0350975974797996</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1357196674630352</v>
+        <v>0.1368225460005743</v>
       </c>
       <c r="N239" t="n">
-        <v>0.0198120437158916</v>
+        <v>0.06201638422887518</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1389906885723576</v>
+        <v>0.1364924503486997</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01974539417987073</v>
+        <v>0.01097451368353802</v>
       </c>
       <c r="G240" t="n">
+        <v>0.05476676340294408</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02152621246047627</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1397894856331183</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.04696780499513534</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1380702355006222</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.0429402910333605</v>
+        <v>0.03470414917726022</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1364996655519032</v>
+        <v>0.1376088824718419</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01974539417987073</v>
+        <v>0.06212985109143571</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1397894856331183</v>
+        <v>0.1372768897185198</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01977968594486007</v>
+        <v>0.01065083138067507</v>
       </c>
       <c r="G241" t="n">
+        <v>0.05468840153249967</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02131614409961419</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.140588282693879</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.04618108097565912</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1388592082749114</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.04234476466093456</v>
+        <v>0.03401494705116881</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1372796636407712</v>
+        <v>0.1383952189431096</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01977968594486007</v>
+        <v>0.06172807194590152</v>
       </c>
       <c r="O241" t="n">
-        <v>0.140588282693879</v>
+        <v>0.1380613290883399</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0196149335706442</v>
+        <v>0.01033115632878476</v>
       </c>
       <c r="G242" t="n">
+        <v>0.05461003966205524</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02120693206193638</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1413870797546397</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.04587981955998707</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1396481810492007</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.0422633236944332</v>
+        <v>0.03323005113941979</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1380596617296393</v>
+        <v>0.1391815554143773</v>
       </c>
       <c r="N242" t="n">
-        <v>0.0196149335706442</v>
+        <v>0.06011140922124641</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1413870797546397</v>
+        <v>0.13884576845816</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01935115161700778</v>
+        <v>0.01001582837980225</v>
       </c>
       <c r="G243" t="n">
+        <v>0.05453167779161081</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02129858613479767</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1421858768154004</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.04566437501140283</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.14043715382349</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.04169675241981763</v>
+        <v>0.03344952147990765</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1388396598185073</v>
+        <v>0.1399678918856449</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01935115161700778</v>
+        <v>0.05948022534644415</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1421858768154004</v>
+        <v>0.1396302078279801</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01908835464373541</v>
+        <v>0.009705187385662735</v>
       </c>
       <c r="G244" t="n">
+        <v>0.0544533159211664</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02109111610555282</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.142984673876161</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.04523510159319</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1412261265977793</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.040445835123049</v>
+        <v>0.03287341811052674</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1396196579073753</v>
+        <v>0.1407542283569126</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01908835464373541</v>
+        <v>0.05863488275046841</v>
       </c>
       <c r="O244" t="n">
-        <v>0.142984673876161</v>
+        <v>0.1404146471978003</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01882655721061179</v>
+        <v>0.009399573198301245</v>
       </c>
       <c r="G245" t="n">
+        <v>0.05437495405072197</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02098453176155669</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1437834709369217</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.04509235356863209</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1420150993720685</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.0408113560900884</v>
+        <v>0.0322018010691715</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1403996559962433</v>
+        <v>0.1415405648281803</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01882655721061179</v>
+        <v>0.05817574386229307</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1437834709369217</v>
+        <v>0.1411990865676204</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01876577387742141</v>
+        <v>0.009099325669652977</v>
       </c>
       <c r="G246" t="n">
+        <v>0.05429659218027755</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02077884289016409</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1445822679976824</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.04383648520101271</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1428040721463578</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.04049409960689709</v>
+        <v>0.03133473039373633</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1411796540851114</v>
+        <v>0.1423269012994479</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01876577387742141</v>
+        <v>0.05770317111089179</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1445822679976824</v>
+        <v>0.1419835259374405</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01850601920394902</v>
+        <v>0.008804784651653116</v>
       </c>
       <c r="G247" t="n">
+        <v>0.05421823030983313</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02077405927872983</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1453810650584431</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.04356785075361547</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1435930449206471</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.03939484995943621</v>
+        <v>0.03137226612211572</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1419596521739794</v>
+        <v>0.1431132377707156</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01850601920394902</v>
+        <v>0.05691752692523838</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1453810650584431</v>
+        <v>0.1427679653072606</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0183473077499792</v>
+        <v>0.008516289996236694</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0541398684393887</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02057019071460872</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1461798621192037</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.04338680448972387</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1443820176949363</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.03951439143366686</v>
+        <v>0.03091446829220396</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1427396502628474</v>
+        <v>0.1438995742419833</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0183473077499792</v>
+        <v>0.05591917373430672</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1461798621192037</v>
+        <v>0.1435524046770807</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01838965407529655</v>
+        <v>0.008234181555338893</v>
       </c>
       <c r="G249" t="n">
+        <v>0.05406150656894428</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02046724698515559</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1469786591799644</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.04279370067262148</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1451709904692256</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.03895350831555028</v>
+        <v>0.0306613969418956</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1435196483517154</v>
+        <v>0.144685910713251</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01838965407529655</v>
+        <v>0.05560847396707036</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1469786591799644</v>
+        <v>0.1443368440469008</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01813307273968574</v>
+        <v>0.007958799180894899</v>
       </c>
       <c r="G250" t="n">
+        <v>0.05398314469849986</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02046523787772525</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1477774562407251</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.04188889356559197</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1459599632435149</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.03851298489104754</v>
+        <v>0.029713112109085</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1442996464405834</v>
+        <v>0.1454722471845186</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01813307273968574</v>
+        <v>0.05478579005250322</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1477774562407251</v>
+        <v>0.1451212834167209</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0180775783029314</v>
+        <v>0.00769048272483977</v>
       </c>
       <c r="G251" t="n">
+        <v>0.05390478282805543</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02026417317967251</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1485762533014857</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.04157273743191886</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1467489360178041</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.03709360544611989</v>
+        <v>0.02896967383166657</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1450796445294514</v>
+        <v>0.1462585836557863</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0180775783029314</v>
+        <v>0.05395148441957909</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1485762533014857</v>
+        <v>0.145905722786541</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01792318532481814</v>
+        <v>0.007429572039108712</v>
       </c>
       <c r="G252" t="n">
+        <v>0.05382642095761101</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02026406267835221</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1493750503622464</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.04144558653488567</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1475379087920934</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.03749615426672848</v>
+        <v>0.02883114214753477</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1458596426183194</v>
+        <v>0.1470449201270539</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01792318532481814</v>
+        <v>0.05240591949727158</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1493750503622464</v>
+        <v>0.1466901621563611</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01786990836513057</v>
+        <v>0.007176406975636783</v>
       </c>
       <c r="G253" t="n">
+        <v>0.05374805908716659</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02026491616111914</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1501738474230071</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.04030779513777605</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1483268815663827</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.03622141563883435</v>
+        <v>0.02889757709458396</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1466396407071875</v>
+        <v>0.1478312565983216</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01786990836513057</v>
+        <v>0.05124945771455464</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1501738474230071</v>
+        <v>0.1474746015261813</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01761776198365332</v>
+        <v>0.006931327386359168</v>
       </c>
       <c r="G254" t="n">
+        <v>0.05366969721672216</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.01986674341532814</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1509726444837678</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.04025971750387358</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.149115854340672</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.03597017384839885</v>
+        <v>0.02826903871070863</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1474196387960555</v>
+        <v>0.1486175930695893</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01761776198365332</v>
+        <v>0.05048246150040187</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1509726444837678</v>
+        <v>0.1482590408960014</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01746676074017105</v>
+        <v>0.006694673123211023</v>
       </c>
       <c r="G255" t="n">
+        <v>0.05359133534627775</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.01996955422833399</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1517714415445285</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.04000170789646179</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1499048271149612</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.03584321318138295</v>
+        <v>0.02764558703380315</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1481996368849235</v>
+        <v>0.149403929540857</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01746676074017105</v>
+        <v>0.04940529328378707</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1517714415445285</v>
+        <v>0.1490434802658215</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01721691919446836</v>
+        <v>0.006466784038127428</v>
       </c>
       <c r="G256" t="n">
+        <v>0.05351297347583332</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.01967335838749154</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1525702386052891</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.0390341205788243</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1506937998892505</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.03574131792374796</v>
+        <v>0.02762728210176194</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1489796349737915</v>
+        <v>0.1501902660121246</v>
       </c>
       <c r="N256" t="n">
-        <v>0.01721691919446836</v>
+        <v>0.04971831549368405</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1525702386052891</v>
+        <v>0.1498279196356416</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01726825190632988</v>
+        <v>0.006247999983043553</v>
       </c>
       <c r="G257" t="n">
+        <v>0.05343461160538889</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.01967816568015557</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1533690356660498</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.03885730981424462</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1514827726635397</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.03626527236145499</v>
+        <v>0.02671418395247943</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1497596330626595</v>
+        <v>0.1509766024833923</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01726825190632988</v>
+        <v>0.04752189055906658</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1533690356660498</v>
+        <v>0.1506123590054617</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01692077343554024</v>
+        <v>0.006038660809894555</v>
       </c>
       <c r="G258" t="n">
+        <v>0.05335624973494447</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.01978398589368094</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1541678327268105</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.03827162986600641</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.152271745437829</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.03511586078046514</v>
+        <v>0.0262063526238501</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1505396311515275</v>
+        <v>0.15176293895466</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01692077343554024</v>
+        <v>0.04781638090890844</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1541678327268105</v>
+        <v>0.1513967983752818</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01667449834188407</v>
+        <v>0.005839106370615528</v>
       </c>
       <c r="G259" t="n">
+        <v>0.05327788786450004</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.01949082881542244</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1549666297875712</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.03737743499739316</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1530607182121183</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.03519386746673964</v>
+        <v>0.02570384815376825</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1513196292403956</v>
+        <v>0.1525492754259276</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01667449834188407</v>
+        <v>0.04590214897218331</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1549666297875712</v>
+        <v>0.1521812377451019</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.016529441185146</v>
+        <v>0.005649676517141634</v>
       </c>
       <c r="G260" t="n">
+        <v>0.05319952599405563</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.01929870423273491</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1557654268483319</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.03667507947168844</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1538496909864076</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.03540007670623974</v>
+        <v>0.02570673058012837</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1520996273292636</v>
+        <v>0.1533356118971953</v>
       </c>
       <c r="N260" t="n">
-        <v>0.016529441185146</v>
+        <v>0.04527955717786503</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1557654268483319</v>
+        <v>0.1529656771149221</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01658561652511063</v>
+        <v>0.005470711101407989</v>
       </c>
       <c r="G261" t="n">
+        <v>0.0531211641236112</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.01920762193297314</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1565642239090925</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.03606491755217592</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1546386637606968</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.03433527278492637</v>
+        <v>0.02491505994082488</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1528796254181316</v>
+        <v>0.154121948368463</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01658561652511063</v>
+        <v>0.04424896795492744</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1565642239090925</v>
+        <v>0.1537501164847422</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01624303892156265</v>
+        <v>0.005302549975349735</v>
       </c>
       <c r="G262" t="n">
+        <v>0.05304280225316677</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.01931759170349193</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1573630209698532</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.03534730350213913</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1554276365349861</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.03440023998876079</v>
+        <v>0.02472889627375219</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1536596235069996</v>
+        <v>0.1549082848397307</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01624303892156265</v>
+        <v>0.04301074373234415</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1573630209698532</v>
+        <v>0.1545345558545623</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01610172293428659</v>
+        <v>0.005145532990902042</v>
       </c>
       <c r="G263" t="n">
+        <v>0.05296444038272236</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.01902862333164615</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1581618180306139</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.03442259158486161</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1562166093092754</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.03429576260370432</v>
+        <v>0.0246482996168047</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1544396215958677</v>
+        <v>0.1556946213109983</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01610172293428659</v>
+        <v>0.04236524693908894</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1581618180306139</v>
+        <v>0.1553189952243824</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01626168312306717</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.05288607851227793</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.01924072660479058</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1589606150913745</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.03419113606362692</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1570055820835647</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.0344226249157179</v>
+        <v>0.02397333000787688</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1552196196847357</v>
+        <v>0.156480957782266</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01626168312306717</v>
+        <v>0.04231284000413565</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1589606150913745</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1561034345942025</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.05287292061754108</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005618059481100009</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.0528731891460051</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006232542467005359</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05287345767446911</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006843405783471194</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05287372620293314</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007450606256172998</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05287399473139715</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.008054100710866097</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05287426325986117</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008653845973279131</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.05287453178832519</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009249798869166596</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05287480031678921</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009841916224205306</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05287506884525323</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01043015486414989</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05287533737371724</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01101447161472902</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05287560590218125</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01159482330169653</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05287587443064528</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01217116675073054</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.05287614295910929</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01274345878758504</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05287641148757331</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01331165623798869</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05287668001603732</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.0138757159276946</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05287694854450135</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01443559468238233</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05287721707296536</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01499124932780516</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05287748560142937</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01554263668969174</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.05287775412989339</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01608971359379446</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05287802265835741</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01663243686579432</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05287829118682143</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01717076333144389</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05287855971528545</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01770464981647183</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05287882824374946</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01823405314662973</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05287909677221349</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01875893014760015</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.0528793653006775</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01927941394007623</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05287963382914151</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01979651911943469</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05287990235760553</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02031037880636777</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05288017088606956</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.0208209498265594</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05288043941453357</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02132818900576067</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05288070794299758</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02183205316970023</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.0528809764714616</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02233249914412844</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05288124499992562</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02282948375473037</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05288151352838964</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02332296382725656</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05288178205685366</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02381289618743565</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05288205058531767</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02429923766101738</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.0528823191137817</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02478194507368806</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05288258764224571</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02526097525119758</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05288285617070972</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02573628501927461</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05288312469917374</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02620783120366822</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05288339322763776</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02667557063006606</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05288366175610178</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02713946012421735</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05288393028456579</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02759945651185074</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.0528841988130298</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02805551661871467</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05288446734149383</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02850759727049808</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05288473586995784</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02895565529294954</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05288500439842186</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0293996475117977</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05288527292688588</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02983953075279032</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0528855414553499</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03027526184161769</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05288580998381392</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03070679760402774</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05288607851227793</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03070679760402775</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.05287292061754108</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03117541511696138</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05295181954491354</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03163961887541378</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.053030718472286</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0320992853416176</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05310961739965845</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03255429097780545</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05318851632703091</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03300451224621009</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05326741525440338</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.033449825609064</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05334631418177584</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0338901075285999</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05342521310914829</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03432523446705044</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05350411203652074</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03475508288664826</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.0535830109638932</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03517952924962599</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05366190989126566</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03559845001821631</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05374080881863812</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03601172165465182</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05381970774601057</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03641922062116526</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05389860667338304</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03682082337998913</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.0539775056007555</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03721640639335615</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05405640452812795</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03760584612349896</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05413530345550041</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.0379890190326502</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05421420238287287</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03836580158304254</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05429310131024532</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03873607023690856</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05437200023761778</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03909970145648096</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05445089916499023</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03945657170399244</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05452979809236271</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03980655744167552</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05460869701973516</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04014953513176289</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05468759594710761</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04048538123648721</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05476649487448007</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04081447666396448</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05484539380185253</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04113972455172757</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05492429272922499</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04146150580789247</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05500319165659744</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.04177969689469187</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.0550820905839699</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04209417427435844</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05516098951134236</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04240481440912469</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05523988843871482</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04271149376122337</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05531878736608728</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04301408879288708</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05539768629345974</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.0433124759663485</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05547658522083219</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04360653174384026</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05555548414820465</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.043896132587595</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0556343830755771</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04418115495984537</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05571328200294956</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04446147532282405</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05579218093032203</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0447369701387636</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05587107985769448</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04500751586989674</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05594997878506694</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04527298897845604</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.0560288777124394</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.0455332659266742</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05610777663981185</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04578822317678388</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05618667556718431</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04603773719101768</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05626557449455677</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04628168443160827</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05634447342192922</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.04651994136078826</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05642337234930168</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.04675238444079038</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05650227127667415</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.04697889013384716</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05658117020404661</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.04719933490219133</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05666006913141906</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.04741359520805549</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05673896805879151</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04027573013870367</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05673896805879151</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.04752150538890219</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05833703935535016</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04762135910260319</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.0599351106519088</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.0477134689117823</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.06153318194846745</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.0477981473790632</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.06313125324502609</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.0478757070670697</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.06472932454158474</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04794646053842551</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06632739583814339</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04801072035575442</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06792546713470203</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04806879908168016</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06952353843126068</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04812100927882647</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.07112160972781932</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.04816766350981712</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.07271968102437795</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04820907433727585</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.07431775232093661</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.04824555432382643</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07591582361749524</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04827741603209258</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.0775138949140539</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04830497202469808</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07911196621061253</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04832853486426666</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.08071003750717118</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04834841711342208</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.08230810880372982</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04836493133478811</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.08390618010028847</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04837839009098849</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08550425139684711</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04838910594464696</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08710232269340576</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04839739145838726</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.0887003939899644</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04840355919483316</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.09029846528652305</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04840792171660843</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.09189653658308169</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04841079158633678</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.09349460787964034</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.048412481366642</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.09509267917619899</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.04841330362014781</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09669075047275763</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.048413570909478</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09828882176931628</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04841165992803131</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09988689306587491</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.04835731529052405</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1014849643624336</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04823216596835464</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1030830356589922</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04804144137873352</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1046811069555509</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04779037093887113</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1062791782521095</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04748418406597792</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1078772495486681</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04712811017726432</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1094753208452268</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04672737868994079</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1110733921417854</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.04628721902121775</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1126714634383441</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.04581286058830566</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1142695347349027</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04530953280841495</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1158676060314614</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04478246509875605</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.11746567732802</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04423688687653944</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1190637486245786</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04367802755897553</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1206618199211373</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04311111656327477</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1222598912176959</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04254138330664757</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1238579625142546</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04197405720630443</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1254560338108132</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04141436767945576</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1270541051073719</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04086754414331201</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1286521764039305</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04033881601508359</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1302502477004892</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03983341271198099</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1318483189970478</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03935656365121462</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1334463902936064</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03891349824999492</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1350444615901651</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03850944592553235</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1366425328867238</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03814031090348421</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1382406041832824</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03777474954962777</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.139838675479841</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03741005533662782</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1414367467763997</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.0370466243722839</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1430348180729583</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03668485276439562</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.144632889369517</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03632513662076252</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1462309606660756</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.0359678720491842</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1478290319626343</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03561345515746024</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.0352622820533902</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1510251745557515</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03491474884477369</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1526232458523102</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03457125163941026</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1542213171488689</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03423218654509949</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1558193884454275</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.03389794966964096</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1574174597419861</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03356893712083424</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1590155310385448</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03324554500647892</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1606136023351034</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03292816943437459</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.162211673631662</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03261720651232076</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1638097449282207</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.0323130523481171</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1654078162247793</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03201610304956314</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.167005887521338</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03172675472445845</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1686039588178966</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03144540348060262</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1702020301144553</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03117244542579521</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1718001014110139</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03090827666783583</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1733981727075726</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03065329331452403</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1749962440041312</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03040789147365941</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1765943153006899</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03017245481217405</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1781923865972485</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02994316145231435</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1797904578938072</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02971687908062481</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1813885291903658</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02949379426575105</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1829866004869244</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02927409357633855</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1845846717834831</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02905796358103292</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1861827430800418</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02884559084847969</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1877808143766004</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02863716194732444</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.189378885673159</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02843286344621269</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1909769569697177</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02823288191379006</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1925750282662763</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02803740391870206</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1941730995628349</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02784661602959423</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1957711708593936</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02766070481511217</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1973692421559523</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02747985684390142</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1989673134525109</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02730425868460752</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2005653847490695</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02713409690587604</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2021634560456282</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02696955807635254</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2037615273421868</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02681082876468259</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2053595986387454</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02665809553951172</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2069576699353041</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.0265115449694855</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2085557412318628</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02637136362324947</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2101538125284214</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02623773806944922</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.21175188382498</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02611085487673027</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2133499551215387</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02599090061373821</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2149480264180973</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08227573013870366</v>
+        <v>0.06092407856241663</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03227573013870366</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01676896805879152</v>
+        <v>0.00909657125291235</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001255867105464964</v>
+        <v>0.002722135268517424</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0005731208894827425</v>
+        <v>0.001627933566684235</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001982239489595014</v>
+        <v>0.003353068959971207</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007987970607606761</v>
+        <v>0.001638712417172113</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005426585841309756</v>
+        <v>0.009948044471082385</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007863364712676682</v>
+        <v>0.001643624614025947</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006926046386658002</v>
+        <v>0.02031881233145155</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007844393698201131</v>
+        <v>0.001634527953185513</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002499409952496007</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001146241778965485</v>
+        <v>0.00303219041763745</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004005023616197992</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001597594121521352</v>
+        <v>0.003747187499999996</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01044980517334887</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001572672942535336</v>
+        <v>0.004073029891304345</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01489013593601313</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001568878739640226</v>
+        <v>0.003469618055555553</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00373086893089964</v>
+        <v>0.007997794512674315</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001719362668448228</v>
+        <v>0.004883800700052706</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.005939403489528448</v>
+        <v>0.009469975369217253</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002396391182282029</v>
+        <v>0.004916137251516339</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01535357589547506</v>
+        <v>0.02541180470443472</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002359009413803004</v>
+        <v>0.004930873842077843</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02100000000000002</v>
+        <v>0.04459892430557383</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002208868421052634</v>
+        <v>0.00490358385955654</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004950484430482412</v>
+        <v>0.007300067150506781</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.00229248355793097</v>
+        <v>0.006511734266736941</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.007656430219305836</v>
+        <v>0.0122158475856476</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003195188243042704</v>
+        <v>0.006554849668688452</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01882181590704593</v>
+        <v>0.02975389458740385</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003145345885070673</v>
+        <v>0.006574498456103789</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02604820871880381</v>
+        <v>0.05245271074967767</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003137757479280452</v>
+        <v>0.006538111812742053</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.01212876167054981</v>
+        <v>0.00303219041763745</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006158496841050826</v>
+        <v>0.008362320836128138</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002865604447413713</v>
+        <v>0.008139667833421177</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.00952715491524965</v>
+        <v>0.01497539364142729</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00399398530380338</v>
+        <v>0.008193562085860565</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02299999999999996</v>
+        <v>0.03403740590058268</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003948926116838482</v>
+        <v>0.008218123070129736</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03201111999430084</v>
+        <v>0.05875851996453385</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003922196849100565</v>
+        <v>0.008172639765927567</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007355146552411436</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.003438725336896455</v>
+        <v>0.00909657125291235</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01072262868707937</v>
+        <v>0.01741482433235858</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004792782364564058</v>
+        <v>0.009832274503032678</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02550912686632503</v>
+        <v>0.03731193310340541</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004718018827606009</v>
+        <v>0.009861747684155686</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0359851952048445</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004706636218920679</v>
+        <v>0.01040885416666666</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.008540673954370755</v>
+        <v>0.01022070025000303</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004011846226379198</v>
+        <v>0.01139553496678965</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01211390264451449</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005591579425324733</v>
+        <v>0.01124156249999999</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02753598546780517</v>
+        <v>0.04264890762500126</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005504355298873677</v>
+        <v>0.01221908967391304</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03968231592246646</v>
+        <v>0.06896367019722088</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005491075588740792</v>
+        <v>0.01144169567229859</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009715319436735308</v>
+        <v>0.01110504975148213</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.00458496711586194</v>
+        <v>0.01302346853347388</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01317202789727449</v>
+        <v>0.02086350816246879</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006390376486085409</v>
+        <v>0.0131096993373769</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02954604616594431</v>
+        <v>0.04401396415053491</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006290691770141346</v>
+        <v>0.01314899691220758</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04481436371919872</v>
+        <v>0.0743080608820873</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006275514958560905</v>
+        <v>0.01307622362548411</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01087932338931162</v>
+        <v>0.01195609301505563</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.005158088005344683</v>
+        <v>0.01465140210015812</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.014</v>
+        <v>0.02225912877534177</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006994749999999998</v>
+        <v>0.01474841175454902</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03196614367093037</v>
+        <v>0.04712068117767329</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007077028241409014</v>
+        <v>0.01479262152623353</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04809322016707318</v>
+        <v>0.07997432598771981</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007059954328381018</v>
+        <v>0.01471075157866962</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01203292620190623</v>
+        <v>0.01276919295666857</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.005731208894827425</v>
+        <v>0.01627933566684235</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01482666063981099</v>
+        <v>0.02378592478987367</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007987970607606761</v>
+        <v>0.01638712417172113</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03342311269295142</v>
+        <v>0.05031199339461759</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007863364712676683</v>
+        <v>0.01643624614025947</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05163076683812168</v>
+        <v>0.0843191073043742</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00784439369820113</v>
+        <v>0.01634527953185513</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01317636826432566</v>
+        <v>0.01353971249226597</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.006304329784310168</v>
+        <v>0.01790726923352659</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01529482843985334</v>
+        <v>0.02543751504478077</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008786767668367437</v>
+        <v>0.01802583658889324</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0357437879421954</v>
+        <v>0.05405465150248817</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00864970118394435</v>
+        <v>0.01807987075428542</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05443888530437607</v>
+        <v>0.0887990466223062</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008628833068021244</v>
+        <v>0.01797980748504065</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01430988996637644</v>
+        <v>0.01626301453779284</v>
       </c>
       <c r="G77" t="n">
-        <v>0.006877450673792911</v>
+        <v>0.01953520280021082</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01589283110439056</v>
+        <v>0.02680751837877937</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009585564729128115</v>
+        <v>0.01966454900606536</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03745500412885033</v>
+        <v>0.05741540620240543</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009436037655212018</v>
+        <v>0.01972349536831137</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05852945713786817</v>
+        <v>0.09417078573177151</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009413272437841357</v>
+        <v>0.01961433543822616</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01543373169786509</v>
+        <v>0.01493446200919421</v>
       </c>
       <c r="G78" t="n">
-        <v>0.007450571563275654</v>
+        <v>0.02116313636689506</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01603548630640153</v>
+        <v>0.02798955363058576</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01038436178988879</v>
+        <v>0.02130326142323747</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03848359596310422</v>
+        <v>0.06026100819548968</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01022237412647969</v>
+        <v>0.02136711998233732</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06101436391062987</v>
+        <v>0.09799096642302602</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01019771180766147</v>
+        <v>0.02124886339141167</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01654813384859814</v>
+        <v>0.01754941782241511</v>
       </c>
       <c r="G79" t="n">
-        <v>0.008023692452758396</v>
+        <v>0.02279106993357929</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01653761171886518</v>
+        <v>0.02907723963891629</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01118315885064947</v>
+        <v>0.02294197384040958</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04005639815514508</v>
+        <v>0.06315820818286136</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01100871059774735</v>
+        <v>0.02301074459636326</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06400548719469323</v>
+        <v>0.1025162304863254</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01098215117748158</v>
+        <v>0.02288339134459719</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01765333680838213</v>
+        <v>0.01610324489340055</v>
       </c>
       <c r="G80" t="n">
-        <v>0.008596813342241138</v>
+        <v>0.02441900350026353</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01711402501476046</v>
+        <v>0.03036419524248717</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01198195591141014</v>
+        <v>0.02458068625758169</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04140024541516091</v>
+        <v>0.06547375686564078</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01179504706901502</v>
+        <v>0.02465436921038921</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.1065032197119254</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01161043032428855</v>
+        <v>0.0245179192977827</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01874958096702357</v>
+        <v>0.01659130613809557</v>
       </c>
       <c r="G81" t="n">
-        <v>0.009169934231723881</v>
+        <v>0.02604693706694776</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01727954386706623</v>
+        <v>0.03134403928001474</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01278075297217082</v>
+        <v>0.02621939867475381</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04264890762500126</v>
+        <v>0.0684744049449483</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01220415834601447</v>
+        <v>0.02629799382441516</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06867314787992729</v>
+        <v>0.1099085758900818</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01255102991712181</v>
+        <v>0.02615244725096821</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01983710671432899</v>
+        <v>0.01800896447244516</v>
       </c>
       <c r="G82" t="n">
-        <v>0.009743055121206623</v>
+        <v>0.027674870633632</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01754898594876146</v>
+        <v>0.03211039059021531</v>
       </c>
       <c r="K82" t="n">
-        <v>0.0135795500329315</v>
+        <v>0.02785811109192592</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04449836889259823</v>
+        <v>0.07022690312190435</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01336772001155036</v>
+        <v>0.02794161843844111</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07062406503006008</v>
+        <v>0.1122889408110504</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01333546928694192</v>
+        <v>0.02778697520415373</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02091615444010493</v>
+        <v>0.01835158281239438</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01031617601068937</v>
+        <v>0.02930280420031623</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01793716893282504</v>
+        <v>0.03295686801180513</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01437834709369217</v>
+        <v>0.02949682350909803</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04596792904310246</v>
+        <v>0.07209800209762929</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01415405648281803</v>
+        <v>0.02958524305246706</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07286788493858559</v>
+        <v>0.1157009562650869</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01411990865676204</v>
+        <v>0.02942150315733924</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02198696453415792</v>
+        <v>0.01862386209558908</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01088929690017211</v>
+        <v>0.03093073776700047</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01845891049223587</v>
+        <v>0.03337709038350054</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01517714415445285</v>
+        <v>0.03113553592627015</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04704803219163139</v>
+        <v>0.07385445257324341</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0149403929540857</v>
+        <v>0.031228867666493</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07560164790411633</v>
+        <v>0.1170012640424469</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01490434802658215</v>
+        <v>0.03105603111052475</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02304977738629445</v>
+        <v>0.01987986188453253</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01146241778965485</v>
+        <v>0.03255867133368471</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.03397063321746087</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01587865753343358</v>
+        <v>0.03277424834344226</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04923598066796903</v>
+        <v>0.07566300524986716</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01572672942535337</v>
+        <v>0.03287249228051894</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07842239422526492</v>
+        <v>0.1193041327847744</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01568878739640226</v>
+        <v>0.03269055906371027</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02427573013870366</v>
+        <v>0.01912764102732105</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01212876167054981</v>
+        <v>0.03418660490036893</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01944418430587092</v>
+        <v>0.03442276445364764</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0167747382759742</v>
+        <v>0.03441296076061438</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0507290768018992</v>
+        <v>0.07610095405797138</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01651306589662103</v>
+        <v>0.0345161168945449</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0813271642006439</v>
+        <v>0.1200496256572995</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01647322676622238</v>
+        <v>0.03432508701689578</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02516670431818731</v>
+        <v>0.01836551875117183</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01260865956862034</v>
+        <v>0.03581453846705317</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02019526363445508</v>
+        <v>0.03486088623391423</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01757353533673487</v>
+        <v>0.03605167317778649</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05192462292320579</v>
+        <v>0.07770134737484169</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0172994023678887</v>
+        <v>0.03615974150857084</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08371299812886573</v>
+        <v>0.1213420091425941</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01725766613604249</v>
+        <v>0.03595961497008129</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02625016277797795</v>
+        <v>0.01959181428330207</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01318178045810308</v>
+        <v>0.03744247203373741</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02077899257845132</v>
+        <v>0.03518200599553201</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01837233239749555</v>
+        <v>0.0376903855949586</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05301992136167274</v>
+        <v>0.07856705830443264</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01808573883915637</v>
+        <v>0.03780336612259679</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08607693630854296</v>
+        <v>0.1238709689294837</v>
       </c>
       <c r="O88" t="n">
-        <v>0.0180421055058626</v>
+        <v>0.03759414292326681</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02733568341935441</v>
+        <v>0.01980484685092894</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01375490134758582</v>
+        <v>0.03907040560042165</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02109226712026413</v>
+        <v>0.0357831311757722</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01917112945825623</v>
+        <v>0.03932909801213071</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05481227444708392</v>
+        <v>0.07969133333003048</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01887207531042404</v>
+        <v>0.03944699073662274</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08841601903828827</v>
+        <v>0.1248261907067942</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01882654487568271</v>
+        <v>0.03922867087645232</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02840311015485662</v>
+        <v>0.01900293568126965</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01432802223706856</v>
+        <v>0.04069833916710588</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0217319832422979</v>
+        <v>0.03596126921190622</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0199699265190169</v>
+        <v>0.04096781042930282</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05629898450922319</v>
+        <v>0.08006741893492159</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01965841178169171</v>
+        <v>0.04109061535064868</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08952728661671405</v>
+        <v>0.1261973601633515</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01961098424550283</v>
+        <v>0.04086319882963783</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02943228689702455</v>
+        <v>0.02018440000154137</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01490114312655131</v>
+        <v>0.04232627273379012</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02259503692695711</v>
+        <v>0.03661342754120533</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02076872357977758</v>
+        <v>0.04260652284647494</v>
       </c>
       <c r="L91" t="n">
-        <v>0.05817735387787454</v>
+        <v>0.08068856160239232</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02044474825295937</v>
+        <v>0.04273423996467463</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09250777934243287</v>
+        <v>0.1276741629879814</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02039542361532294</v>
+        <v>0.04249772678282335</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03040305755839816</v>
+        <v>0.0193475590389613</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01547426401603405</v>
+        <v>0.04395420630047436</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02307832415664618</v>
+        <v>0.03673661360094084</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02156752064053825</v>
+        <v>0.04424523526364705</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05904468488282175</v>
+        <v>0.08184800781572901</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02123108472422704</v>
+        <v>0.04437786457870058</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09445453751405736</v>
+        <v>0.1286462848695098</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02117986298514305</v>
+        <v>0.04413225473600886</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0312952660515174</v>
+        <v>0.02049073202074662</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01604738490551679</v>
+        <v>0.04558213986715859</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02387874091376953</v>
+        <v>0.03692783482838412</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02236631770129893</v>
+        <v>0.04588394768081917</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06049827985384876</v>
+        <v>0.08243900405821805</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02201742119549471</v>
+        <v>0.04602148919272653</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09696460143020003</v>
+        <v>0.1288034114967624</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02196430235496317</v>
+        <v>0.04576678268919437</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03227573013870366</v>
+        <v>0.02061223817411453</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01676896805879152</v>
+        <v>0.04721007343384282</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02469318318073165</v>
+        <v>0.0374840986608064</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02316511476205961</v>
+        <v>0.04752266009799128</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06173544112073939</v>
+        <v>0.08275479681314579</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02280375766676238</v>
+        <v>0.04766511380675248</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09863501138947334</v>
+        <v>0.1305352285585653</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02274874172478328</v>
+        <v>0.04740131064237989</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03279596151979598</v>
+        <v>0.01971039672628222</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01719362668448228</v>
+        <v>0.04883800700052706</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02541854693993693</v>
+        <v>0.03740241253547907</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02396391182282029</v>
+        <v>0.04916137251516339</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06375347101327766</v>
+        <v>0.08348863256379851</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02359009413803005</v>
+        <v>0.04930873842077842</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1014628076904899</v>
+        <v>0.1310314217437439</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02353318109460339</v>
+        <v>0.0490358385955654</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03348821529074697</v>
+        <v>0.02178352690446687</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01776674757396502</v>
+        <v>0.05046594056721129</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02605172817378984</v>
+        <v>0.0375797838896734</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02476270888358096</v>
+        <v>0.0508000849323355</v>
       </c>
       <c r="L96" t="n">
-        <v>0.0653496718612474</v>
+        <v>0.08373375779346262</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02437643060929772</v>
+        <v>0.05095236303480437</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1031450306318622</v>
+        <v>0.1305816767411244</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02431762046442351</v>
+        <v>0.05067036654875091</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0341676345072775</v>
+        <v>0.02184815712483326</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01833986846344776</v>
+        <v>0.05209387413389552</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02688962286469483</v>
+        <v>0.03791322016066072</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02556150594434163</v>
+        <v>0.05243879734950761</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06652134599443246</v>
+        <v>0.08488341898542451</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02516276708056538</v>
+        <v>0.05259598764883031</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1054787205122028</v>
+        <v>0.1321756792395325</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02510205983424362</v>
+        <v>0.05230489450193643</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03483255977754086</v>
+        <v>0.01984797904775581</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0189129893529305</v>
+        <v>0.05372180770057976</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02772912699505629</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02636030300510231</v>
+        <v>0.05407750976667972</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06736579574261681</v>
+        <v>0.08503086262297044</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02594910355183305</v>
+        <v>0.05423961226285626</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1068609176301242</v>
+        <v>0.1324582493839274</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02588649920406373</v>
+        <v>0.05393942245512194</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03548133170969033</v>
+        <v>0.02084237066994111</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01948611024241325</v>
+        <v>0.055349741267264</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02836713654727871</v>
+        <v>0.0380363172020996</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02715910006586299</v>
+        <v>0.05571622218385184</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06898032343558427</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02673544002310071</v>
+        <v>0.05588323687688222</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1091886622842391</v>
+        <v>0.131256023792509</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02667093857388385</v>
+        <v>0.05557395040830746</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03611229091187917</v>
+        <v>0.02182263337791419</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02005923113189599</v>
+        <v>0.05697767483394824</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0289005475037665</v>
+        <v>0.0379291185230006</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02795789712662367</v>
+        <v>0.05735493460102395</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07006223140311885</v>
+        <v>0.08489503912212942</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02752177649436839</v>
+        <v>0.05752686149090815</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1106589947731599</v>
+        <v>0.1316922241620501</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02745537794370396</v>
+        <v>0.05720847836149296</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03672377799226068</v>
+        <v>0.02178974341809742</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02063235202137873</v>
+        <v>0.05860560840063247</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02972625584692409</v>
+        <v>0.03799641621939702</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02875669418738434</v>
+        <v>0.05899364701819607</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07140882197500428</v>
+        <v>0.08514868506306605</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02830811296563606</v>
+        <v>0.05917048610493411</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1129689553954991</v>
+        <v>0.1322444402000116</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02823981731352407</v>
+        <v>0.05884300631467848</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03731413355898813</v>
+        <v>0.02174458660621812</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02120547291086147</v>
+        <v>0.0602335419673167</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03034115755915597</v>
+        <v>0.03774032586816213</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02955549124814501</v>
+        <v>0.06063235943536818</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07281739748102453</v>
+        <v>0.0850479734708646</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02909444943690372</v>
+        <v>0.06081411071896006</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1146155844498694</v>
+        <v>0.1319181078458307</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02902425668334419</v>
+        <v>0.06047753426786399</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0378816982202148</v>
+        <v>0.02068804875800365</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02177859380034422</v>
+        <v>0.06186147553400094</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03124214862286652</v>
+        <v>0.03766242463615467</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0303542883089057</v>
+        <v>0.06227107185254029</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07428526025096349</v>
+        <v>0.08499646364359376</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0298807859081714</v>
+        <v>0.06245773533298599</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1168959222348832</v>
+        <v>0.1305186630389442</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0298086960531643</v>
+        <v>0.06211206222104951</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03842481258409393</v>
+        <v>0.01962101568918134</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02235171468982696</v>
+        <v>0.06348940910068518</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03182612502046021</v>
+        <v>0.03776428969023336</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03115308536966637</v>
+        <v>0.0639097842697124</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07500971261460504</v>
+        <v>0.08399771487932228</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03066712237943906</v>
+        <v>0.06410135994701195</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1178070090491531</v>
+        <v>0.1306515417187892</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03059313542298441</v>
+        <v>0.06374659017423502</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03894181725877886</v>
+        <v>0.02054437321547853</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0229248355793097</v>
+        <v>0.06511734266736942</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0323899827343415</v>
+        <v>0.03744749819725698</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03195188243042704</v>
+        <v>0.06554849668688452</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0757880569017331</v>
+        <v>0.08375528647611891</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03145345885070673</v>
+        <v>0.06574498456103789</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1198458851912917</v>
+        <v>0.1304221798248028</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03137757479280452</v>
+        <v>0.06538111812742053</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03943105285242283</v>
+        <v>0.02045900715262257</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02349795646879245</v>
+        <v>0.06674527623405364</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03303061774691482</v>
+        <v>0.03761362732408424</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03275067949118773</v>
+        <v>0.06718720910405664</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07731759544213157</v>
+        <v>0.08417273773205231</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03223979532197439</v>
+        <v>0.06738860917506384</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1206095909599114</v>
+        <v>0.1304360132964218</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03216201416262463</v>
+        <v>0.06701564608060605</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03989085997317914</v>
+        <v>0.0203658033163408</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02407107735827519</v>
+        <v>0.06837320980073787</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03394492604058455</v>
+        <v>0.03746425423757392</v>
       </c>
       <c r="K107" t="n">
-        <v>0.0335494765519484</v>
+        <v>0.06882592152122875</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07779563056558431</v>
+        <v>0.08385362794519124</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03302613179324206</v>
+        <v>0.06903223378908979</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1226951666536248</v>
+        <v>0.1297984780730835</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03294645353244476</v>
+        <v>0.06865017403379156</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04031957922920106</v>
+        <v>0.02026564752236056</v>
       </c>
       <c r="G108" t="n">
-        <v>0.02464419824775793</v>
+        <v>0.07000114336742211</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03422980359775521</v>
+        <v>0.03730095610458471</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03434827361270907</v>
+        <v>0.07046463393840086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07921946460187518</v>
+        <v>0.08310151641360439</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03381246826450973</v>
+        <v>0.07067585840311573</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1232996525710445</v>
+        <v>0.1290150100942248</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03373089290226487</v>
+        <v>0.07028470198697707</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04071555122864184</v>
+        <v>0.01915942558640917</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02521731913724067</v>
+        <v>0.07162907693410635</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03488214640083118</v>
+        <v>0.03712531009197539</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03514707067346975</v>
+        <v>0.07210334635557297</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07988639988078816</v>
+        <v>0.08291996243536046</v>
       </c>
       <c r="M109" t="n">
-        <v>0.0345988047357774</v>
+        <v>0.07231948301714168</v>
       </c>
       <c r="N109" t="n">
-        <v>0.125420089010783</v>
+        <v>0.1275910452992829</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03451533227208498</v>
+        <v>0.07191922994016259</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04107711657965479</v>
+        <v>0.02004802332421401</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02579044002672342</v>
+        <v>0.07325701050079059</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03549885043221693</v>
+        <v>0.03693889336660471</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03594586773423043</v>
+        <v>0.07374205877274508</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08049373873210708</v>
+        <v>0.08211252530852822</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03538514120704507</v>
+        <v>0.07396310763116763</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1262535162714528</v>
+        <v>0.1277320196276945</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03529977164190509</v>
+        <v>0.0735537578933481</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04140261589039319</v>
+        <v>0.01993232655150239</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02636356091620616</v>
+        <v>0.07488494406747483</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03577681167431691</v>
+        <v>0.03644328309533136</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0367446647949911</v>
+        <v>0.07538077118991719</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08103878348561583</v>
+        <v>0.08158276433117637</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03617147767831274</v>
+        <v>0.07560673224519358</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1262969746516666</v>
+        <v>0.126443369018897</v>
       </c>
       <c r="O111" t="n">
-        <v>0.0360842110117252</v>
+        <v>0.07518828584653361</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04169038976901032</v>
+        <v>0.01881322108400166</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0269366818056889</v>
+        <v>0.07651287763415907</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03651292610953553</v>
+        <v>0.0363400564450141</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03754346185575178</v>
+        <v>0.07701948360708931</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08231883647109828</v>
+        <v>0.08123423880137359</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03695781414958041</v>
+        <v>0.07725035685921952</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1273475044500367</v>
+        <v>0.1255305294123271</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03686865038154532</v>
+        <v>0.07682281379971913</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04193877882365943</v>
+        <v>0.01869159273743917</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02750980269517164</v>
+        <v>0.07814081120084329</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03680408972027724</v>
+        <v>0.03633079058251172</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03834225891651246</v>
+        <v>0.07865819602426143</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08253120001833841</v>
+        <v>0.08137050801718865</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03774415062084807</v>
+        <v>0.07889398147324549</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1291021459651757</v>
+        <v>0.1251989367474221</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03765308975136543</v>
+        <v>0.07845734175290464</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04216202441237438</v>
+        <v>0.01856832732754225</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02808292358465439</v>
+        <v>0.07976874476752753</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03694719848894651</v>
+        <v>0.03591706267468291</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03914105597727313</v>
+        <v>0.08029690844143353</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08317317645712002</v>
+        <v>0.08059513127669019</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03853048709211574</v>
+        <v>0.08053760608727142</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1291579394956963</v>
+        <v>0.1250540269636187</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03843752912118554</v>
+        <v>0.08009186970609015</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04238235549366705</v>
+        <v>0.01844431067003825</v>
       </c>
       <c r="G115" t="n">
-        <v>0.02865604447413712</v>
+        <v>0.08139667833421176</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03743914839794774</v>
+        <v>0.03590044988838642</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0399398530380338</v>
+        <v>0.08193562085860565</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08334206811722705</v>
+        <v>0.08041166787794701</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03931682356338341</v>
+        <v>0.08218123070129736</v>
       </c>
       <c r="N115" t="n">
-        <v>0.130111925340211</v>
+        <v>0.1235012360003542</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03922196849100566</v>
+        <v>0.08172639765927567</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04259988558392498</v>
+        <v>0.0193204285806545</v>
       </c>
       <c r="G116" t="n">
-        <v>0.02922916536361987</v>
+        <v>0.08302461190089599</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03767683542968536</v>
+        <v>0.03548252939048099</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04073865009879448</v>
+        <v>0.08357433327577776</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08423517732844343</v>
+        <v>0.07952367711902777</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04010316003465108</v>
+        <v>0.08382485531532331</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1312611437973322</v>
+        <v>0.1234459997970657</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04000640786082577</v>
+        <v>0.08336092561246118</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0428145466336966</v>
+        <v>0.02019756687511835</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02980228625310262</v>
+        <v>0.08465254546758023</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03785715556656385</v>
+        <v>0.03546487834782537</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04153744715955516</v>
+        <v>0.08521304569294988</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08474980642055296</v>
+        <v>0.07903471829800121</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04088949650591875</v>
+        <v>0.08546847992934926</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1306026351656724</v>
+        <v>0.1220937542931899</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04079084723064588</v>
+        <v>0.08499545356564669</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04302627059353027</v>
+        <v>0.01907308615927397</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03037540714258535</v>
+        <v>0.08628047903426447</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03787700479098763</v>
+        <v>0.03524907392727832</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04233624422031584</v>
+        <v>0.08685175811012198</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08498325772333959</v>
+        <v>0.07884835071293603</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04167583297718641</v>
+        <v>0.08711210454337522</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1311334397438444</v>
+        <v>0.1212499354281641</v>
       </c>
       <c r="O118" t="n">
-        <v>0.041575286600466</v>
+        <v>0.08662998151883221</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04323498941397443</v>
+        <v>0.01893187213565061</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0309485280320681</v>
+        <v>0.08790841260094871</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.03472963858141868</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04313504128107651</v>
+        <v>0.0884904705272941</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08529781525000252</v>
+        <v>0.0783669675311264</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04246216944845409</v>
+        <v>0.08875572915740115</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1315505978304606</v>
+        <v>0.1206562475636451</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04235972597028611</v>
+        <v>0.08826450947201772</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04344063504557744</v>
+        <v>0.01877456141080372</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03152164892155084</v>
+        <v>0.08953634616763294</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03783461320204463</v>
+        <v>0.03468018315010346</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04393383834183719</v>
+        <v>0.09012918294446622</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08519583628007965</v>
+        <v>0.07723837978930123</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04324850591972176</v>
+        <v>0.0903993537714271</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1324582493839274</v>
+        <v>0.1204538883283022</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04314416534010622</v>
+        <v>0.08989903742520323</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04364313943888772</v>
+        <v>0.01760404007825914</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03209476981103358</v>
+        <v>0.09116427973431718</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03781981060745492</v>
+        <v>0.03430249418922461</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04473263540259786</v>
+        <v>0.09176789536163833</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08478921729636743</v>
+        <v>0.07664127521253797</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04403484239098942</v>
+        <v>0.09204297838545306</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1321511585842302</v>
+        <v>0.1181604980004345</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04392860470992634</v>
+        <v>0.09153356537838875</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04384243454445362</v>
+        <v>0.01942319423154272</v>
       </c>
       <c r="G122" t="n">
-        <v>0.03266789070051632</v>
+        <v>0.0927922133010014</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03809267094523149</v>
+        <v>0.0342017102969349</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04553143246335854</v>
+        <v>0.09340660777881045</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08475424260857287</v>
+        <v>0.07628725041940596</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04482117886225709</v>
+        <v>0.09368660299947899</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1315135362794613</v>
+        <v>0.1180937875205142</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04471304407974645</v>
+        <v>0.09316809333157426</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04403845231282359</v>
+        <v>0.01823490996418034</v>
       </c>
       <c r="G123" t="n">
-        <v>0.03324101158999906</v>
+        <v>0.09442014686768564</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03805369671570372</v>
+        <v>0.03388297007138713</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04633022952411921</v>
+        <v>0.09504532019598255</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08449335396559188</v>
+        <v>0.07588790202847456</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04560751533352475</v>
+        <v>0.09533022761350496</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1319443892704967</v>
+        <v>0.1166714678290134</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04549748344956656</v>
+        <v>0.09480262128475977</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04423112469454601</v>
+        <v>0.01804207336969783</v>
       </c>
       <c r="G124" t="n">
-        <v>0.03381413247948181</v>
+        <v>0.09604808043436988</v>
       </c>
       <c r="J124" t="n">
-        <v>0.037903390419201</v>
+        <v>0.03345141211073401</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04712902658487989</v>
+        <v>0.09668403261315466</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08470763049583516</v>
+        <v>0.07455482665831317</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04639385180479243</v>
+        <v>0.0969738522275309</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1314446870700477</v>
+        <v>0.1161112498664039</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04628192281938667</v>
+        <v>0.09643714923794529</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04442038364016929</v>
+        <v>0.0178475705416211</v>
       </c>
       <c r="G125" t="n">
-        <v>0.03438725336896455</v>
+        <v>0.09767601400105412</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03794225455605278</v>
+        <v>0.03291217501312838</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04792782364564057</v>
+        <v>0.09832274503032677</v>
       </c>
       <c r="L125" t="n">
-        <v>0.0844981513277136</v>
+        <v>0.07389962092749119</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0471801882760601</v>
+        <v>0.09861747684155683</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1313153991908259</v>
+        <v>0.1141308445731581</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04706636218920679</v>
+        <v>0.0980716771911308</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04460616110024181</v>
+        <v>0.01665428757347595</v>
       </c>
       <c r="G126" t="n">
-        <v>0.03496037425844729</v>
+        <v>0.09930394756773835</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03767079162658843</v>
+        <v>0.03277039737672295</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04872662070640124</v>
+        <v>0.09996145744749889</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0842659955896379</v>
+        <v>0.07383388145457795</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04796652474732776</v>
+        <v>0.1002611014555828</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1313574951455425</v>
+        <v>0.1126479628897479</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0478508015590269</v>
+        <v>0.09970620514431631</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04478838902531199</v>
+        <v>0.01846511055878826</v>
       </c>
       <c r="G127" t="n">
-        <v>0.03553349514793004</v>
+        <v>0.1009318811344226</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03768950413113735</v>
+        <v>0.03253121779967054</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04952541776716192</v>
+        <v>0.101600169864671</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08391224241001888</v>
+        <v>0.07266920485814279</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04875286121859543</v>
+        <v>0.1019047260696087</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1309719444469085</v>
+        <v>0.1114803157566454</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04863524092884702</v>
+        <v>0.1013407330975018</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0449669993659282</v>
+        <v>0.0162829255910839</v>
       </c>
       <c r="G128" t="n">
-        <v>0.03610661603741278</v>
+        <v>0.1025598147011068</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03749889457002893</v>
+        <v>0.03219977488012392</v>
       </c>
       <c r="K128" t="n">
-        <v>0.0503242148279226</v>
+        <v>0.1032388822818431</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08393797091726732</v>
+        <v>0.07181718775675516</v>
       </c>
       <c r="M128" t="n">
-        <v>0.0495391976898631</v>
+        <v>0.1035483506836347</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1313597166076356</v>
+        <v>0.1106456141143227</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04941968029866713</v>
+        <v>0.1029752610506873</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04514192407263884</v>
+        <v>0.01610760148866908</v>
       </c>
       <c r="G129" t="n">
-        <v>0.03667973692689552</v>
+        <v>0.104187748267791</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03749946544359259</v>
+        <v>0.03178120721623581</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05112301188868327</v>
+        <v>0.1048775946990152</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08374426023979401</v>
+        <v>0.07148942676898437</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05032553416113077</v>
+        <v>0.1051919752976606</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1305217811404349</v>
+        <v>0.1090615689032519</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05020411966848724</v>
+        <v>0.1046097890038729</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04531309509599231</v>
+        <v>0.01591869780505294</v>
       </c>
       <c r="G130" t="n">
-        <v>0.03725285781637827</v>
+        <v>0.1058156818344753</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03739171925215772</v>
+        <v>0.03157231656341036</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05192180894944395</v>
+        <v>0.1065163071161873</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08403218950600974</v>
+        <v>0.07019622973276163</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05111187063239844</v>
+        <v>0.1068355999116866</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1299591075580179</v>
+        <v>0.109069447476394</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05098855903830735</v>
+        <v>0.1062443169570584</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04548044438653703</v>
+        <v>0.01571520114194656</v>
       </c>
       <c r="G131" t="n">
-        <v>0.037825978705861</v>
+        <v>0.1074436154011595</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03717615849605371</v>
+        <v>0.03093704492844268</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05272060601020462</v>
+        <v>0.1081550195333594</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08350283784432525</v>
+        <v>0.06977113110800365</v>
       </c>
       <c r="M131" t="n">
-        <v>0.0518982071036661</v>
+        <v>0.1084792245257125</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1307726653730957</v>
+        <v>0.1069756395716851</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05177299840812746</v>
+        <v>0.1078788449102439</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04564390389482137</v>
+        <v>0.01750124294307772</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03839909959534375</v>
+        <v>0.1090715489678438</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03725328567560998</v>
+        <v>0.03057683424637182</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0535194030709653</v>
+        <v>0.1097937319505316</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08365728438315143</v>
+        <v>0.06858332053499641</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05268454357493377</v>
+        <v>0.1101228491397385</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1293634240983798</v>
+        <v>0.1059042879043082</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05255743777794758</v>
+        <v>0.1095133728634294</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04580340557139374</v>
+        <v>0.01528095465217415</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03897222048482649</v>
+        <v>0.110699482534528</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03712360329115591</v>
+        <v>0.03039904042195882</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05431820013172598</v>
+        <v>0.1114324443677037</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08329660825089899</v>
+        <v>0.06844939857661911</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05347088004620143</v>
+        <v>0.1117664737537644</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1292323532465814</v>
+        <v>0.1054807456907375</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0533418771477677</v>
+        <v>0.1111479008166149</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04595888136680255</v>
+        <v>0.01505846771296362</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03954534137430923</v>
+        <v>0.1123274161012122</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0367876138430209</v>
+        <v>0.02991101935996472</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05511699719248666</v>
+        <v>0.1130711567848758</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08302188857597873</v>
+        <v>0.06728596579575111</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05425721651746911</v>
+        <v>0.1134100983677904</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1294804223304117</v>
+        <v>0.1038303661474473</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0541263165175878</v>
+        <v>0.1127824287698004</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04611026323159617</v>
+        <v>0.01683791356917388</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04011846226379198</v>
+        <v>0.1139553496678965</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03684581983153437</v>
+        <v>0.0294201269651506</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05591579425324733</v>
+        <v>0.1147098692020479</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08283420448680143</v>
+        <v>0.0667096227552717</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05504355298873678</v>
+        <v>0.1150537229818163</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1289086008625823</v>
+        <v>0.1015785024909118</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05491075588740792</v>
+        <v>0.1144169567229859</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04625748311632301</v>
+        <v>0.01562342366453269</v>
       </c>
       <c r="G136" t="n">
-        <v>0.04069158315327472</v>
+        <v>0.1155832832345807</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03669872375702571</v>
+        <v>0.02903371914227749</v>
       </c>
       <c r="K136" t="n">
-        <v>0.056714591314008</v>
+        <v>0.11634858161922</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08223463511177792</v>
+        <v>0.06553697001806016</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05582988946000444</v>
+        <v>0.1166973475958423</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1284178583558043</v>
+        <v>0.1014505079376051</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05569519525722803</v>
+        <v>0.1160514846761714</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04640047297153146</v>
+        <v>0.01641912944276777</v>
       </c>
       <c r="G137" t="n">
-        <v>0.04126470404275746</v>
+        <v>0.1172112168012649</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03654682811982429</v>
+        <v>0.02895915179610646</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05751338837476868</v>
+        <v>0.1179872940363921</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08222425957931892</v>
+        <v>0.06458460814699579</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05661622593127211</v>
+        <v>0.1183409722098682</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1273091643227891</v>
+        <v>0.09927173570400155</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05647963462704814</v>
+        <v>0.117686012629357</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04653916474776994</v>
+        <v>0.01522916234760689</v>
       </c>
       <c r="G138" t="n">
-        <v>0.0418378249322402</v>
+        <v>0.1188391503679492</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03629063542025956</v>
+        <v>0.02850378083139854</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05831218543552935</v>
+        <v>0.1196260064535642</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0811041570178353</v>
+        <v>0.06356913770495792</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05740256240253978</v>
+        <v>0.1199845968238942</v>
       </c>
       <c r="N138" t="n">
-        <v>0.127783488276248</v>
+        <v>0.09866753900657543</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05726407399686825</v>
+        <v>0.1193205405825425</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04667349039558683</v>
+        <v>0.0140576538227778</v>
       </c>
       <c r="G139" t="n">
-        <v>0.04241094582172295</v>
+        <v>0.1204670839346334</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03603064815866089</v>
+        <v>0.02797496215291483</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05911098249629003</v>
+        <v>0.1212647188707364</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08137540655573774</v>
+        <v>0.06280715925482583</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05818889887380745</v>
+        <v>0.1216282214379201</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1267417997288922</v>
+        <v>0.09676327106180094</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05804851336668837</v>
+        <v>0.120955068535728</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04680338186553051</v>
+        <v>0.01490873531200826</v>
       </c>
       <c r="G140" t="n">
-        <v>0.04298406671120569</v>
+        <v>0.1220950175013176</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03576736883535769</v>
+        <v>0.02798005166541633</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05990977955705071</v>
+        <v>0.1229034312879085</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08073908732143711</v>
+        <v>0.06211527335947881</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05897523534507512</v>
+        <v>0.123271846051946</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1264850681934331</v>
+        <v>0.09668428508615218</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05883295273650849</v>
+        <v>0.1225895964889135</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04692877110814941</v>
+        <v>0.014786538259026</v>
       </c>
       <c r="G141" t="n">
-        <v>0.04355718760068843</v>
+        <v>0.1237229510680019</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03590129995067935</v>
+        <v>0.02752640527366411</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06070857661781139</v>
+        <v>0.1245421437050806</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08059627844334419</v>
+        <v>0.06161008058179621</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05976157181634279</v>
+        <v>0.124915470665972</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1258142631825822</v>
+        <v>0.09475593429610335</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0596173921063286</v>
+        <v>0.124224124442099</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04704959007399194</v>
+        <v>0.0156951941075588</v>
       </c>
       <c r="G142" t="n">
-        <v>0.04413030849017117</v>
+        <v>0.1253508846346861</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03573294400495529</v>
+        <v>0.02732137888241924</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06150737367857206</v>
+        <v>0.1261808561222527</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08054805904986975</v>
+        <v>0.06100818148465723</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06054790828761045</v>
+        <v>0.126559095279998</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1259303542090505</v>
+        <v>0.09430357190812899</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06040183147614871</v>
+        <v>0.1258586523952845</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04716577071360643</v>
+        <v>0.01363883430133439</v>
       </c>
       <c r="G143" t="n">
-        <v>0.04470342937965392</v>
+        <v>0.1269788182013704</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03556280349851487</v>
+        <v>0.02707232839644276</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06230617073933273</v>
+        <v>0.1278195685394248</v>
       </c>
       <c r="L143" t="n">
-        <v>0.07939550826942457</v>
+        <v>0.06072617663094126</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06133424475887812</v>
+        <v>0.1282027198940239</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1258343107855495</v>
+        <v>0.09445255113870293</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06118627084596882</v>
+        <v>0.12749318034847</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04727724497754135</v>
+        <v>0.01562145527991179</v>
       </c>
       <c r="G144" t="n">
-        <v>0.04527655026913666</v>
+        <v>0.1286067517680546</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03529138093168753</v>
+        <v>0.02698660972049574</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06310496780009341</v>
+        <v>0.1294582809565969</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07983970523041944</v>
+        <v>0.06028066658352751</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06212058123014579</v>
+        <v>0.1298463445080499</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1246271024247904</v>
+        <v>0.09452822520429977</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06197071021578894</v>
+        <v>0.1291277083016556</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04738394481634506</v>
+        <v>0.01362505390111837</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0458496711586194</v>
+        <v>0.1302346853347388</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03521917880480264</v>
+        <v>0.02716870921720395</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06390376486085408</v>
+        <v>0.131096993373769</v>
       </c>
       <c r="L145" t="n">
-        <v>0.07928172906126518</v>
+        <v>0.06038825190529543</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06290691770141346</v>
+        <v>0.1314899691220758</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1237096986394846</v>
+        <v>0.09341448986168427</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06275514958560904</v>
+        <v>0.1307622362548411</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04748580218056596</v>
+        <v>0.01363457758771212</v>
       </c>
       <c r="G146" t="n">
-        <v>0.04642279204810214</v>
+        <v>0.1318626189014231</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03504669961818963</v>
+        <v>0.02727731964931068</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06470256192161476</v>
+        <v>0.1327357057909412</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07862265889037254</v>
+        <v>0.060398749991043</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06369325417268112</v>
+        <v>0.1331335937361017</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1240830689423433</v>
+        <v>0.0936553798821449</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06353958895542916</v>
+        <v>0.1323967642080266</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04758274902075245</v>
+        <v>0.01464972276271288</v>
       </c>
       <c r="G147" t="n">
-        <v>0.04699591293758489</v>
+        <v>0.1334905524681073</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03477444587217787</v>
+        <v>0.02729629265085411</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06550135898237545</v>
+        <v>0.1343744182081133</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07876357384615229</v>
+        <v>0.06073326234222551</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06447959064394879</v>
+        <v>0.1347772183501277</v>
       </c>
       <c r="N147" t="n">
-        <v>0.122948182846078</v>
+        <v>0.09413151470138609</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06432402832524926</v>
+        <v>0.1340312921612121</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04767471728745293</v>
+        <v>0.01467018584914049</v>
       </c>
       <c r="G148" t="n">
-        <v>0.04756903382706763</v>
+        <v>0.1351184860347915</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03450292006709678</v>
+        <v>0.0271250877126319</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06630015604313612</v>
+        <v>0.1360131306252854</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07770555305701526</v>
+        <v>0.06069030107730031</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06526592711521646</v>
+        <v>0.1364208429641536</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1227060098633999</v>
+        <v>0.09424103137429668</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06510846769506939</v>
+        <v>0.1356658201143976</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04776163893121579</v>
+        <v>0.01569566327001478</v>
       </c>
       <c r="G149" t="n">
-        <v>0.04814215471655037</v>
+        <v>0.1367464196014757</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03453262470327575</v>
+        <v>0.02726316432544178</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0670989531038968</v>
+        <v>0.1376518430424575</v>
       </c>
       <c r="L149" t="n">
-        <v>0.07734967565137224</v>
+        <v>0.06056864639295426</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06605226358648413</v>
+        <v>0.1380644675781796</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1214575195070203</v>
+        <v>0.09428206695576541</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06589290706488951</v>
+        <v>0.1373003480675831</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04784344590258946</v>
+        <v>0.01572585144835559</v>
       </c>
       <c r="G150" t="n">
-        <v>0.04871527560603311</v>
+        <v>0.13837435316816</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03406406228104419</v>
+        <v>0.02740998198008136</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06789775016465747</v>
+        <v>0.1392905554596296</v>
       </c>
       <c r="L150" t="n">
-        <v>0.07699702075763398</v>
+        <v>0.06106707848587387</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0668386000577518</v>
+        <v>0.1397080921922055</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1209036812896506</v>
+        <v>0.09435275850068131</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06667734643470961</v>
+        <v>0.1389348760207686</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0479200701521223</v>
+        <v>0.01576044680718276</v>
       </c>
       <c r="G151" t="n">
-        <v>0.04928839649551586</v>
+        <v>0.1400022867348442</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03389773530073148</v>
+        <v>0.02736500016734839</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06869654722541814</v>
+        <v>0.1409292678768017</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07664866750421129</v>
+        <v>0.06078437755274593</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06762493652901946</v>
+        <v>0.1413517168062315</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1207454647240019</v>
+        <v>0.09515124306393313</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06746178580452973</v>
+        <v>0.1405694039739541</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0479914436303627</v>
+        <v>0.01479914576951612</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0498615173849986</v>
+        <v>0.1416302203015285</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03393414626266704</v>
+        <v>0.02722767837804051</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06949534428617882</v>
+        <v>0.1425679802939738</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07660569501951495</v>
+        <v>0.06151932379025707</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06841127300028714</v>
+        <v>0.1429953414202574</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1209838393227857</v>
+        <v>0.09487565770040973</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06824622517434983</v>
+        <v>0.1422039319271397</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04805749828785912</v>
+        <v>0.01584164475837553</v>
       </c>
       <c r="G153" t="n">
-        <v>0.05043463827448134</v>
+        <v>0.1432581538682127</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03357379766718026</v>
+        <v>0.02749747610295537</v>
       </c>
       <c r="K153" t="n">
-        <v>0.0702941413469395</v>
+        <v>0.1442066927111459</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07666918243195578</v>
+        <v>0.06127069739509397</v>
       </c>
       <c r="M153" t="n">
-        <v>0.0691976094715548</v>
+        <v>0.1446389660342834</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1192197745987134</v>
+        <v>0.0953241394649999</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06903066454416995</v>
+        <v>0.1438384598803252</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04811816607515985</v>
+        <v>0.01588764019678082</v>
       </c>
       <c r="G154" t="n">
-        <v>0.05100775916396409</v>
+        <v>0.1448860874348969</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03341719201460053</v>
+        <v>0.02757385283289071</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07109293840770019</v>
+        <v>0.1458454051283181</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07574020886994451</v>
+        <v>0.06153727856394334</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06998394594282246</v>
+        <v>0.1462825906483093</v>
       </c>
       <c r="N154" t="n">
-        <v>0.119054240064496</v>
+        <v>0.09549482541259252</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06981510391399007</v>
+        <v>0.1454729878335107</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.0481733789428134</v>
+        <v>0.0159368285077518</v>
       </c>
       <c r="G155" t="n">
-        <v>0.05158088005344683</v>
+        <v>0.1465140210015812</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03326483180525726</v>
+        <v>0.02745626805864418</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07189173546846085</v>
+        <v>0.1474841175454902</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07521985346189197</v>
+        <v>0.06201784749349187</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07077028241409014</v>
+        <v>0.1479262152623353</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1182882052328451</v>
+        <v>0.09538585259807647</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07059954328381018</v>
+        <v>0.1471075157866962</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04822306884136811</v>
+        <v>0.01498890783508735</v>
       </c>
       <c r="G156" t="n">
-        <v>0.05215400094292957</v>
+        <v>0.1481419545682654</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03341721953947986</v>
+        <v>0.02754418127101346</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07269053252922153</v>
+        <v>0.1491228299626623</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07540919533620888</v>
+        <v>0.06221118438042625</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0715566188853578</v>
+        <v>0.1495698398763612</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1179226396164719</v>
+        <v>0.09589535807634053</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07138398265363029</v>
+        <v>0.1487420437398817</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04826716772137236</v>
+        <v>0.01606971532274383</v>
       </c>
       <c r="G157" t="n">
-        <v>0.05272712183241231</v>
+        <v>0.1497698881349497</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03297485771759771</v>
+        <v>0.02794124488667148</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07348932958998221</v>
+        <v>0.1507615423798344</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07520931362130609</v>
+        <v>0.06211606942143313</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07234295535662548</v>
+        <v>0.1512134644903872</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1169585127280877</v>
+        <v>0.09717425862755014</v>
       </c>
       <c r="O157" t="n">
-        <v>0.0721684220234504</v>
+        <v>0.1503765716930672</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04830560753337459</v>
+        <v>0.01519832077722146</v>
       </c>
       <c r="G158" t="n">
-        <v>0.05330024272189506</v>
+        <v>0.1513978217016339</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03303551579794084</v>
+        <v>0.02810966162989391</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07428812665074287</v>
+        <v>0.1524002547970065</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07451773321899177</v>
+        <v>0.06222913432733518</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07312929182789314</v>
+        <v>0.1528570891044131</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1169691796110315</v>
+        <v>0.09663841185124633</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07295286139327052</v>
+        <v>0.1520110996462527</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.0483383202279232</v>
+        <v>0.01436555994219833</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0538733636113778</v>
+        <v>0.1530257552683181</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03289477548000934</v>
+        <v>0.02815778847938046</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07508692371150355</v>
+        <v>0.1540389672141786</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07402873049308392</v>
+        <v>0.06303315590847472</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07391562829916082</v>
+        <v>0.154500713718439</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1168106042336486</v>
+        <v>0.09796274014524858</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07373730076309064</v>
+        <v>0.1536456275994383</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04836523775556655</v>
+        <v>0.01456226856135248</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05444648450086054</v>
+        <v>0.1546536888350024</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03275263846663387</v>
+        <v>0.02856930876687849</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07588572077226423</v>
+        <v>0.1556776796313507</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07424183884376892</v>
+        <v>0.06389136942353046</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07470196477042848</v>
+        <v>0.156144338332465</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1149862198696164</v>
+        <v>0.09889100569302961</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07452174013291075</v>
+        <v>0.1552801555526238</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04838629206685306</v>
+        <v>0.014779282378362</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05501960539034328</v>
+        <v>0.1562816224016866</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03240918458452013</v>
+        <v>0.02882790582413544</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07668451783302492</v>
+        <v>0.1573163920485229</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07415668112504697</v>
+        <v>0.06446695195457361</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07548830124169614</v>
+        <v>0.157787962946491</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1153002441901867</v>
+        <v>0.1010669706780617</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07530617950273086</v>
+        <v>0.1569146835058093</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04840141511233112</v>
+        <v>0.01600743713690497</v>
       </c>
       <c r="G162" t="n">
-        <v>0.05559272627982603</v>
+        <v>0.1579095559683708</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03226449366037382</v>
+        <v>0.02911726298289873</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07748331489378558</v>
+        <v>0.158955104465695</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07347288019091841</v>
+        <v>0.06512308058367544</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07627463771296382</v>
+        <v>0.1594315875605169</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1135568948666111</v>
+        <v>0.1025343972838174</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07609061887255097</v>
+        <v>0.1585492114589948</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04841053884254913</v>
+        <v>0.01723756858065945</v>
       </c>
       <c r="G163" t="n">
-        <v>0.05616584716930877</v>
+        <v>0.1595374895350551</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03241864552090061</v>
+        <v>0.02952106357491571</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07828211195454626</v>
+        <v>0.1605938168828671</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07309005889538353</v>
+        <v>0.06582293239290724</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07706097418423148</v>
+        <v>0.1610752121745428</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1132603895701417</v>
+        <v>0.103737047693769</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07687505824237108</v>
+        <v>0.1601837394121803</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04841359520805548</v>
+        <v>0.01646051245330351</v>
       </c>
       <c r="G164" t="n">
-        <v>0.05673896805879151</v>
+        <v>0.1611654231017393</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0322717199928062</v>
+        <v>0.02992299093193385</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07908090901530694</v>
+        <v>0.1622325293000392</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07260784009244259</v>
+        <v>0.06672968446434024</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07784731065549914</v>
+        <v>0.1627188367885688</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1126149459720301</v>
+        <v>0.1041186840913891</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07765949761219119</v>
+        <v>0.1618182673653658</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04841359520805549</v>
+        <v>0.01566710449851522</v>
       </c>
       <c r="G165" t="n">
-        <v>0.05673896805879151</v>
+        <v>0.1627933566684235</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03192379690279627</v>
+        <v>0.03050672838570048</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07987970607606761</v>
+        <v>0.1638712417172113</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07262584663609581</v>
+        <v>0.06750651388004572</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07863364712676682</v>
+        <v>0.1643624614025947</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1114247817435282</v>
+        <v>0.1062230686601502</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07844393698201131</v>
+        <v>0.1634527953185513</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0475832181880647</v>
+        <v>0.01684818045997266</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0567386995303275</v>
+        <v>0.1644212902351078</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03177495607757654</v>
+        <v>0.03075595926796308</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08067850313682828</v>
+        <v>0.1655099541343834</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07264370138034359</v>
+        <v>0.06891659772209496</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0794199835980345</v>
+        <v>0.1660060860166207</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1096941145558878</v>
+        <v>0.1077939635835247</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07922837635183143</v>
+        <v>0.1650873232717369</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04676221926241728</v>
+        <v>0.01600982860068008</v>
       </c>
       <c r="G167" t="n">
-        <v>0.05673843100186349</v>
+        <v>0.166049223801792</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03152527734385266</v>
+        <v>0.03125698674864749</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08147730019758896</v>
+        <v>0.1671486665515555</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07226102717918612</v>
+        <v>0.06912312566446407</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08020632006930216</v>
+        <v>0.1676497106306466</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1094271620803608</v>
+        <v>0.1085057370901197</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08001281572165155</v>
+        <v>0.1667218512249224</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04595105702454035</v>
+        <v>0.01716742080196477</v>
       </c>
       <c r="G168" t="n">
-        <v>0.05673816247339946</v>
+        <v>0.1676771573684762</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03147484052833033</v>
+        <v>0.03153834646410694</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08227609725834964</v>
+        <v>0.1687873789687276</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07197744688662369</v>
+        <v>0.06965900471974215</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08099265654056982</v>
+        <v>0.1692933352446726</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1085281419881988</v>
+        <v>0.1095743849306153</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08079725509147165</v>
+        <v>0.1683563791781079</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04515019006796669</v>
+        <v>0.01832128707889277</v>
       </c>
       <c r="G169" t="n">
-        <v>0.05673789394493545</v>
+        <v>0.1693050909351605</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03132372545771527</v>
+        <v>0.03161278907577744</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08307489431911032</v>
+        <v>0.1704260913858998</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07199258335665659</v>
+        <v>0.07047898498892871</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0817789930118375</v>
+        <v>0.1709369598586985</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1067012719506539</v>
+        <v>0.1104195693651765</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08158169446129176</v>
+        <v>0.1699909071312934</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04436007698612293</v>
+        <v>0.01847171814925706</v>
       </c>
       <c r="G170" t="n">
-        <v>0.05673762541647143</v>
+        <v>0.1709330245018447</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03137201195871316</v>
+        <v>0.0318808321974856</v>
       </c>
       <c r="K170" t="n">
-        <v>0.083873691379871</v>
+        <v>0.1720648038030718</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07090605944328515</v>
+        <v>0.0712842346058094</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08256532948310516</v>
+        <v>0.1725805844727245</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1054507696389775</v>
+        <v>0.1106430744266075</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08236613383111187</v>
+        <v>0.1716254350844789</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04358117637247126</v>
+        <v>0.01761900473085057</v>
       </c>
       <c r="G171" t="n">
-        <v>0.05673735688800742</v>
+        <v>0.1725609580685289</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03091977985802967</v>
+        <v>0.03224299344305802</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08467248844063167</v>
+        <v>0.173703516220244</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07121749800050953</v>
+        <v>0.07187592170417001</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08335166595437282</v>
+        <v>0.1742242090867504</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1046808527244218</v>
+        <v>0.1124466841477121</v>
       </c>
       <c r="O171" t="n">
-        <v>0.083150573200932</v>
+        <v>0.1732599630376644</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04281394682044071</v>
+        <v>0.01676343754146628</v>
       </c>
       <c r="G172" t="n">
-        <v>0.05673708835954339</v>
+        <v>0.1741888916352132</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0310671089823705</v>
+        <v>0.03229979042632136</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08547128550139234</v>
+        <v>0.1753422286374161</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07082652188233013</v>
+        <v>0.07265521441779618</v>
       </c>
       <c r="M172" t="n">
-        <v>0.0841380024256405</v>
+        <v>0.1758678337007764</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1034957388782385</v>
+        <v>0.113032182561294</v>
       </c>
       <c r="O172" t="n">
-        <v>0.0839350125707521</v>
+        <v>0.1748944909908499</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04205884692356024</v>
+        <v>0.01890530729889715</v>
       </c>
       <c r="G173" t="n">
-        <v>0.05673681983107938</v>
+        <v>0.1758168252018974</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03091407915844135</v>
+        <v>0.03265174076110215</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08627008256215302</v>
+        <v>0.1769809410545882</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07003275394274719</v>
+        <v>0.07302328088047366</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08492433889690817</v>
+        <v>0.1775114583148023</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1020996457716794</v>
+        <v>0.1135013537001575</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08471945194057222</v>
+        <v>0.1765290189440354</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04131633527525838</v>
+        <v>0.01904490472093615</v>
       </c>
       <c r="G174" t="n">
-        <v>0.05673655130261537</v>
+        <v>0.1774447587685816</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03046077021294792</v>
+        <v>0.0330993620612271</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08706887962291369</v>
+        <v>0.1786196534717603</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06983581703576097</v>
+        <v>0.07308128922598814</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08571067536817584</v>
+        <v>0.1791550829288283</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1011967910759963</v>
+        <v>0.1145559815971062</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08550389131039232</v>
+        <v>0.178163546897221</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04058687046899728</v>
+        <v>0.01718252052537622</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05673628277415135</v>
+        <v>0.1790726923352659</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03060726197259586</v>
+        <v>0.03314317194052277</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08786767668367437</v>
+        <v>0.1802583658889324</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06943533401537177</v>
+        <v>0.07423040758812541</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08649701183944351</v>
+        <v>0.1807987075428542</v>
       </c>
       <c r="N175" t="n">
-        <v>0.09929139246244095</v>
+        <v>0.1149978502849442</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08628833068021244</v>
+        <v>0.1797980748504065</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03987091109820828</v>
+        <v>0.01731844543001033</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05673601424568733</v>
+        <v>0.1807006259019501</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03035363426409089</v>
+        <v>0.03338368801281577</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08866647374443505</v>
+        <v>0.1818970783061045</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06933092773557983</v>
+        <v>0.07487180410067112</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08728334831071118</v>
+        <v>0.1824423321568802</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09908766760226528</v>
+        <v>0.1159287437964753</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08707277005003256</v>
+        <v>0.181432602803592</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03916891575641583</v>
+        <v>0.01745297015263145</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05673574571722331</v>
+        <v>0.1823285594686344</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0301999669141387</v>
+        <v>0.03362142789193273</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08946527080519573</v>
+        <v>0.1835357907232767</v>
       </c>
       <c r="L177" t="n">
-        <v>0.06902222105038547</v>
+        <v>0.07550664689741096</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08806968478197884</v>
+        <v>0.1840859567709061</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09758983416672101</v>
+        <v>0.1173504461645035</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08785720941985267</v>
+        <v>0.1830671307567775</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03848134303705068</v>
+        <v>0.01758868164987354</v>
       </c>
       <c r="G178" t="n">
-        <v>0.05673547718875929</v>
+        <v>0.1839564930353186</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03014633974944499</v>
+        <v>0.03395693757732089</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09026406786595641</v>
+        <v>0.1851745031404488</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06930883681378897</v>
+        <v>0.07553610411213071</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0888560212532465</v>
+        <v>0.1857295813849321</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09580210982706</v>
+        <v>0.1177675448035208</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08864164878967279</v>
+        <v>0.184701658709963</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03780865153357502</v>
+        <v>0.01873236451213162</v>
       </c>
       <c r="G179" t="n">
-        <v>0.05673520866029528</v>
+        <v>0.1855844266020028</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02989283259671544</v>
+        <v>0.03420156099062201</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09106286492671707</v>
+        <v>0.1868132155576209</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06859039787979057</v>
+        <v>0.07577590393405714</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08964235772451418</v>
+        <v>0.187373205998958</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09492871225453414</v>
+        <v>0.1181267057157445</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08942608815949289</v>
+        <v>0.1863361866631485</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03715129983942268</v>
+        <v>0.01788001850518496</v>
       </c>
       <c r="G180" t="n">
-        <v>0.05673494013183125</v>
+        <v>0.1872123601686871</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02953952528265573</v>
+        <v>0.03455817970506013</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09186166198747775</v>
+        <v>0.188451927974793</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06806652710239064</v>
+        <v>0.07664664150834999</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09042869419578184</v>
+        <v>0.1890168306129839</v>
       </c>
       <c r="N180" t="n">
-        <v>0.09387385912039503</v>
+        <v>0.1201206472514948</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09021052752931301</v>
+        <v>0.187970714616334</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03650974654811313</v>
+        <v>0.01802664961009771</v>
       </c>
       <c r="G181" t="n">
-        <v>0.05673467160336724</v>
+        <v>0.1888402937353713</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02958649763397156</v>
+        <v>0.0346179020280242</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09266045904823843</v>
+        <v>0.1900906403919651</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06813684733558933</v>
+        <v>0.07752939986978136</v>
       </c>
       <c r="M181" t="n">
-        <v>0.0912150306670495</v>
+        <v>0.1906604552270099</v>
       </c>
       <c r="N181" t="n">
-        <v>0.0919417680958946</v>
+        <v>0.1207187228737497</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09099496689913311</v>
+        <v>0.1896052425695195</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03588445025307954</v>
+        <v>0.01916726380793399</v>
       </c>
       <c r="G182" t="n">
-        <v>0.05673440307490323</v>
+        <v>0.1904682273020555</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02953382947736861</v>
+        <v>0.03497183626690316</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09345925610899911</v>
+        <v>0.1917293528091372</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06750098143338701</v>
+        <v>0.07770411254018314</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09200136713831719</v>
+        <v>0.1923040798410358</v>
       </c>
       <c r="N182" t="n">
-        <v>0.09173665685228477</v>
+        <v>0.1218902860454873</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09177940626895324</v>
+        <v>0.191239770522705</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03527586954778412</v>
+        <v>0.01829686707975797</v>
       </c>
       <c r="G183" t="n">
-        <v>0.05673413454643921</v>
+        <v>0.1920961608687398</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02908160063955259</v>
+        <v>0.0351110907290859</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09425805316975978</v>
+        <v>0.1933680652263093</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06755855224978394</v>
+        <v>0.07845071304138743</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09278770360958485</v>
+        <v>0.1939477044550618</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0905627430608173</v>
+        <v>0.121804690229685</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09256384563877335</v>
+        <v>0.1928742984758906</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03468446302566365</v>
+        <v>0.01841046540663376</v>
       </c>
       <c r="G184" t="n">
-        <v>0.05673386601797518</v>
+        <v>0.193724094435424</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02892989094722918</v>
+        <v>0.0355267737219614</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09505685023052046</v>
+        <v>0.1950067776434815</v>
       </c>
       <c r="L184" t="n">
-        <v>0.0672091826387804</v>
+        <v>0.07864913489522615</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09357404008085252</v>
+        <v>0.1955913290690877</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0896242443927438</v>
+        <v>0.1232312888893212</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09334828500859346</v>
+        <v>0.1945088264290761</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0341106892802318</v>
+        <v>0.0205030647696255</v>
       </c>
       <c r="G185" t="n">
-        <v>0.05673359748951117</v>
+        <v>0.1953520280021082</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02897878022710407</v>
+        <v>0.03540999355291859</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09585564729128114</v>
+        <v>0.1966454900606535</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06655249545437661</v>
+        <v>0.07897931162353142</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09436037655212019</v>
+        <v>0.1972349536831137</v>
       </c>
       <c r="N185" t="n">
-        <v>0.08862537851931629</v>
+        <v>0.1241394354873736</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09413272437841358</v>
+        <v>0.1961433543822616</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03355500690492461</v>
+        <v>0.02056975513364328</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05673332896104716</v>
+        <v>0.1969799615687925</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02872834830588296</v>
+        <v>0.03575185852934634</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0966544443520418</v>
+        <v>0.1982842024778257</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06648811355057302</v>
+        <v>0.07972117674813523</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09514671302338785</v>
+        <v>0.1988785782971396</v>
       </c>
       <c r="N186" t="n">
-        <v>0.08707036311178667</v>
+        <v>0.12339848348682</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09491716374823368</v>
+        <v>0.1977778823354471</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03301787449320426</v>
+        <v>0.01862336117488819</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05673306043258314</v>
+        <v>0.1986078951354767</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02867867501027153</v>
+        <v>0.03565196448979735</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09745324141280248</v>
+        <v>0.1999229148949978</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06591565978136968</v>
+        <v>0.07956116906666547</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09593304949465552</v>
+        <v>0.2005222029111656</v>
       </c>
       <c r="N187" t="n">
-        <v>0.0867634158414064</v>
+        <v>0.1246320907789175</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0957016031180538</v>
+        <v>0.1994124102886326</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03249975063851081</v>
+        <v>0.01867580795943641</v>
       </c>
       <c r="G188" t="n">
-        <v>0.05673279190411912</v>
+        <v>0.2002358287021609</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02852984016697549</v>
+        <v>0.03574515571131683</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09825203847356316</v>
+        <v>0.2015616273121699</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06583475700076705</v>
+        <v>0.07977127747019735</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09671938596592318</v>
+        <v>0.2021658275251915</v>
       </c>
       <c r="N188" t="n">
-        <v>0.08620875437942765</v>
+        <v>0.1250535452114151</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09648604248787392</v>
+        <v>0.2010469382418181</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03200109393435151</v>
+        <v>0.01972707710862252</v>
       </c>
       <c r="G189" t="n">
-        <v>0.0567325233756551</v>
+        <v>0.2018637622688452</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0283819236027005</v>
+        <v>0.03603628034001075</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09905083553432384</v>
+        <v>0.203200339729342</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06534502806276529</v>
+        <v>0.0800767527671862</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09750572243719087</v>
+        <v>0.2038094521392175</v>
       </c>
       <c r="N189" t="n">
-        <v>0.08501059639710207</v>
+        <v>0.1244678366470602</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09727048185769403</v>
+        <v>0.2026814661950037</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03152049038419487</v>
+        <v>0.019777150243781</v>
       </c>
       <c r="G190" t="n">
-        <v>0.05673225484719108</v>
+        <v>0.2034916958355294</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02833500514415226</v>
+        <v>0.03592530565324713</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09984963259508452</v>
+        <v>0.2048390521465141</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06454609582136478</v>
+        <v>0.08087752111027713</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09829205890845853</v>
+        <v>0.2054530767532434</v>
       </c>
       <c r="N190" t="n">
-        <v>0.08387315956568153</v>
+        <v>0.1246748523024496</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09805492122751414</v>
+        <v>0.2043159941481892</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03104716304167987</v>
+        <v>0.02082600898624643</v>
       </c>
       <c r="G191" t="n">
-        <v>0.05673198631872707</v>
+        <v>0.2051196294022136</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02808916461803648</v>
+        <v>0.03611219892839393</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1006484296558452</v>
+        <v>0.2064777645636862</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06443758313056572</v>
+        <v>0.08037350865211498</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09907839537972619</v>
+        <v>0.2070967013672694</v>
       </c>
       <c r="N191" t="n">
-        <v>0.08320066155641764</v>
+        <v>0.1254744793941801</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09883936059733425</v>
+        <v>0.2059505221013747</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03057969791027806</v>
+        <v>0.01887363495735334</v>
       </c>
       <c r="G192" t="n">
-        <v>0.05673171779026304</v>
+        <v>0.2067475629688979</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02774448185105884</v>
+        <v>0.03619692744281919</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1014472267166059</v>
+        <v>0.2081164769808584</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06351911284436845</v>
+        <v>0.08096464154534488</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09986473185099387</v>
+        <v>0.2087403259812953</v>
       </c>
       <c r="N192" t="n">
-        <v>0.08279732004056256</v>
+        <v>0.1253666051388484</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09962379996715436</v>
+        <v>0.2075850500545602</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03011855358349236</v>
+        <v>0.01992000977843627</v>
       </c>
       <c r="G193" t="n">
-        <v>0.05673144926179903</v>
+        <v>0.2083754965355821</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02770024455250719</v>
+        <v>0.03647945847389084</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1022460237773665</v>
+        <v>0.2097551893980305</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06328275773109054</v>
+        <v>0.08115084594261179</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1006510683222615</v>
+        <v>0.2103839505953213</v>
       </c>
       <c r="N193" t="n">
-        <v>0.0825450603926679</v>
+        <v>0.1257511167530512</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1004082393369745</v>
+        <v>0.2092195780077457</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02966418865476443</v>
+        <v>0.02096511507082976</v>
       </c>
       <c r="G194" t="n">
-        <v>0.05673118073333502</v>
+        <v>0.2100034301022664</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02745554974870208</v>
+        <v>0.03625975929897694</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1030448208381272</v>
+        <v>0.2113939018152026</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06301952946626083</v>
+        <v>0.08173204799656075</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1014374047935292</v>
+        <v>0.2120275752093472</v>
       </c>
       <c r="N194" t="n">
-        <v>0.08221692349258319</v>
+        <v>0.1268279014533855</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1011926787067946</v>
+        <v>0.2108541059609312</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02921706171755645</v>
+        <v>0.02000893245586835</v>
       </c>
       <c r="G195" t="n">
-        <v>0.056730912204871</v>
+        <v>0.2116313636689506</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02741045798215046</v>
+        <v>0.03653779719544545</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1038436178988879</v>
+        <v>0.2130326142323747</v>
       </c>
       <c r="L195" t="n">
-        <v>0.0624307298713043</v>
+        <v>0.08110817385983674</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1022237412647969</v>
+        <v>0.2136711998233732</v>
       </c>
       <c r="N195" t="n">
-        <v>0.08101155558983197</v>
+        <v>0.1263968464564477</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1019771180766147</v>
+        <v>0.2124886339141167</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02877763136531161</v>
+        <v>0.01905144355488658</v>
       </c>
       <c r="G196" t="n">
-        <v>0.05673064367640698</v>
+        <v>0.2132592972356348</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02736503227560033</v>
+        <v>0.03651353944066438</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1046424149596486</v>
+        <v>0.2146713266495468</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0620176983406624</v>
+        <v>0.08157914968508473</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1030100777360645</v>
+        <v>0.2153148244373991</v>
       </c>
       <c r="N196" t="n">
-        <v>0.08072768012614734</v>
+        <v>0.1262578389788347</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1027615574464348</v>
+        <v>0.2141231618673022</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02834635619153038</v>
+        <v>0.01909262998921899</v>
       </c>
       <c r="G197" t="n">
-        <v>0.05673037514794296</v>
+        <v>0.2148872308023191</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02731933565179971</v>
+        <v>0.03648695331200172</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1054412120204092</v>
+        <v>0.2163100390667189</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06168177426877647</v>
+        <v>0.08144490162494983</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1037964142073322</v>
+        <v>0.216958449051425</v>
       </c>
       <c r="N197" t="n">
-        <v>0.08026402054326204</v>
+        <v>0.1266107662371435</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1035459968162549</v>
+        <v>0.2157576898204878</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0279236947896556</v>
+        <v>0.02013247338020013</v>
       </c>
       <c r="G198" t="n">
-        <v>0.05673010661947895</v>
+        <v>0.2165151643690033</v>
       </c>
       <c r="J198" t="n">
-        <v>0.02697343113349654</v>
+        <v>0.03685800608682545</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1062400090811699</v>
+        <v>0.217948751483891</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06082429705008788</v>
+        <v>0.08220535583207694</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1045827506785999</v>
+        <v>0.218602073665451</v>
       </c>
       <c r="N198" t="n">
-        <v>0.07941930028290883</v>
+        <v>0.1271555154479707</v>
       </c>
       <c r="O198" t="n">
-        <v>0.104330436186075</v>
+        <v>0.2173922177736733</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02751010575314947</v>
+        <v>0.01917095534916453</v>
       </c>
       <c r="G199" t="n">
-        <v>0.05672983809101493</v>
+        <v>0.2181430979356875</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02672738174343885</v>
+        <v>0.03662666504250356</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1070388061419306</v>
+        <v>0.2195874639010632</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06034660607903805</v>
+        <v>0.08256043845911112</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1053690871498675</v>
+        <v>0.220245698279477</v>
       </c>
       <c r="N199" t="n">
-        <v>0.07989224278682083</v>
+        <v>0.1273919738279129</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1051148755558952</v>
+        <v>0.2190267457268588</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02710604767545671</v>
+        <v>0.02020805751744672</v>
       </c>
       <c r="G200" t="n">
-        <v>0.05672956956255091</v>
+        <v>0.2197710315023718</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02658125050437456</v>
+        <v>0.03689289745640406</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1078376032026913</v>
+        <v>0.2212261763182353</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05935004075006825</v>
+        <v>0.08241007565869737</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1061554236211352</v>
+        <v>0.2218893228935029</v>
       </c>
       <c r="N200" t="n">
-        <v>0.07968157149673072</v>
+        <v>0.1282200285935671</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1058993149257153</v>
+        <v>0.2206612736800443</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02671197915007477</v>
+        <v>0.02024376150638127</v>
       </c>
       <c r="G201" t="n">
-        <v>0.05672930103408689</v>
+        <v>0.221398965069056</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02643510043905173</v>
+        <v>0.03675667060589495</v>
       </c>
       <c r="K201" t="n">
-        <v>0.108636400263452</v>
+        <v>0.2228648887354074</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05933594045762</v>
+        <v>0.08205419358348068</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1069417600924029</v>
+        <v>0.2235329475075289</v>
       </c>
       <c r="N201" t="n">
-        <v>0.0787860098543714</v>
+        <v>0.1283395669615299</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1066837542955354</v>
+        <v>0.2222958016332298</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02632835877044797</v>
+        <v>0.02127804893730269</v>
       </c>
       <c r="G202" t="n">
-        <v>0.05672903250562288</v>
+        <v>0.2230268986357402</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02658899457021829</v>
+        <v>0.03691795176834421</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1094351973242126</v>
+        <v>0.2245036011525795</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05870564459613453</v>
+        <v>0.08279271838610605</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1077280965636706</v>
+        <v>0.2251765721215548</v>
       </c>
       <c r="N202" t="n">
-        <v>0.07880428130147571</v>
+        <v>0.1277504761483981</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1074681936653555</v>
+        <v>0.2239303295864153</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02595564513003845</v>
+        <v>0.02131090143154554</v>
       </c>
       <c r="G203" t="n">
-        <v>0.05672876397715886</v>
+        <v>0.2246548322024245</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02614299592062226</v>
+        <v>0.03717670822111983</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1102339943849733</v>
+        <v>0.2261423135697516</v>
       </c>
       <c r="L203" t="n">
-        <v>0.05756049256005324</v>
+        <v>0.08282557621921849</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1085144330349382</v>
+        <v>0.2268201967355807</v>
       </c>
       <c r="N203" t="n">
-        <v>0.07773510927977656</v>
+        <v>0.1284526433707686</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1082526330351756</v>
+        <v>0.2255648575396009</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02559429682229294</v>
+        <v>0.02034230061044433</v>
       </c>
       <c r="G204" t="n">
-        <v>0.05672849544869484</v>
+        <v>0.2262827657691087</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02609716751301161</v>
+        <v>0.03713290724158982</v>
       </c>
       <c r="K204" t="n">
-        <v>0.111032791445734</v>
+        <v>0.2277810259869237</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05670182374381763</v>
+        <v>0.08325269323546305</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1093007695062059</v>
+        <v>0.2284638213496067</v>
       </c>
       <c r="N204" t="n">
-        <v>0.07747721723100681</v>
+        <v>0.1291459558452379</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1090370724049957</v>
+        <v>0.2271993854927864</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02524477244070508</v>
+        <v>0.02037222809533366</v>
       </c>
       <c r="G205" t="n">
-        <v>0.05672822692023082</v>
+        <v>0.227910699335793</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02585157237013436</v>
+        <v>0.03718651610712216</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1118315885064947</v>
+        <v>0.2294197384040958</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05663097754186888</v>
+        <v>0.08257399558748468</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1100871059774736</v>
+        <v>0.2301074459636326</v>
       </c>
       <c r="N205" t="n">
-        <v>0.07682932859689917</v>
+        <v>0.1295303007884029</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1098215117748158</v>
+        <v>0.2288339134459718</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02490753057872105</v>
+        <v>0.02140066550754801</v>
       </c>
       <c r="G206" t="n">
-        <v>0.05672795839176681</v>
+        <v>0.2295386329024772</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02590627351473845</v>
+        <v>0.03723750209508485</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1126303855672553</v>
+        <v>0.2310584508212679</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05594929334864851</v>
+        <v>0.08338940942792841</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1108734424487412</v>
+        <v>0.2317510705776586</v>
       </c>
       <c r="N206" t="n">
-        <v>0.07649016681918669</v>
+        <v>0.1293055654168604</v>
       </c>
       <c r="O206" t="n">
-        <v>0.110605951144636</v>
+        <v>0.2304684413991574</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02458302982980301</v>
+        <v>0.01942759446842194</v>
       </c>
       <c r="G207" t="n">
-        <v>0.0567276898633028</v>
+        <v>0.2311665664691614</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02576133396957188</v>
+        <v>0.03728583248284589</v>
       </c>
       <c r="K207" t="n">
-        <v>0.113429182628016</v>
+        <v>0.2326971632384401</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05495811055859781</v>
+        <v>0.08359886090943924</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1116597789200089</v>
+        <v>0.2333946951916845</v>
       </c>
       <c r="N207" t="n">
-        <v>0.07625845533960218</v>
+        <v>0.1289716369472071</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1113903905144561</v>
+        <v>0.2321029693523429</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02427172878739986</v>
+        <v>0.01945299659929001</v>
       </c>
       <c r="G208" t="n">
-        <v>0.05672742133483877</v>
+        <v>0.2327945000358456</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02541681675738267</v>
+        <v>0.03713147454777325</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1142279796887767</v>
+        <v>0.2343358756556121</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05395876856615825</v>
+        <v>0.08310227618466223</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1124461153912765</v>
+        <v>0.2350383198057105</v>
       </c>
       <c r="N208" t="n">
-        <v>0.07613291759987845</v>
+        <v>0.1300284025960398</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1121748298842762</v>
+        <v>0.2337374973055284</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02397408604500091</v>
+        <v>0.02147685352148674</v>
       </c>
       <c r="G209" t="n">
-        <v>0.05672715280637475</v>
+        <v>0.2344224336025299</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02557278490091874</v>
+        <v>0.03737439556723494</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1150267767495374</v>
+        <v>0.2359745880727843</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05325260676577104</v>
+        <v>0.08349958140624225</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1132324518625442</v>
+        <v>0.2366819444197364</v>
       </c>
       <c r="N209" t="n">
-        <v>0.07571227704174827</v>
+        <v>0.1295757495799553</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1129592692540963</v>
+        <v>0.2353720252587139</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02369056019605448</v>
+        <v>0.02049914685634666</v>
       </c>
       <c r="G210" t="n">
-        <v>0.05672688427791074</v>
+        <v>0.2360503671692141</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02512930142292814</v>
+        <v>0.03731456281859896</v>
       </c>
       <c r="K210" t="n">
-        <v>0.115825573810298</v>
+        <v>0.2376133004899564</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05294096455187769</v>
+        <v>0.08309070272682445</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1140187883338119</v>
+        <v>0.2383255690337624</v>
       </c>
       <c r="N210" t="n">
-        <v>0.07579525710694474</v>
+        <v>0.1300135651155502</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1137437086239164</v>
+        <v>0.2370065532118995</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02342160983402269</v>
+        <v>0.02151985822520434</v>
       </c>
       <c r="G211" t="n">
-        <v>0.05672661574944673</v>
+        <v>0.2376783007358983</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02498642934615883</v>
+        <v>0.03745194357923332</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1166243708710587</v>
+        <v>0.2392520129071285</v>
       </c>
       <c r="L211" t="n">
-        <v>0.05202518131891956</v>
+        <v>0.08367556629905376</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1148051248050796</v>
+        <v>0.2399691936477883</v>
       </c>
       <c r="N211" t="n">
-        <v>0.07488058123720059</v>
+        <v>0.1294417364194214</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1145281479937365</v>
+        <v>0.238641081165085</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02316769355235704</v>
+        <v>0.0215389692493943</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0567263472209827</v>
+        <v>0.2393062343025826</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02494423169335878</v>
+        <v>0.03738650512650597</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1174231679318194</v>
+        <v>0.2408907253243006</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05130659646133795</v>
+        <v>0.08345409827557518</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1155914612763472</v>
+        <v>0.2416128182618143</v>
       </c>
       <c r="N212" t="n">
-        <v>0.07516697287424862</v>
+        <v>0.1301601507081657</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1153125873635566</v>
+        <v>0.2402756091182705</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02292926994454178</v>
+        <v>0.01955646155025108</v>
       </c>
       <c r="G213" t="n">
-        <v>0.05672607869251869</v>
+        <v>0.2409341678692668</v>
       </c>
       <c r="J213" t="n">
-        <v>0.025002771487276</v>
+        <v>0.03751821473778492</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1182219649925801</v>
+        <v>0.2425294377414727</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05118654937357425</v>
+        <v>0.08372622480903372</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1163777977476149</v>
+        <v>0.2432564428758402</v>
       </c>
       <c r="N213" t="n">
-        <v>0.0742531554598217</v>
+        <v>0.1306686951983796</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1160970267333767</v>
+        <v>0.241910137071456</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02270679760402775</v>
+        <v>0.02057231674910923</v>
       </c>
       <c r="G214" t="n">
-        <v>0.05672581016405467</v>
+        <v>0.2425621014359511</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02486211175065847</v>
+        <v>0.03734703969043819</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1190207620533407</v>
+        <v>0.2441681501586448</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05006637945006989</v>
+        <v>0.08369187205207446</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1171641342188826</v>
+        <v>0.2449000674898661</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07443785243565276</v>
+        <v>0.1297672571066602</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1168814661031969</v>
+        <v>0.2435446650246415</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02270679760402775</v>
+        <v>0.01958651646730328</v>
       </c>
       <c r="G215" t="n">
-        <v>0.05672581016405467</v>
+        <v>0.2441900350026353</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02442231550625419</v>
+        <v>0.03747294726183374</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1198195591141014</v>
+        <v>0.245806862575817</v>
       </c>
       <c r="L215" t="n">
-        <v>0.04924742608526625</v>
+        <v>0.08405096615734231</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1179504706901502</v>
+        <v>0.2465436921038921</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0734197872434747</v>
+        <v>0.129955723649604</v>
       </c>
       <c r="O215" t="n">
-        <v>0.117665905473017</v>
+        <v>0.245179192977827</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02212694198862039</v>
+        <v>0.0195990423261678</v>
       </c>
       <c r="G216" t="n">
-        <v>0.05664744829361024</v>
+        <v>0.2458179685693195</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02448344577681111</v>
+        <v>0.03759590472933959</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1206183561748621</v>
+        <v>0.2474455749929891</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0489310286736046</v>
+        <v>0.08390343327748231</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1187368071614179</v>
+        <v>0.248187316717918</v>
       </c>
       <c r="N216" t="n">
-        <v>0.07369768332502025</v>
+        <v>0.130733982043808</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1184503448428371</v>
+        <v>0.2468137209310125</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02155369915568851</v>
+        <v>0.02160987594703729</v>
       </c>
       <c r="G217" t="n">
-        <v>0.05656908642316583</v>
+        <v>0.2474459021360038</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02434556558507724</v>
+        <v>0.03741587937032373</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1214171532356228</v>
+        <v>0.2490842874101612</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0483185266095264</v>
+        <v>0.08404919956513951</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1195231436326856</v>
+        <v>0.249830941331944</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07367026412202232</v>
+        <v>0.1300019195058688</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1192347842126572</v>
+        <v>0.248448248884198</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02098740895716705</v>
+        <v>0.0196189989512463</v>
       </c>
       <c r="G218" t="n">
-        <v>0.0564907245527214</v>
+        <v>0.249073835702688</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02410873795380059</v>
+        <v>0.03773283846215411</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1222159502963834</v>
+        <v>0.2507229998273333</v>
       </c>
       <c r="L218" t="n">
-        <v>0.046911259287473</v>
+        <v>0.08418819117295881</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1203094801039532</v>
+        <v>0.25147456594597</v>
       </c>
       <c r="N218" t="n">
-        <v>0.07343625307621388</v>
+        <v>0.130759423252383</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1200192235824773</v>
+        <v>0.2500827768373835</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02042841124499135</v>
+        <v>0.02162639296012938</v>
       </c>
       <c r="G219" t="n">
-        <v>0.05641236268227699</v>
+        <v>0.2507017692693722</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02387302590572911</v>
+        <v>0.03754674928219878</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1230147473571441</v>
+        <v>0.2523617122445054</v>
       </c>
       <c r="L219" t="n">
-        <v>0.04621056610188573</v>
+        <v>0.08412033425358534</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1210958165752209</v>
+        <v>0.2531181905599959</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0732943736293275</v>
+        <v>0.1311063804999477</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1208036629522974</v>
+        <v>0.2517173047905691</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01987704587109635</v>
+        <v>0.02063203959502106</v>
       </c>
       <c r="G220" t="n">
-        <v>0.05633400081183255</v>
+        <v>0.2523297028360564</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02383849246361079</v>
+        <v>0.03755757910782571</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1238135444179048</v>
+        <v>0.2540004246616775</v>
       </c>
       <c r="L220" t="n">
-        <v>0.04561778644720604</v>
+        <v>0.08384555495966403</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1218821530464886</v>
+        <v>0.2547618151740219</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07194334922309631</v>
+        <v>0.1305426784651595</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1215881023221175</v>
+        <v>0.2533518327437546</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01933365268741728</v>
+        <v>0.0216359204772559</v>
       </c>
       <c r="G221" t="n">
-        <v>0.05625563894138813</v>
+        <v>0.2539576364027407</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02360520065019361</v>
+        <v>0.0376652952164029</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1246123414786655</v>
+        <v>0.2556391370788496</v>
       </c>
       <c r="L221" t="n">
-        <v>0.04493425971787526</v>
+        <v>0.08376377944383986</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1226684895177562</v>
+        <v>0.2564054397880478</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07138190329925315</v>
+        <v>0.1299682043646152</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1223725416919376</v>
+        <v>0.2549863606969401</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01879857154588935</v>
+        <v>0.02163801722816844</v>
       </c>
       <c r="G222" t="n">
-        <v>0.05617727707094371</v>
+        <v>0.2555855699694249</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02357321348822559</v>
+        <v>0.03756986488529834</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1254111385394261</v>
+        <v>0.2572778494960217</v>
       </c>
       <c r="L222" t="n">
-        <v>0.04456132530833473</v>
+        <v>0.08407493385875792</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1234548259890239</v>
+        <v>0.2580490644020738</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0721087592995307</v>
+        <v>0.1301828454149114</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1231569810617578</v>
+        <v>0.2566208886501256</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01827214229844756</v>
+        <v>0.02063518478271872</v>
       </c>
       <c r="G223" t="n">
-        <v>0.05609891520049928</v>
+        <v>0.2572135035361092</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02364259400045471</v>
+        <v>0.03777104552487014</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1262099356001868</v>
+        <v>0.2589165619131938</v>
       </c>
       <c r="L223" t="n">
-        <v>0.04390032261302587</v>
+        <v>0.08397894435706316</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1242411624602916</v>
+        <v>0.2596926890160997</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07082264066566191</v>
+        <v>0.130381576094442</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1239414204315779</v>
+        <v>0.2582554166033111</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01775470479702708</v>
+        <v>0.02158934963330607</v>
       </c>
       <c r="G224" t="n">
-        <v>0.05602055333005486</v>
+        <v>0.2588414371027934</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02321340520962893</v>
+        <v>0.03771567272745646</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1270087326609475</v>
+        <v>0.260555274330366</v>
       </c>
       <c r="L224" t="n">
-        <v>0.04325259102639009</v>
+        <v>0.0843806280288493</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1250274989315592</v>
+        <v>0.2613363136301256</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07142227083937974</v>
+        <v>0.1304556049951324</v>
       </c>
       <c r="O224" t="n">
-        <v>0.124725859801398</v>
+        <v>0.2598899445564966</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01724659889356317</v>
+        <v>0.0194937511000088</v>
       </c>
       <c r="G225" t="n">
-        <v>0.05594219145961044</v>
+        <v>0.2604693706694777</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02338571013849623</v>
+        <v>0.03756959663825314</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1278075297217082</v>
+        <v>0.2621939867475381</v>
       </c>
       <c r="L225" t="n">
-        <v>0.04261946994286867</v>
+        <v>0.08327583960674145</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1258138354028269</v>
+        <v>0.2629799382441516</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07100637326241693</v>
+        <v>0.1303198116173872</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1255102991712181</v>
+        <v>0.2615244725096821</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01674816443999079</v>
+        <v>0.02135411861016335</v>
       </c>
       <c r="G226" t="n">
-        <v>0.05586382958916601</v>
+        <v>0.2620973042361618</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02325957180980463</v>
+        <v>0.03724301832124635</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1286063267824689</v>
+        <v>0.2638326991647102</v>
       </c>
       <c r="L226" t="n">
-        <v>0.042302298756903</v>
+        <v>0.08348723607174804</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1266001718740946</v>
+        <v>0.2646235628581775</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0699736713765064</v>
+        <v>0.128409355440823</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1262947385410382</v>
+        <v>0.2631590004628677</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01625974128824516</v>
+        <v>0.02117618159110608</v>
       </c>
       <c r="G227" t="n">
-        <v>0.05578546771872159</v>
+        <v>0.2637252378028461</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02283505324630211</v>
+        <v>0.0368461388404222</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1294051238432295</v>
+        <v>0.2654714115818823</v>
       </c>
       <c r="L227" t="n">
-        <v>0.04150241686293452</v>
+        <v>0.08223783884810409</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1273865083453622</v>
+        <v>0.2662671874722035</v>
       </c>
       <c r="N227" t="n">
-        <v>0.06972288862338089</v>
+        <v>0.1282593959450564</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1270791779108583</v>
+        <v>0.2647935284160531</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01578166929026147</v>
+        <v>0.0199656694701734</v>
       </c>
       <c r="G228" t="n">
-        <v>0.05570710584827717</v>
+        <v>0.2653531713695303</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02281221747073663</v>
+        <v>0.03668915925976682</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1302039209039902</v>
+        <v>0.2671101239990544</v>
       </c>
       <c r="L228" t="n">
-        <v>0.04092116365540452</v>
+        <v>0.08215066936004484</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1281728448166299</v>
+        <v>0.2679108120862295</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06905274844477344</v>
+        <v>0.126005092609704</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1278636172806784</v>
+        <v>0.2664280563692387</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01531428829797474</v>
+        <v>0.01972831167470168</v>
       </c>
       <c r="G229" t="n">
-        <v>0.05562874397783274</v>
+        <v>0.2669811049362146</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02259112750585622</v>
+        <v>0.03598228064326633</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1310027179647509</v>
+        <v>0.2687488364162265</v>
       </c>
       <c r="L229" t="n">
-        <v>0.03985987852875442</v>
+        <v>0.08044874903180541</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1289591812878976</v>
+        <v>0.2695544367002554</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0683619742824168</v>
+        <v>0.1251816049143823</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1286480566504985</v>
+        <v>0.2680625843224242</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01485793816332023</v>
+        <v>0.01946983763202734</v>
       </c>
       <c r="G230" t="n">
-        <v>0.05555038210738833</v>
+        <v>0.2686090385028988</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02257184062617165</v>
+        <v>0.03553570405490686</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1318015150255116</v>
+        <v>0.2703875488333987</v>
       </c>
       <c r="L230" t="n">
-        <v>0.04001980389023452</v>
+        <v>0.0797550992876209</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1297455177591653</v>
+        <v>0.2711980613142813</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06864931132089713</v>
+        <v>0.1236240923387079</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1294324960203187</v>
+        <v>0.2696971122756097</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01441295873823295</v>
+        <v>0.01819597676948675</v>
       </c>
       <c r="G231" t="n">
-        <v>0.0554720202369439</v>
+        <v>0.2702369720695831</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02265374733798188</v>
+        <v>0.03525963055867454</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1326003120862722</v>
+        <v>0.2720262612505707</v>
       </c>
       <c r="L231" t="n">
-        <v>0.03899084170491207</v>
+        <v>0.07879274155172641</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1305318542304329</v>
+        <v>0.2728416859283073</v>
       </c>
       <c r="N231" t="n">
-        <v>0.06791630156012946</v>
+        <v>0.1213677143622972</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1302169353901388</v>
+        <v>0.2713316402287952</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01397968987464809</v>
+        <v>0.01791245851441632</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05539365836649947</v>
+        <v>0.2718649056362673</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02253641249942821</v>
+        <v>0.03466426121855548</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1333991091470329</v>
+        <v>0.2736649736677428</v>
       </c>
       <c r="L232" t="n">
-        <v>0.03856558535498786</v>
+        <v>0.0775846972483572</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1313181907017006</v>
+        <v>0.2744853105423332</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06696478393050326</v>
+        <v>0.1209476304647671</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1310013747599589</v>
+        <v>0.2729661681819808</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01355847142450086</v>
+        <v>0.01762501229415244</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05531529649605506</v>
+        <v>0.2734928392029515</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02241984589786546</v>
+        <v>0.03405979709853585</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1341979062077936</v>
+        <v>0.275303686084915</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0383440948783563</v>
+        <v>0.07695398780174831</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1321045271729683</v>
+        <v>0.2761289351563592</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06649512086099219</v>
+        <v>0.118599000125734</v>
       </c>
       <c r="O233" t="n">
-        <v>0.131785814129779</v>
+        <v>0.2746006961351662</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01314964323972626</v>
+        <v>0.01733936753603148</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05523693462561063</v>
+        <v>0.2751207727696358</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02220405732064841</v>
+        <v>0.03355643926260174</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1349967032685543</v>
+        <v>0.2769423985020871</v>
       </c>
       <c r="L234" t="n">
-        <v>0.03772643031291173</v>
+        <v>0.07562363463613486</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1328908636442359</v>
+        <v>0.2777725597703851</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06580767478057009</v>
+        <v>0.1172569828248144</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1325702534995991</v>
+        <v>0.2762352240883518</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01275354517225951</v>
+        <v>0.01706125366738986</v>
       </c>
       <c r="G235" t="n">
-        <v>0.0551585727551662</v>
+        <v>0.27674870633632</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02208905655513195</v>
+        <v>0.03316438877473928</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1357955003293149</v>
+        <v>0.2785811109192592</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0374126516965487</v>
+        <v>0.07431665917575206</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1336772001155036</v>
+        <v>0.279416184384411</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06470280811821066</v>
+        <v>0.115056738041625</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1333546928694192</v>
+        <v>0.2778697520415372</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01237051707403578</v>
+        <v>0.01879640011556397</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05508021088472179</v>
+        <v>0.2783766399030043</v>
       </c>
       <c r="J236" t="n">
-        <v>0.0218748533886708</v>
+        <v>0.0326938466989346</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1365942973900756</v>
+        <v>0.2802198233364313</v>
       </c>
       <c r="L236" t="n">
-        <v>0.03670281906716152</v>
+        <v>0.07365608284483499</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1344635365867713</v>
+        <v>0.281059808998437</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06438088330288766</v>
+        <v>0.1136334252557824</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1341391322392393</v>
+        <v>0.2795042799947228</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01200089879699012</v>
+        <v>0.01755053630789018</v>
       </c>
       <c r="G237" t="n">
-        <v>0.05500184901427736</v>
+        <v>0.2800045734696884</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02196145760861987</v>
+        <v>0.03235501409917385</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1373930944508363</v>
+        <v>0.2818585357536034</v>
       </c>
       <c r="L237" t="n">
-        <v>0.03559699246264467</v>
+        <v>0.0720649270676188</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1352498730580389</v>
+        <v>0.2827034336124629</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06364226276357493</v>
+        <v>0.111322203946903</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1349235716090595</v>
+        <v>0.2811388079479083</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01164503019305768</v>
+        <v>0.01632344778328122</v>
       </c>
       <c r="G238" t="n">
-        <v>0.05492348714383293</v>
+        <v>0.2816325070363727</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02174887900233391</v>
+        <v>0.03175259784402253</v>
       </c>
       <c r="K238" t="n">
-        <v>0.138191891511597</v>
+        <v>0.2834972481707755</v>
       </c>
       <c r="L238" t="n">
-        <v>0.03539523192089256</v>
+        <v>0.07135773037729934</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1360362095293066</v>
+        <v>0.2843470582264889</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06258730892924613</v>
+        <v>0.1105332260495808</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1357080109788796</v>
+        <v>0.2827733359010938</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01130325111417369</v>
+        <v>0.01809723919249338</v>
       </c>
       <c r="G239" t="n">
-        <v>0.05484512527338851</v>
+        <v>0.2832604406030569</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02173712735716778</v>
+        <v>0.03145537371691083</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1389906885723576</v>
+        <v>0.2851359605879477</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0350975974797996</v>
+        <v>0.07086689563976642</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1368225460005743</v>
+        <v>0.2859906828405149</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06201638422887518</v>
+        <v>0.1098567765141407</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1364924503486997</v>
+        <v>0.2844078638542794</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01097451368353802</v>
+        <v>0.01787017268781121</v>
       </c>
       <c r="G240" t="n">
-        <v>0.05476676340294408</v>
+        <v>0.2848883741697412</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02152621246047627</v>
+        <v>0.03115663612252374</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1397894856331183</v>
+        <v>0.2867746730051198</v>
       </c>
       <c r="L240" t="n">
-        <v>0.03470414917726022</v>
+        <v>0.06927265964199941</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1376088824718419</v>
+        <v>0.2876343074545408</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06212985109143571</v>
+        <v>0.1082750919042194</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1372768897185198</v>
+        <v>0.2860423918074648</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01065083138067507</v>
+        <v>0.01564223469600891</v>
       </c>
       <c r="G241" t="n">
-        <v>0.05468840153249967</v>
+        <v>0.2865163077364254</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02131614409961419</v>
+        <v>0.03055636089416233</v>
       </c>
       <c r="K241" t="n">
-        <v>0.140588282693879</v>
+        <v>0.2884133854222919</v>
       </c>
       <c r="L241" t="n">
-        <v>0.03401494705116881</v>
+        <v>0.0683749678453906</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1383952189431096</v>
+        <v>0.2892779320685667</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06172807194590152</v>
+        <v>0.1064880889257057</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1380613290883399</v>
+        <v>0.2876769197606504</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01033115632878476</v>
+        <v>0.01641341164386064</v>
       </c>
       <c r="G242" t="n">
-        <v>0.05461003966205524</v>
+        <v>0.2881442413031097</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02120693206193638</v>
+        <v>0.03025452386512777</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1413870797546397</v>
+        <v>0.290052097839464</v>
       </c>
       <c r="L242" t="n">
-        <v>0.03323005113941979</v>
+        <v>0.06767376571133227</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1391815554143773</v>
+        <v>0.2909215566825927</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06011140922124641</v>
+        <v>0.1051956842844889</v>
       </c>
       <c r="O242" t="n">
-        <v>0.13884576845816</v>
+        <v>0.2893114477138359</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01001582837980225</v>
+        <v>0.01618368995814058</v>
       </c>
       <c r="G243" t="n">
-        <v>0.05453167779161081</v>
+        <v>0.2897721748697939</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02129858613479767</v>
+        <v>0.02975110086872117</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1421858768154004</v>
+        <v>0.2916908102566361</v>
       </c>
       <c r="L243" t="n">
-        <v>0.03344952147990765</v>
+        <v>0.06696899870121667</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1399678918856449</v>
+        <v>0.2925651812966186</v>
       </c>
       <c r="N243" t="n">
-        <v>0.05948022534644415</v>
+        <v>0.1032977946864576</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1396302078279801</v>
+        <v>0.2909459756670214</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.009705187385662735</v>
+        <v>0.01695305606562289</v>
       </c>
       <c r="G244" t="n">
-        <v>0.0544533159211664</v>
+        <v>0.2914001084364781</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02109111610555282</v>
+        <v>0.02934606773824365</v>
       </c>
       <c r="K244" t="n">
-        <v>0.142984673876161</v>
+        <v>0.2933295226738082</v>
       </c>
       <c r="L244" t="n">
-        <v>0.03287341811052674</v>
+        <v>0.06576061227643609</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1407542283569126</v>
+        <v>0.2942088059106446</v>
       </c>
       <c r="N244" t="n">
-        <v>0.05863488275046841</v>
+        <v>0.1016943368375009</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1404146471978003</v>
+        <v>0.2925805036202069</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.009399573198301245</v>
+        <v>0.01472149639308176</v>
       </c>
       <c r="G245" t="n">
-        <v>0.05437495405072197</v>
+        <v>0.2930280420031623</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02098453176155669</v>
+        <v>0.02903940030699634</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1437834709369217</v>
+        <v>0.2949682350909803</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0322018010691715</v>
+        <v>0.06514855189838278</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1415405648281803</v>
+        <v>0.2958524305246705</v>
       </c>
       <c r="N245" t="n">
-        <v>0.05817574386229307</v>
+        <v>0.1007852274435078</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1411990865676204</v>
+        <v>0.2942150315733924</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009099325669652977</v>
+        <v>0.01448899736729135</v>
       </c>
       <c r="G246" t="n">
-        <v>0.05429659218027755</v>
+        <v>0.2946559755698466</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02077884289016409</v>
+        <v>0.02863107440828035</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1445822679976824</v>
+        <v>0.2966069475081524</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03133473039373633</v>
+        <v>0.06393276302844902</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1423269012994479</v>
+        <v>0.2974960551386965</v>
       </c>
       <c r="N246" t="n">
-        <v>0.05770317111089179</v>
+        <v>0.09917038321036714</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1419835259374405</v>
+        <v>0.2958495595265779</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.008804784651653116</v>
+        <v>0.01625554541502583</v>
       </c>
       <c r="G247" t="n">
-        <v>0.05421823030983313</v>
+        <v>0.2962839091365308</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02077405927872983</v>
+        <v>0.02812106587539684</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1453810650584431</v>
+        <v>0.2982456599253245</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03137226612211572</v>
+        <v>0.06351319112802714</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1431132377707156</v>
+        <v>0.2991396797527224</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05691752692523838</v>
+        <v>0.09754972084396801</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1427679653072606</v>
+        <v>0.2974840874797634</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.008516289996236694</v>
+        <v>0.01602112696305939</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0541398684393887</v>
+        <v>0.297911842703215</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02057019071460872</v>
+        <v>0.0278093505416469</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1461798621192037</v>
+        <v>0.2998843723424967</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03091446829220396</v>
+        <v>0.06258978165850931</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1438995742419833</v>
+        <v>0.3007833043667484</v>
       </c>
       <c r="N248" t="n">
-        <v>0.05591917373430672</v>
+        <v>0.09662315705019919</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1435524046770807</v>
+        <v>0.2991186154329489</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008234181555338893</v>
+        <v>0.01478572843816619</v>
       </c>
       <c r="G249" t="n">
-        <v>0.05406150656894428</v>
+        <v>0.2995397762698993</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02046724698515559</v>
+        <v>0.02729590424033171</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1469786591799644</v>
+        <v>0.3015230847596688</v>
       </c>
       <c r="L249" t="n">
-        <v>0.0306613969418956</v>
+        <v>0.06156248008128784</v>
       </c>
       <c r="M249" t="n">
-        <v>0.144685910713251</v>
+        <v>0.3024269289807743</v>
       </c>
       <c r="N249" t="n">
-        <v>0.05560847396707036</v>
+        <v>0.09559060853494977</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1443368440469008</v>
+        <v>0.3007531433861345</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007958799180894899</v>
+        <v>0.01454933626712041</v>
       </c>
       <c r="G250" t="n">
-        <v>0.05398314469849986</v>
+        <v>0.3011677098365835</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02046523787772525</v>
+        <v>0.02698070280475232</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1477774562407251</v>
+        <v>0.3031617971768409</v>
       </c>
       <c r="L250" t="n">
-        <v>0.029713112109085</v>
+        <v>0.06063123185775507</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1454722471845186</v>
+        <v>0.3040705535948003</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05478579005250322</v>
+        <v>0.09325199200410861</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1451212834167209</v>
+        <v>0.30238767133932</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.00769048272483977</v>
+        <v>0.0133119368766962</v>
       </c>
       <c r="G251" t="n">
-        <v>0.05390478282805543</v>
+        <v>0.3027956434032678</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02026417317967251</v>
+        <v>0.02676372206820993</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1485762533014857</v>
+        <v>0.304800509594013</v>
       </c>
       <c r="L251" t="n">
-        <v>0.02896967383166657</v>
+        <v>0.05939598244930319</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1462585836557863</v>
+        <v>0.3057141782088262</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05395148441957909</v>
+        <v>0.09200722416356472</v>
       </c>
       <c r="O251" t="n">
-        <v>0.145905722786541</v>
+        <v>0.3040221992925055</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007429572039108712</v>
+        <v>0.01307351669366777</v>
       </c>
       <c r="G252" t="n">
-        <v>0.05382642095761101</v>
+        <v>0.304423576969952</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02026406267835221</v>
+        <v>0.0263449378640056</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1493750503622464</v>
+        <v>0.3064392220111851</v>
       </c>
       <c r="L252" t="n">
-        <v>0.02883114214753477</v>
+        <v>0.05815667731732452</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1470449201270539</v>
+        <v>0.3073578028228521</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05240591949727158</v>
+        <v>0.09125622171920711</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1466901621563611</v>
+        <v>0.305656727245691</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007176406975636783</v>
+        <v>0.01383406214480927</v>
       </c>
       <c r="G253" t="n">
-        <v>0.05374805908716659</v>
+        <v>0.3060515105366363</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02026491616111914</v>
+        <v>0.02582432602544049</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1501738474230071</v>
+        <v>0.3080779344283572</v>
       </c>
       <c r="L253" t="n">
-        <v>0.02889757709458396</v>
+        <v>0.05741326192321131</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1478312565983216</v>
+        <v>0.3090014274368781</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05124945771455464</v>
+        <v>0.08879890137692459</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1474746015261813</v>
+        <v>0.3072912551988765</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006931327386359168</v>
+        <v>0.01459355965689488</v>
       </c>
       <c r="G254" t="n">
-        <v>0.05366969721672216</v>
+        <v>0.3076794441033204</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01986674341532814</v>
+        <v>0.02530186238581572</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1509726444837678</v>
+        <v>0.3097166468455294</v>
       </c>
       <c r="L254" t="n">
-        <v>0.02826903871070863</v>
+        <v>0.0562656817283558</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1486175930695893</v>
+        <v>0.310645052050904</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05048246150040187</v>
+        <v>0.08843517984260624</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1482590408960014</v>
+        <v>0.308925783152062</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006694673123211023</v>
+        <v>0.01335199565669876</v>
       </c>
       <c r="G255" t="n">
-        <v>0.05359133534627775</v>
+        <v>0.3093073776700047</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01996955422833399</v>
+        <v>0.02487752277843244</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1517714415445285</v>
+        <v>0.3113553592627015</v>
       </c>
       <c r="L255" t="n">
-        <v>0.02764558703380315</v>
+        <v>0.05531388219415034</v>
       </c>
       <c r="M255" t="n">
-        <v>0.149403929540857</v>
+        <v>0.31228867666493</v>
       </c>
       <c r="N255" t="n">
-        <v>0.04940529328378707</v>
+        <v>0.08646497382214086</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1490434802658215</v>
+        <v>0.3105603111052475</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.006466784038127428</v>
+        <v>0.01210935657099511</v>
       </c>
       <c r="G256" t="n">
-        <v>0.05351297347583332</v>
+        <v>0.3109353112366889</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01967335838749154</v>
+        <v>0.02465128303659174</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1525702386052891</v>
+        <v>0.3129940716798736</v>
       </c>
       <c r="L256" t="n">
-        <v>0.02762728210176194</v>
+        <v>0.05515780878198714</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1501902660121246</v>
+        <v>0.3139323012789559</v>
       </c>
       <c r="N256" t="n">
-        <v>0.04971831549368405</v>
+        <v>0.08438820002141756</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1498279196356416</v>
+        <v>0.3121948390584331</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006247999983043553</v>
+        <v>0.01286562882655809</v>
       </c>
       <c r="G257" t="n">
-        <v>0.05343461160538889</v>
+        <v>0.3125632448033732</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01967816568015557</v>
+        <v>0.02402311899359477</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1533690356660498</v>
+        <v>0.3146327840970457</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02671418395247943</v>
+        <v>0.05419740695325848</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1509766024833923</v>
+        <v>0.3155759258929819</v>
       </c>
       <c r="N257" t="n">
-        <v>0.04752189055906658</v>
+        <v>0.08290477514632522</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1506123590054617</v>
+        <v>0.3138293670116186</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006038660809894555</v>
+        <v>0.01262079885016185</v>
       </c>
       <c r="G258" t="n">
-        <v>0.05335624973494447</v>
+        <v>0.3141911783700574</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01978398589368094</v>
+        <v>0.02379300648274263</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1541678327268105</v>
+        <v>0.3162714965142178</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0262063526238501</v>
+        <v>0.05293262216935665</v>
       </c>
       <c r="M258" t="n">
-        <v>0.15176293895466</v>
+        <v>0.3172195505070078</v>
       </c>
       <c r="N258" t="n">
-        <v>0.04781638090890844</v>
+        <v>0.0818146159027528</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1513967983752818</v>
+        <v>0.315463894964804</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005839106370615528</v>
+        <v>0.0133748530685806</v>
       </c>
       <c r="G259" t="n">
-        <v>0.05327788786450004</v>
+        <v>0.3158191119367416</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01949082881542244</v>
+        <v>0.02336092133733648</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1549666297875712</v>
+        <v>0.3179102089313899</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02570384815376825</v>
+        <v>0.05206339989167394</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1525492754259276</v>
+        <v>0.3188631751210338</v>
       </c>
       <c r="N259" t="n">
-        <v>0.04590214897218331</v>
+        <v>0.0801176389965893</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1521812377451019</v>
+        <v>0.3170984229179896</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005649676517141634</v>
+        <v>0.01312777790858848</v>
       </c>
       <c r="G260" t="n">
-        <v>0.05319952599405563</v>
+        <v>0.3174470455034259</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01929870423273491</v>
+        <v>0.02282683939067742</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1557654268483319</v>
+        <v>0.319548921348562</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02570673058012837</v>
+        <v>0.05098968558160261</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1533356118971953</v>
+        <v>0.3205067997350597</v>
       </c>
       <c r="N260" t="n">
-        <v>0.04527955717786503</v>
+        <v>0.07931376113372357</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1529656771149221</v>
+        <v>0.3187329508711751</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005470711101407989</v>
+        <v>0.01087955979695968</v>
       </c>
       <c r="G261" t="n">
-        <v>0.0531211641236112</v>
+        <v>0.3190749790701101</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01920762193297314</v>
+        <v>0.02249073647606659</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1565642239090925</v>
+        <v>0.3211876337657341</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02491505994082488</v>
+        <v>0.05011142470053492</v>
       </c>
       <c r="M261" t="n">
-        <v>0.154121948368463</v>
+        <v>0.3221504243490857</v>
       </c>
       <c r="N261" t="n">
-        <v>0.04424896795492744</v>
+        <v>0.07740289902004466</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1537501164847422</v>
+        <v>0.3203674788243606</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005302549975349735</v>
+        <v>0.01063018516046838</v>
       </c>
       <c r="G262" t="n">
-        <v>0.05304280225316677</v>
+        <v>0.3207029126367943</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01931759170349193</v>
+        <v>0.0218525884268051</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1573630209698532</v>
+        <v>0.3228263461829062</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02472889627375219</v>
+        <v>0.04922856270986312</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1549082848397307</v>
+        <v>0.3237940489631116</v>
       </c>
       <c r="N262" t="n">
-        <v>0.04301074373234415</v>
+        <v>0.0759849693614415</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1545345558545623</v>
+        <v>0.3220020067775461</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005145532990902042</v>
+        <v>0.01237964042588875</v>
       </c>
       <c r="G263" t="n">
-        <v>0.05296444038272236</v>
+        <v>0.3223308462034786</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01902862333164615</v>
+        <v>0.0216123710761941</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1581618180306139</v>
+        <v>0.3244650586000784</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0246482996168047</v>
+        <v>0.04794104507097952</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1556946213109983</v>
+        <v>0.3254376735771376</v>
       </c>
       <c r="N263" t="n">
-        <v>0.04236524693908894</v>
+        <v>0.07475988886380286</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1553189952243824</v>
+        <v>0.3236365347307317</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.01012791201999494</v>
       </c>
       <c r="G264" t="n">
-        <v>0.05288607851227793</v>
+        <v>0.3239587797701629</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01924072660479058</v>
+        <v>0.02097006025753469</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1589606150913745</v>
+        <v>0.3261037710172505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02397333000787688</v>
+        <v>0.04724881724527641</v>
       </c>
       <c r="M264" t="n">
-        <v>0.156480957782266</v>
+        <v>0.3270812981911635</v>
       </c>
       <c r="N264" t="n">
-        <v>0.04231284000413565</v>
+        <v>0.0729275742330181</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1561034345942025</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.05287292061754108</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005618059481100009</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.0528731891460051</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006232542467005359</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.05287345767446911</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006843405783471194</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.05287372620293314</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007450606256172998</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.05287399473139715</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.008054100710866097</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.05287426325986117</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008653845973279131</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.05287453178832519</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009249798869166596</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.05287480031678921</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009841916224205306</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.05287506884525323</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01043015486414989</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.05287533737371724</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01101447161472902</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.05287560590218125</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01159482330169653</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.05287587443064528</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01217116675073054</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.05287614295910929</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01274345878758504</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.05287641148757331</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01331165623798869</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.05287668001603732</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.0138757159276946</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.05287694854450135</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01443559468238233</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.05287721707296536</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01499124932780516</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.05287748560142937</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01554263668969174</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.05287775412989339</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01608971359379446</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.05287802265835741</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01663243686579432</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.05287829118682143</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01717076333144389</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.05287855971528545</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.01770464981647183</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.05287882824374946</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01823405314662973</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.05287909677221349</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01875893014760015</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.0528793653006775</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01927941394007623</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.05287963382914151</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01979651911943469</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.05287990235760553</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02031037880636777</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.05288017088606956</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.0208209498265594</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.05288043941453357</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02132818900576067</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.05288070794299758</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02183205316970023</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.0528809764714616</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02233249914412844</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.05288124499992562</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02282948375473037</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.05288151352838964</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02332296382725656</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.05288178205685366</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02381289618743565</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.05288205058531767</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02429923766101738</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.0528823191137817</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02478194507368806</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.05288258764224571</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02526097525119758</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.05288285617070972</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02573628501927461</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.05288312469917374</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02620783120366822</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.05288339322763776</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02667557063006606</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.05288366175610178</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02713946012421735</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.05288393028456579</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02759945651185074</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.0528841988130298</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02805551661871467</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.05288446734149383</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02850759727049808</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.05288473586995784</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02895565529294954</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.05288500439842186</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.0293996475117977</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.05288527292688588</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02983953075279032</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.0528855414553499</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03027526184161769</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.05288580998381392</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03070679760402774</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.05288607851227793</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03070679760402775</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.05287292061754108</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03117541511696138</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.05295181954491354</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03163961887541378</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.053030718472286</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.0320992853416176</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.05310961739965845</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03255429097780545</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.05318851632703091</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03300451224621009</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.05326741525440338</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.033449825609064</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.05334631418177584</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.0338901075285999</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.05342521310914829</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03432523446705044</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.05350411203652074</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03475508288664826</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.0535830109638932</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03517952924962599</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.05366190989126566</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03559845001821631</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.05374080881863812</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03601172165465182</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.05381970774601057</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03641922062116526</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.05389860667338304</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03682082337998913</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.0539775056007555</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03721640639335615</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.05405640452812795</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03760584612349896</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.05413530345550041</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.0379890190326502</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.05421420238287287</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03836580158304254</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.05429310131024532</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03873607023690856</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.05437200023761778</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03909970145648096</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.05445089916499023</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03945657170399244</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.05452979809236271</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03980655744167552</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.05460869701973516</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04014953513176289</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.05468759594710761</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04048538123648721</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.05476649487448007</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04081447666396448</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.05484539380185253</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04113972455172757</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.05492429272922499</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04146150580789247</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.05500319165659744</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.04177969689469187</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.0550820905839699</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04209417427435844</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.05516098951134236</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04240481440912469</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.05523988843871482</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04271149376122337</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.05531878736608728</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04301408879288708</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.05539768629345974</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.0433124759663485</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.05547658522083219</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04360653174384026</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.05555548414820465</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.043896132587595</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.0556343830755771</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04418115495984537</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.05571328200294956</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04446147532282405</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.05579218093032203</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0447369701387636</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.05587107985769448</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04500751586989674</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.05594997878506694</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04527298897845604</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.0560288777124394</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.0455332659266742</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.05610777663981185</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04578822317678388</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.05618667556718431</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04603773719101768</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.05626557449455677</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04628168443160827</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.05634447342192922</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.04651994136078826</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.05642337234930168</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.04675238444079038</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.05650227127667415</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.04697889013384716</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.05658117020404661</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.04719933490219133</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.05666006913141906</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.04741359520805549</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.05673896805879151</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04027573013870367</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.05673896805879151</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.04752150538890219</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.05833703935535016</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04762135910260319</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.0599351106519088</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.0477134689117823</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.06153318194846745</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.0477981473790632</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.06313125324502609</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.0478757070670697</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.06472932454158474</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04794646053842551</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.06632739583814339</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04801072035575442</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.06792546713470203</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04806879908168016</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.06952353843126068</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04812100927882647</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.07112160972781932</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.04816766350981712</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.07271968102437795</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04820907433727585</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.07431775232093661</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.04824555432382643</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.07591582361749524</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04827741603209258</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.0775138949140539</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04830497202469808</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.07911196621061253</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04832853486426666</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.08071003750717118</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04834841711342208</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.08230810880372982</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04836493133478811</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.08390618010028847</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04837839009098849</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.08550425139684711</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04838910594464696</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.08710232269340576</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04839739145838726</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.0887003939899644</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04840355919483316</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.09029846528652305</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04840792171660843</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.09189653658308169</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04841079158633678</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.09349460787964034</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.048412481366642</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.09509267917619899</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.04841330362014781</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.09669075047275763</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.048413570909478</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.09828882176931628</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04841165992803131</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.09988689306587491</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.04835731529052405</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1014849643624336</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04823216596835464</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1030830356589922</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04804144137873352</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1046811069555509</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04779037093887113</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1062791782521095</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04748418406597792</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.1078772495486681</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04712811017726432</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1094753208452268</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04672737868994079</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.1110733921417854</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.04628721902121775</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1126714634383441</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.04581286058830566</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1142695347349027</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04530953280841495</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1158676060314614</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04478246509875605</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.11746567732802</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04423688687653944</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1190637486245786</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04367802755897553</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1206618199211373</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04311111656327477</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1222598912176959</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04254138330664757</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1238579625142546</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04197405720630443</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1254560338108132</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04141436767945576</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1270541051073719</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04086754414331201</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1286521764039305</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04033881601508359</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1302502477004892</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03983341271198099</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1318483189970478</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03935656365121462</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1334463902936064</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03891349824999492</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1350444615901651</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03850944592553235</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1366425328867238</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03814031090348421</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1382406041832824</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03777474954962777</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.139838675479841</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03741005533662782</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1414367467763997</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.0370466243722839</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1430348180729583</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03668485276439562</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.144632889369517</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03632513662076252</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1462309606660756</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.0359678720491842</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.1478290319626343</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03561345515746024</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.0352622820533902</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1510251745557515</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03491474884477369</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1526232458523102</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03457125163941026</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1542213171488689</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03423218654509949</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1558193884454275</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.03389794966964096</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1574174597419861</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03356893712083424</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.1590155310385448</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03324554500647892</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1606136023351034</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03292816943437459</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.162211673631662</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03261720651232076</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1638097449282207</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.0323130523481171</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1654078162247793</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03201610304956314</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.167005887521338</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03172675472445845</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1686039588178966</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03144540348060262</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.1702020301144553</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03117244542579521</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1718001014110139</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03090827666783583</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1733981727075726</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03065329331452403</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.1749962440041312</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03040789147365941</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1765943153006899</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03017245481217405</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1781923865972485</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02994316145231435</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1797904578938072</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02971687908062481</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1813885291903658</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02949379426575105</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1829866004869244</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02927409357633855</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1845846717834831</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02905796358103292</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1861827430800418</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02884559084847969</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1877808143766004</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02863716194732444</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.189378885673159</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02843286344621269</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1909769569697177</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02823288191379006</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1925750282662763</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.02803740391870206</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1941730995628349</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02784661602959423</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1957711708593936</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02766070481511217</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1973692421559523</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02747985684390142</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1989673134525109</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02730425868460752</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2005653847490695</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02713409690587604</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2021634560456282</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02696955807635254</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2037615273421868</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02681082876468259</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2053595986387454</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02665809553951172</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.2069576699353041</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.0265115449694855</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2085557412318628</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02637136362324947</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2101538125284214</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.02623773806944922</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.21175188382498</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02611085487673027</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.2133499551215387</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.02599090061373821</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2149480264180973</v>
-      </c>
-    </row>
+        <v>0.3252710626839171</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1081.xlsx
@@ -2487,7 +2487,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2607,7 +2607,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2959,7 +2959,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3074,7 +3074,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3431,7 +3431,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3540,7 +3540,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4113,7 +4113,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4223,7 +4223,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF564"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9275,31 +9275,15 @@
         <f>A70</f>
         <v/>
       </c>
-      <c r="F65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="171" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="170" t="n"/>
+      <c r="G65" s="171" t="n"/>
       <c r="H65" s="171" t="n"/>
-      <c r="J65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" s="170" t="n"/>
+      <c r="K65" s="171" t="n"/>
+      <c r="L65" s="172" t="n"/>
+      <c r="M65" s="170" t="n"/>
+      <c r="N65" s="171" t="n"/>
+      <c r="O65" s="172" t="n"/>
       <c r="Q65" s="151" t="inlineStr">
         <is>
           <t>&lt; 0</t>
@@ -9317,31 +9301,15 @@
           <t>ind</t>
         </is>
       </c>
-      <c r="F66" s="170" t="n">
-        <v>0.002722135268517424</v>
-      </c>
-      <c r="G66" s="171" t="n">
-        <v>0.001627933566684235</v>
-      </c>
+      <c r="F66" s="170" t="n"/>
+      <c r="G66" s="171" t="n"/>
       <c r="H66" s="171" t="n"/>
-      <c r="J66" s="170" t="n">
-        <v>0.003353068959971207</v>
-      </c>
-      <c r="K66" s="171" t="n">
-        <v>0.001638712417172113</v>
-      </c>
-      <c r="L66" s="172" t="n">
-        <v>0.009948044471082385</v>
-      </c>
-      <c r="M66" s="170" t="n">
-        <v>0.001643624614025947</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.02031881233145155</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.001634527953185513</v>
-      </c>
+      <c r="J66" s="170" t="n"/>
+      <c r="K66" s="171" t="n"/>
+      <c r="L66" s="172" t="n"/>
+      <c r="M66" s="170" t="n"/>
+      <c r="N66" s="171" t="n"/>
+      <c r="O66" s="172" t="n"/>
       <c r="Q66" s="151" t="inlineStr">
         <is>
           <t>0-0,25</t>
@@ -9357,31 +9325,15 @@
       <c r="A67" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
-      </c>
-      <c r="G67" s="171" t="n">
-        <v>0.00303219041763745</v>
-      </c>
+      <c r="F67" s="170" t="n"/>
+      <c r="G67" s="171" t="n"/>
       <c r="H67" s="171" t="n"/>
-      <c r="J67" s="170" t="n">
-        <v>0.007499999999999993</v>
-      </c>
-      <c r="K67" s="171" t="n">
-        <v>0.003747187499999996</v>
-      </c>
-      <c r="L67" s="172" t="n">
-        <v>0.02249999999999999</v>
-      </c>
-      <c r="M67" s="170" t="n">
-        <v>0.004073029891304345</v>
-      </c>
-      <c r="N67" s="171" t="n">
-        <v>0.03749999999999998</v>
-      </c>
-      <c r="O67" s="172" t="n">
-        <v>0.003469618055555553</v>
-      </c>
+      <c r="J67" s="170" t="n"/>
+      <c r="K67" s="171" t="n"/>
+      <c r="L67" s="172" t="n"/>
+      <c r="M67" s="170" t="n"/>
+      <c r="N67" s="171" t="n"/>
+      <c r="O67" s="172" t="n"/>
       <c r="Q67" s="151" t="inlineStr">
         <is>
           <t>0,25&lt;</t>
@@ -9399,31 +9351,15 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="F68" s="170" t="n">
-        <v>0.007997794512674315</v>
-      </c>
-      <c r="G68" s="171" t="n">
-        <v>0.004883800700052706</v>
-      </c>
+      <c r="F68" s="170" t="n"/>
+      <c r="G68" s="171" t="n"/>
       <c r="H68" s="171" t="n"/>
-      <c r="J68" s="170" t="n">
-        <v>0.009469975369217253</v>
-      </c>
-      <c r="K68" s="171" t="n">
-        <v>0.004916137251516339</v>
-      </c>
-      <c r="L68" s="172" t="n">
-        <v>0.02541180470443472</v>
-      </c>
-      <c r="M68" s="170" t="n">
-        <v>0.004930873842077843</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.04459892430557383</v>
-      </c>
-      <c r="O68" s="172" t="n">
-        <v>0.00490358385955654</v>
-      </c>
+      <c r="J68" s="170" t="n"/>
+      <c r="K68" s="171" t="n"/>
+      <c r="L68" s="172" t="n"/>
+      <c r="M68" s="170" t="n"/>
+      <c r="N68" s="171" t="n"/>
+      <c r="O68" s="172" t="n"/>
       <c r="Q68" s="151" t="inlineStr">
         <is>
           <t>Суглинки</t>
@@ -9446,31 +9382,15 @@
           <t>devE0</t>
         </is>
       </c>
-      <c r="F69" s="170" t="n">
-        <v>0.007300067150506781</v>
-      </c>
-      <c r="G69" s="171" t="n">
-        <v>0.006511734266736941</v>
-      </c>
+      <c r="F69" s="170" t="n"/>
+      <c r="G69" s="171" t="n"/>
       <c r="H69" s="171" t="n"/>
-      <c r="J69" s="170" t="n">
-        <v>0.0122158475856476</v>
-      </c>
-      <c r="K69" s="171" t="n">
-        <v>0.006554849668688452</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.02975389458740385</v>
-      </c>
-      <c r="M69" s="170" t="n">
-        <v>0.006574498456103789</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.05245271074967767</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.006538111812742053</v>
-      </c>
+      <c r="J69" s="170" t="n"/>
+      <c r="K69" s="171" t="n"/>
+      <c r="L69" s="172" t="n"/>
+      <c r="M69" s="170" t="n"/>
+      <c r="N69" s="171" t="n"/>
+      <c r="O69" s="172" t="n"/>
       <c r="Q69" s="151" t="inlineStr">
         <is>
           <t xml:space="preserve">Пески и супеси </t>
@@ -9489,58 +9409,26 @@
       <c r="B70" t="n">
         <v>0.006068932534675907</v>
       </c>
-      <c r="F70" s="170" t="n">
-        <v>0.008362320836128138</v>
-      </c>
-      <c r="G70" s="171" t="n">
-        <v>0.008139667833421177</v>
-      </c>
+      <c r="F70" s="170" t="n"/>
+      <c r="G70" s="171" t="n"/>
       <c r="H70" s="171" t="n"/>
-      <c r="J70" s="170" t="n">
-        <v>0.01497539364142729</v>
-      </c>
-      <c r="K70" s="171" t="n">
-        <v>0.008193562085860565</v>
-      </c>
-      <c r="L70" s="172" t="n">
-        <v>0.03403740590058268</v>
-      </c>
-      <c r="M70" s="170" t="n">
-        <v>0.008218123070129736</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.05875851996453385</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.008172639765927567</v>
-      </c>
+      <c r="J70" s="170" t="n"/>
+      <c r="K70" s="171" t="n"/>
+      <c r="L70" s="172" t="n"/>
+      <c r="M70" s="170" t="n"/>
+      <c r="N70" s="171" t="n"/>
+      <c r="O70" s="172" t="n"/>
     </row>
     <row r="71">
-      <c r="F71" s="170" t="n">
-        <v>0.01092407856241663</v>
-      </c>
-      <c r="G71" s="171" t="n">
-        <v>0.00909657125291235</v>
-      </c>
+      <c r="F71" s="170" t="n"/>
+      <c r="G71" s="171" t="n"/>
       <c r="H71" s="171" t="n"/>
-      <c r="J71" s="170" t="n">
-        <v>0.01741482433235858</v>
-      </c>
-      <c r="K71" s="171" t="n">
-        <v>0.009832274503032678</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.03731193310340541</v>
-      </c>
-      <c r="M71" s="170" t="n">
-        <v>0.009861747684155686</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.06622912469196368</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.01040885416666666</v>
-      </c>
+      <c r="J71" s="170" t="n"/>
+      <c r="K71" s="171" t="n"/>
+      <c r="L71" s="172" t="n"/>
+      <c r="M71" s="170" t="n"/>
+      <c r="N71" s="171" t="n"/>
+      <c r="O71" s="172" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="151" t="inlineStr">
@@ -9553,31 +9441,15 @@
           <t>График E</t>
         </is>
       </c>
-      <c r="F72" s="170" t="n">
-        <v>0.01022070025000303</v>
-      </c>
-      <c r="G72" s="171" t="n">
-        <v>0.01139553496678965</v>
-      </c>
+      <c r="F72" s="170" t="n"/>
+      <c r="G72" s="171" t="n"/>
       <c r="H72" s="171" t="n"/>
-      <c r="J72" s="170" t="n">
-        <v>0.01906869055803882</v>
-      </c>
-      <c r="K72" s="171" t="n">
-        <v>0.01124156249999999</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.04264890762500126</v>
-      </c>
-      <c r="M72" s="170" t="n">
-        <v>0.01221908967391304</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.06896367019722088</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.01144169567229859</v>
-      </c>
+      <c r="J72" s="170" t="n"/>
+      <c r="K72" s="171" t="n"/>
+      <c r="L72" s="172" t="n"/>
+      <c r="M72" s="170" t="n"/>
+      <c r="N72" s="171" t="n"/>
+      <c r="O72" s="172" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="139" t="inlineStr">
@@ -9599,31 +9471,15 @@
         <f>B70</f>
         <v/>
       </c>
-      <c r="F73" s="170" t="n">
-        <v>0.01110504975148213</v>
-      </c>
-      <c r="G73" s="171" t="n">
-        <v>0.01302346853347388</v>
-      </c>
+      <c r="F73" s="170" t="n"/>
+      <c r="G73" s="171" t="n"/>
       <c r="H73" s="171" t="n"/>
-      <c r="J73" s="170" t="n">
-        <v>0.02086350816246879</v>
-      </c>
-      <c r="K73" s="171" t="n">
-        <v>0.0131096993373769</v>
-      </c>
-      <c r="L73" s="172" t="n">
-        <v>0.04401396415053491</v>
-      </c>
-      <c r="M73" s="170" t="n">
-        <v>0.01314899691220758</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.0743080608820873</v>
-      </c>
-      <c r="O73" s="172" t="n">
-        <v>0.01307622362548411</v>
-      </c>
+      <c r="J73" s="170" t="n"/>
+      <c r="K73" s="171" t="n"/>
+      <c r="L73" s="172" t="n"/>
+      <c r="M73" s="170" t="n"/>
+      <c r="N73" s="171" t="n"/>
+      <c r="O73" s="172" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="151" t="inlineStr">
@@ -9636,31 +9492,15 @@
           <t>Касательная</t>
         </is>
       </c>
-      <c r="F74" s="170" t="n">
-        <v>0.01195609301505563</v>
-      </c>
-      <c r="G74" s="171" t="n">
-        <v>0.01465140210015812</v>
-      </c>
+      <c r="F74" s="170" t="n"/>
+      <c r="G74" s="171" t="n"/>
       <c r="H74" s="171" t="n"/>
-      <c r="J74" s="170" t="n">
-        <v>0.02225912877534177</v>
-      </c>
-      <c r="K74" s="171" t="n">
-        <v>0.01474841175454902</v>
-      </c>
-      <c r="L74" s="172" t="n">
-        <v>0.04712068117767329</v>
-      </c>
-      <c r="M74" s="170" t="n">
-        <v>0.01479262152623353</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.07997432598771981</v>
-      </c>
-      <c r="O74" s="172" t="n">
-        <v>0.01471075157866962</v>
-      </c>
+      <c r="J74" s="170" t="n"/>
+      <c r="K74" s="171" t="n"/>
+      <c r="L74" s="172" t="n"/>
+      <c r="M74" s="170" t="n"/>
+      <c r="N74" s="171" t="n"/>
+      <c r="O74" s="172" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="151" t="n">
@@ -9680,31 +9520,15 @@
           <t>b</t>
         </is>
       </c>
-      <c r="F75" s="170" t="n">
-        <v>0.01276919295666857</v>
-      </c>
-      <c r="G75" s="171" t="n">
-        <v>0.01627933566684235</v>
-      </c>
+      <c r="F75" s="170" t="n"/>
+      <c r="G75" s="171" t="n"/>
       <c r="H75" s="171" t="n"/>
-      <c r="J75" s="170" t="n">
-        <v>0.02378592478987367</v>
-      </c>
-      <c r="K75" s="171" t="n">
-        <v>0.01638712417172113</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.05031199339461759</v>
-      </c>
-      <c r="M75" s="170" t="n">
-        <v>0.01643624614025947</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.0843191073043742</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.01634527953185513</v>
-      </c>
+      <c r="J75" s="170" t="n"/>
+      <c r="K75" s="171" t="n"/>
+      <c r="L75" s="172" t="n"/>
+      <c r="M75" s="170" t="n"/>
+      <c r="N75" s="171" t="n"/>
+      <c r="O75" s="172" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="173">
@@ -9722,31 +9546,15 @@
       <c r="D76" s="151" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="170" t="n">
-        <v>0.01353971249226597</v>
-      </c>
-      <c r="G76" s="171" t="n">
-        <v>0.01790726923352659</v>
-      </c>
+      <c r="F76" s="170" t="n"/>
+      <c r="G76" s="171" t="n"/>
       <c r="H76" s="171" t="n"/>
-      <c r="J76" s="170" t="n">
-        <v>0.02543751504478077</v>
-      </c>
-      <c r="K76" s="171" t="n">
-        <v>0.01802583658889324</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.05405465150248817</v>
-      </c>
-      <c r="M76" s="170" t="n">
-        <v>0.01807987075428542</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.0887990466223062</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.01797980748504065</v>
-      </c>
+      <c r="J76" s="170" t="n"/>
+      <c r="K76" s="171" t="n"/>
+      <c r="L76" s="172" t="n"/>
+      <c r="M76" s="170" t="n"/>
+      <c r="N76" s="171" t="n"/>
+      <c r="O76" s="172" t="n"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="151" t="inlineStr">
@@ -9758,30 +9566,6 @@
         <is>
           <t>p1 и p2</t>
         </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0.01626301453779284</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.01953520280021082</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.02680751837877937</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.01966454900606536</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.05741540620240543</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.01972349536831137</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.09417078573177151</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.01961433543822616</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9799,30 +9583,6 @@
         <f>D76</f>
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v>0.01493446200919421</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.02116313636689506</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.02798955363058576</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.02130326142323747</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.06026100819548968</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.02136711998233732</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.09799096642302602</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.02124886339141167</v>
-      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="173">
@@ -9841,60 +9601,12 @@
         <f>B89+0.2*B89</f>
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v>0.01754941782241511</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.02279106993357929</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.02907723963891629</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.02294197384040958</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.06315820818286136</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.02301074459636326</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.1025162304863254</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.02288339134459719</v>
-      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="151" t="inlineStr">
         <is>
           <t>Касательная линия E50</t>
         </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.01610324489340055</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.02441900350026353</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.03036419524248717</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.02458068625758169</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.06547375686564078</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.02465436921038921</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.1065032197119254</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.0245179192977827</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9909,30 +9621,6 @@
           <t>Горизонтальная 1</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0.01659130613809557</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.02604693706694776</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.03134403928001474</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.02621939867475381</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.0684744049449483</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.02629799382441516</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.1099085758900818</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.02615244725096821</v>
-      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="173">
@@ -9943,30 +9631,6 @@
         <f>B79+(B86-B79)*0.8</f>
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v>0.01800896447244516</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.027674870633632</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.03211039059021531</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.02785811109192592</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.07022690312190435</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.02794161843844111</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.1122889408110504</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.02778697520415373</v>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="151" t="inlineStr">
@@ -9974,30 +9638,6 @@
           <t>Горизонтальная линия qкр</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0.01835158281239438</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.02930280420031623</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.03295686801180513</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.02949682350909803</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.07209800209762929</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.02958524305246706</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.1157009562650869</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.02942150315733924</v>
-      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="151" t="inlineStr">
@@ -10009,30 +9649,6 @@
         <is>
           <t>Горизонтальная 2</t>
         </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.01862386209558908</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.03093073776700047</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.03337709038350054</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.03113553592627015</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.07385445257324341</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.031228867666493</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.1170012640424469</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.03105603111052475</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10050,30 +9666,6 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v>0.01987986188453253</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.03255867133368471</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.03397063321746087</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.03277424834344226</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.07566300524986716</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.03287249228051894</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.1193041327847744</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.03269055906371027</v>
-      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="172">
@@ -10092,60 +9684,12 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v>0.01912764102732105</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.03418660490036893</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.03442276445364764</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.03441296076061438</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.07610095405797138</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.0345161168945449</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.1200496256572995</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.03432508701689578</v>
-      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="151" t="inlineStr">
         <is>
           <t>Вертикальная линия q</t>
         </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.01836551875117183</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.03581453846705317</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.03486088623391423</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.03605167317778649</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.07770134737484169</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.03615974150857084</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1213420091425941</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.03595961497008129</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10158,30 +9702,6 @@
       </c>
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
-      <c r="F88" t="n">
-        <v>0.01959181428330207</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.03744247203373741</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.03518200599553201</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.0376903855949586</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.07856705830443264</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.03780336612259679</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.1238709689294837</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.03759414292326681</v>
-      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="172">
@@ -10192,4581 +9712,182 @@
         <f>B86</f>
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v>0.01980484685092894</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.03907040560042165</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.0357831311757722</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.03932909801213071</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.07969133333003048</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.03944699073662274</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.1248261907067942</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.03922867087645232</v>
-      </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="F90" t="n">
-        <v>0.01900293568126965</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.04069833916710588</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.03596126921190622</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.04096781042930282</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.08006741893492159</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.04109061535064868</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.1261973601633515</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.04086319882963783</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="F91" t="n">
-        <v>0.02018440000154137</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.04232627273379012</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.03661342754120533</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.04260652284647494</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.08068856160239232</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.04273423996467463</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.1276741629879814</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.04249772678282335</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="F92" t="n">
-        <v>0.0193475590389613</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.04395420630047436</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.03673661360094084</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.04424523526364705</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.08184800781572901</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.04437786457870058</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.1286462848695098</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.04413225473600886</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="F93" t="n">
-        <v>0.02049073202074662</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.04558213986715859</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.03692783482838412</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.04588394768081917</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.08243900405821805</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.04602148919272653</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.1288034114967624</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.04576678268919437</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="F94" t="n">
-        <v>0.02061223817411453</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.04721007343384282</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0374840986608064</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.04752266009799128</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.08275479681314579</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.04766511380675248</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.1305352285585653</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.04740131064237989</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="F95" t="n">
-        <v>0.01971039672628222</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.04883800700052706</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.03740241253547907</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.04916137251516339</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.08348863256379851</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.04930873842077842</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.1310314217437439</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.0490358385955654</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="F96" t="n">
-        <v>0.02178352690446687</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.05046594056721129</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.0375797838896734</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.0508000849323355</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.08373375779346262</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.05095236303480437</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.1305816767411244</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.05067036654875091</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="F97" t="n">
-        <v>0.02184815712483326</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.05209387413389552</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.03791322016066072</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.05243879734950761</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.08488341898542451</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.05259598764883031</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.1321756792395325</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.05230489450193643</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="F98" t="n">
-        <v>0.01984797904775581</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.05372180770057976</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.03813738111607763</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.05407750976667972</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.08503086262297044</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.05423961226285626</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.1324582493839274</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.05393942245512194</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="F99" t="n">
-        <v>0.02084237066994111</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.055349741267264</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.0380363172020996</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.05571622218385184</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.08529781525000252</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.05588323687688222</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.131256023792509</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.05557395040830746</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="F100" t="n">
-        <v>0.02182263337791419</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.05697767483394824</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.0379291185230006</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.05735493460102395</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.08489503912212942</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.05752686149090815</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.1316922241620501</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.05720847836149296</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="F101" t="n">
-        <v>0.02178974341809742</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.05860560840063247</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.03799641621939702</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.05899364701819607</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.08514868506306605</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.05917048610493411</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.1322444402000116</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.05884300631467848</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="F102" t="n">
-        <v>0.02174458660621812</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.0602335419673167</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.03774032586816213</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.06063235943536818</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.0850479734708646</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.06081411071896006</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.1319181078458307</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.06047753426786399</v>
-      </c>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="F103" t="n">
-        <v>0.02068804875800365</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.06186147553400094</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.03766242463615467</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.06227107185254029</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.08499646364359376</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.06245773533298599</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.1305186630389442</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.06211206222104951</v>
-      </c>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="F104" t="n">
-        <v>0.01962101568918134</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.06348940910068518</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.03776428969023336</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0639097842697124</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.08399771487932228</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.06410135994701195</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.1306515417187892</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.06374659017423502</v>
-      </c>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="F105" t="n">
-        <v>0.02054437321547853</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.06511734266736942</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.03744749819725698</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.06554849668688452</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.08375528647611891</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.06574498456103789</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.1304221798248028</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.06538111812742053</v>
-      </c>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="F106" t="n">
-        <v>0.02045900715262257</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.06674527623405364</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.03761362732408424</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.06718720910405664</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.08417273773205231</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.06738860917506384</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.1304360132964218</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.06701564608060605</v>
-      </c>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="F107" t="n">
-        <v>0.0203658033163408</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.06837320980073787</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.03746425423757392</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.06882592152122875</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.08385362794519124</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.06903223378908979</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.1297984780730835</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.06865017403379156</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="F108" t="n">
-        <v>0.02026564752236056</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.07000114336742211</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.03730095610458471</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.07046463393840086</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.08310151641360439</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.07067585840311573</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.1290150100942248</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.07028470198697707</v>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="F109" t="n">
-        <v>0.01915942558640917</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.07162907693410635</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.03712531009197539</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.07210334635557297</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.08291996243536046</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.07231948301714168</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.1275910452992829</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.07191922994016259</v>
-      </c>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="F110" t="n">
-        <v>0.02004802332421401</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.07325701050079059</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.03693889336660471</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.07374205877274508</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.08211252530852822</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.07396310763116763</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.1277320196276945</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.0735537578933481</v>
-      </c>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="F111" t="n">
-        <v>0.01993232655150239</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.07488494406747483</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.03644328309533136</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.07538077118991719</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.08158276433117637</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.07560673224519358</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.126443369018897</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.07518828584653361</v>
-      </c>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="F112" t="n">
-        <v>0.01881322108400166</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.07651287763415907</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.0363400564450141</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.07701948360708931</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.08123423880137359</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.07725035685921952</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.1255305294123271</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.07682281379971913</v>
-      </c>
-    </row>
-    <row r="113" ht="15" customHeight="1">
-      <c r="F113" t="n">
-        <v>0.01869159273743917</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.07814081120084329</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.03633079058251172</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.07865819602426143</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.08137050801718865</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.07889398147324549</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.1251989367474221</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.07845734175290464</v>
-      </c>
-    </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="F114" t="n">
-        <v>0.01856832732754225</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.07976874476752753</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.03591706267468291</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.08029690844143353</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.08059513127669019</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.08053760608727142</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.1250540269636187</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.08009186970609015</v>
-      </c>
-    </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="F115" t="n">
-        <v>0.01844431067003825</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.08139667833421176</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.03590044988838642</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.08193562085860565</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.08041166787794701</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.08218123070129736</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.1235012360003542</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.08172639765927567</v>
-      </c>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="F116" t="n">
-        <v>0.0193204285806545</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.08302461190089599</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.03548252939048099</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.08357433327577776</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.07952367711902777</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.08382485531532331</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.1234459997970657</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.08336092561246118</v>
-      </c>
-    </row>
-    <row r="117" ht="15" customHeight="1">
-      <c r="F117" t="n">
-        <v>0.02019756687511835</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.08465254546758023</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.03546487834782537</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.08521304569294988</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.07903471829800121</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.08546847992934926</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.1220937542931899</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.08499545356564669</v>
-      </c>
-    </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="F118" t="n">
-        <v>0.01907308615927397</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.08628047903426447</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.03524907392727832</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.08685175811012198</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.07884835071293603</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.08711210454337522</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.1212499354281641</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.08662998151883221</v>
-      </c>
-    </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="F119" t="n">
-        <v>0.01893187213565061</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.08790841260094871</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.03472963858141868</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.0884904705272941</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.0783669675311264</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.08875572915740115</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1206562475636451</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.08826450947201772</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="F120" t="n">
-        <v>0.01877456141080372</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.08953634616763294</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.03468018315010346</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.09012918294446622</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.07723837978930123</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.0903993537714271</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.1204538883283022</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.08989903742520323</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="F121" t="n">
-        <v>0.01760404007825914</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.09116427973431718</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.03430249418922461</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.09176789536163833</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.07664127521253797</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.09204297838545306</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.1181604980004345</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.09153356537838875</v>
-      </c>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="F122" t="n">
-        <v>0.01942319423154272</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.0927922133010014</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0342017102969349</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.09340660777881045</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.07628725041940596</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.09368660299947899</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.1180937875205142</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.09316809333157426</v>
-      </c>
-    </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="F123" t="n">
-        <v>0.01823490996418034</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.09442014686768564</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.03388297007138713</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.09504532019598255</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.07588790202847456</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.09533022761350496</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.1166714678290134</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.09480262128475977</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1">
-      <c r="F124" t="n">
-        <v>0.01804207336969783</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.09604808043436988</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.03345141211073401</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.09668403261315466</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.07455482665831317</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.0969738522275309</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.1161112498664039</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.09643714923794529</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1">
-      <c r="F125" t="n">
-        <v>0.0178475705416211</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.09767601400105412</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.03291217501312838</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.09832274503032677</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.07389962092749119</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0.09861747684155683</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.1141308445731581</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.0980716771911308</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="F126" t="n">
-        <v>0.01665428757347595</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.09930394756773835</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.03277039737672295</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.09996145744749889</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.07383388145457795</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.1002611014555828</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.1126479628897479</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.09970620514431631</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="F127" t="n">
-        <v>0.01846511055878826</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.1009318811344226</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.03253121779967054</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.101600169864671</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.07266920485814279</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.1019047260696087</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.1114803157566454</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.1013407330975018</v>
-      </c>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="F128" t="n">
-        <v>0.0162829255910839</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.1025598147011068</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.03219977488012392</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.1032388822818431</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.07181718775675516</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.1035483506836347</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.1106456141143227</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.1029752610506873</v>
-      </c>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="F129" t="n">
-        <v>0.01610760148866908</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.104187748267791</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.03178120721623581</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.1048775946990152</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.07148942676898437</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.1051919752976606</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.1090615689032519</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.1046097890038729</v>
-      </c>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="F130" t="n">
-        <v>0.01591869780505294</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.1058156818344753</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.03157231656341036</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.1065163071161873</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.07019622973276163</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.1068355999116866</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.109069447476394</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.1062443169570584</v>
-      </c>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="F131" t="n">
-        <v>0.01571520114194656</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.1074436154011595</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.03093704492844268</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.1081550195333594</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.06977113110800365</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.1084792245257125</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.1069756395716851</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.1078788449102439</v>
-      </c>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="F132" t="n">
-        <v>0.01750124294307772</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.1090715489678438</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.03057683424637182</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.1097937319505316</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.06858332053499641</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.1101228491397385</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.1059042879043082</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.1095133728634294</v>
-      </c>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="F133" t="n">
-        <v>0.01528095465217415</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.110699482534528</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.03039904042195882</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.1114324443677037</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.06844939857661911</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.1117664737537644</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.1054807456907375</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.1111479008166149</v>
-      </c>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="F134" t="n">
-        <v>0.01505846771296362</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.1123274161012122</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.02991101935996472</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.1130711567848758</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.06728596579575111</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.1134100983677904</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.1038303661474473</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.1127824287698004</v>
-      </c>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="F135" t="n">
-        <v>0.01683791356917388</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.1139553496678965</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0294201269651506</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.1147098692020479</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.0667096227552717</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.1150537229818163</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.1015785024909118</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.1144169567229859</v>
-      </c>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="F136" t="n">
-        <v>0.01562342366453269</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.1155832832345807</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.02903371914227749</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.11634858161922</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.06553697001806016</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.1166973475958423</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.1014505079376051</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.1160514846761714</v>
-      </c>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="F137" t="n">
-        <v>0.01641912944276777</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1172112168012649</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.02895915179610646</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.1179872940363921</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.06458460814699579</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.1183409722098682</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.09927173570400155</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.117686012629357</v>
-      </c>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="F138" t="n">
-        <v>0.01522916234760689</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.1188391503679492</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.02850378083139854</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.1196260064535642</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.06356913770495792</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.1199845968238942</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.09866753900657543</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.1193205405825425</v>
-      </c>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="F139" t="n">
-        <v>0.0140576538227778</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.1204670839346334</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.02797496215291483</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.1212647188707364</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.06280715925482583</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.1216282214379201</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.09676327106180094</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.120955068535728</v>
-      </c>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="F140" t="n">
-        <v>0.01490873531200826</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.1220950175013176</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.02798005166541633</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.1229034312879085</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.06211527335947881</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.123271846051946</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.09668428508615218</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.1225895964889135</v>
-      </c>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="F141" t="n">
-        <v>0.014786538259026</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.1237229510680019</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.02752640527366411</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.1245421437050806</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.06161008058179621</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.124915470665972</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.09475593429610335</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.124224124442099</v>
-      </c>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="F142" t="n">
-        <v>0.0156951941075588</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.1253508846346861</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.02732137888241924</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.1261808561222527</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.06100818148465723</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.126559095279998</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.09430357190812899</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.1258586523952845</v>
-      </c>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="F143" t="n">
-        <v>0.01363883430133439</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.1269788182013704</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.02707232839644276</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.1278195685394248</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.06072617663094126</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.1282027198940239</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.09445255113870293</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.12749318034847</v>
-      </c>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="F144" t="n">
-        <v>0.01562145527991179</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.1286067517680546</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.02698660972049574</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.1294582809565969</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.06028066658352751</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.1298463445080499</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.09452822520429977</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.1291277083016556</v>
-      </c>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="F145" t="n">
-        <v>0.01362505390111837</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.1302346853347388</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.02716870921720395</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.131096993373769</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.06038825190529543</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.1314899691220758</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.09341448986168427</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.1307622362548411</v>
-      </c>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="F146" t="n">
-        <v>0.01363457758771212</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.1318626189014231</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.02727731964931068</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.1327357057909412</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.060398749991043</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.1331335937361017</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.0936553798821449</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.1323967642080266</v>
-      </c>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="F147" t="n">
-        <v>0.01464972276271288</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.1334905524681073</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.02729629265085411</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.1343744182081133</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.06073326234222551</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.1347772183501277</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.09413151470138609</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.1340312921612121</v>
-      </c>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="F148" t="n">
-        <v>0.01467018584914049</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.1351184860347915</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.0271250877126319</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.1360131306252854</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.06069030107730031</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.1364208429641536</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.09424103137429668</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.1356658201143976</v>
-      </c>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="F149" t="n">
-        <v>0.01569566327001478</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.1367464196014757</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.02726316432544178</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.1376518430424575</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.06056864639295426</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.1380644675781796</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.09428206695576541</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.1373003480675831</v>
-      </c>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="F150" t="n">
-        <v>0.01572585144835559</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.13837435316816</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.02740998198008136</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.1392905554596296</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.06106707848587387</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.1397080921922055</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.09435275850068131</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.1389348760207686</v>
-      </c>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="F151" t="n">
-        <v>0.01576044680718276</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.1400022867348442</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.02736500016734839</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.1409292678768017</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.06078437755274593</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.1413517168062315</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.09515124306393313</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.1405694039739541</v>
-      </c>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="F152" t="n">
-        <v>0.01479914576951612</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.1416302203015285</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.02722767837804051</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.1425679802939738</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.06151932379025707</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.1429953414202574</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.09487565770040973</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.1422039319271397</v>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="F153" t="n">
-        <v>0.01584164475837553</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.1432581538682127</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.02749747610295537</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.1442066927111459</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.06127069739509397</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.1446389660342834</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.0953241394649999</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.1438384598803252</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="F154" t="n">
-        <v>0.01588764019678082</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.1448860874348969</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.02757385283289071</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.1458454051283181</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.06153727856394334</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.1462825906483093</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.09549482541259252</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.1454729878335107</v>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="F155" t="n">
-        <v>0.0159368285077518</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.1465140210015812</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.02745626805864418</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.1474841175454902</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.06201784749349187</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.1479262152623353</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.09538585259807647</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.1471075157866962</v>
-      </c>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="F156" t="n">
-        <v>0.01498890783508735</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.1481419545682654</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.02754418127101346</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.1491228299626623</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.06221118438042625</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.1495698398763612</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.09589535807634053</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.1487420437398817</v>
-      </c>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="F157" t="n">
-        <v>0.01606971532274383</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.1497698881349497</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.02794124488667148</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.1507615423798344</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.06211606942143313</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.1512134644903872</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.09717425862755014</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.1503765716930672</v>
-      </c>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="F158" t="n">
-        <v>0.01519832077722146</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.1513978217016339</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.02810966162989391</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.1524002547970065</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.06222913432733518</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.1528570891044131</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.09663841185124633</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.1520110996462527</v>
-      </c>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="F159" t="n">
-        <v>0.01436555994219833</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.1530257552683181</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.02815778847938046</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.1540389672141786</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.06303315590847472</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.154500713718439</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.09796274014524858</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.1536456275994383</v>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="F160" t="n">
-        <v>0.01456226856135248</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.1546536888350024</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.02856930876687849</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.1556776796313507</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0.06389136942353046</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.156144338332465</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.09889100569302961</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.1552801555526238</v>
-      </c>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="F161" t="n">
-        <v>0.014779282378362</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.1562816224016866</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.02882790582413544</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.1573163920485229</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0.06446695195457361</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0.157787962946491</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.1010669706780617</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.1569146835058093</v>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="F162" t="n">
-        <v>0.01600743713690497</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.1579095559683708</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.02911726298289873</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.158955104465695</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.06512308058367544</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.1594315875605169</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.1025343972838174</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.1585492114589948</v>
-      </c>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="F163" t="n">
-        <v>0.01723756858065945</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.1595374895350551</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.02952106357491571</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.1605938168828671</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.06582293239290724</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.1610752121745428</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.103737047693769</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.1601837394121803</v>
-      </c>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="F164" t="n">
-        <v>0.01646051245330351</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.1611654231017393</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.02992299093193385</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.1622325293000392</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.06672968446434024</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.1627188367885688</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.1041186840913891</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.1618182673653658</v>
-      </c>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="F165" t="n">
-        <v>0.01566710449851522</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.1627933566684235</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.03050672838570048</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.1638712417172113</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.06750651388004572</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.1643624614025947</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.1062230686601502</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.1634527953185513</v>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="F166" t="n">
-        <v>0.01684818045997266</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.1644212902351078</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.03075595926796308</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.1655099541343834</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.06891659772209496</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.1660060860166207</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.1077939635835247</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.1650873232717369</v>
-      </c>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="F167" t="n">
-        <v>0.01600982860068008</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.166049223801792</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.03125698674864749</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.1671486665515555</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.06912312566446407</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.1676497106306466</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.1085057370901197</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.1667218512249224</v>
-      </c>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="F168" t="n">
-        <v>0.01716742080196477</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.1676771573684762</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.03153834646410694</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.1687873789687276</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.06965900471974215</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0.1692933352446726</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.1095743849306153</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.1683563791781079</v>
-      </c>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="F169" t="n">
-        <v>0.01832128707889277</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.1693050909351605</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.03161278907577744</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.1704260913858998</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.07047898498892871</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.1709369598586985</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.1104195693651765</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.1699909071312934</v>
-      </c>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="F170" t="n">
-        <v>0.01847171814925706</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.1709330245018447</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.0318808321974856</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.1720648038030718</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.0712842346058094</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0.1725805844727245</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.1106430744266075</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.1716254350844789</v>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="F171" t="n">
-        <v>0.01761900473085057</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.1725609580685289</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.03224299344305802</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.173703516220244</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.07187592170417001</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0.1742242090867504</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.1124466841477121</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.1732599630376644</v>
-      </c>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="F172" t="n">
-        <v>0.01676343754146628</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.1741888916352132</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.03229979042632136</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.1753422286374161</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0.07265521441779618</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.1758678337007764</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.113032182561294</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.1748944909908499</v>
-      </c>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="F173" t="n">
-        <v>0.01890530729889715</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.1758168252018974</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.03265174076110215</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.1769809410545882</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.07302328088047366</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0.1775114583148023</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.1135013537001575</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.1765290189440354</v>
-      </c>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="F174" t="n">
-        <v>0.01904490472093615</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.1774447587685816</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.0330993620612271</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.1786196534717603</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.07308128922598814</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0.1791550829288283</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.1145559815971062</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.178163546897221</v>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="F175" t="n">
-        <v>0.01718252052537622</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.1790726923352659</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.03314317194052277</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.1802583658889324</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.07423040758812541</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.1807987075428542</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.1149978502849442</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.1797980748504065</v>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="F176" t="n">
-        <v>0.01731844543001033</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.1807006259019501</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.03338368801281577</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.1818970783061045</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.07487180410067112</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0.1824423321568802</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.1159287437964753</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.181432602803592</v>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="F177" t="n">
-        <v>0.01745297015263145</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.1823285594686344</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.03362142789193273</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.1835357907232767</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.07550664689741096</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.1840859567709061</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.1173504461645035</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.1830671307567775</v>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="F178" t="n">
-        <v>0.01758868164987354</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.1839564930353186</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.03395693757732089</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.1851745031404488</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.07553610411213071</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.1857295813849321</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.1177675448035208</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.184701658709963</v>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="F179" t="n">
-        <v>0.01873236451213162</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.1855844266020028</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.03420156099062201</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.1868132155576209</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.07577590393405714</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.187373205998958</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.1181267057157445</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.1863361866631485</v>
-      </c>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="F180" t="n">
-        <v>0.01788001850518496</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.1872123601686871</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.03455817970506013</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.188451927974793</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.07664664150834999</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.1890168306129839</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.1201206472514948</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.187970714616334</v>
-      </c>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="F181" t="n">
-        <v>0.01802664961009771</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.1888402937353713</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.0346179020280242</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.1900906403919651</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.07752939986978136</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.1906604552270099</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.1207187228737497</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.1896052425695195</v>
-      </c>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="F182" t="n">
-        <v>0.01916726380793399</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.1904682273020555</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.03497183626690316</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.1917293528091372</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.07770411254018314</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0.1923040798410358</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.1218902860454873</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.191239770522705</v>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="F183" t="n">
-        <v>0.01829686707975797</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.1920961608687398</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.0351110907290859</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.1933680652263093</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.07845071304138743</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.1939477044550618</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.121804690229685</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.1928742984758906</v>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="F184" t="n">
-        <v>0.01841046540663376</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.193724094435424</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.0355267737219614</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.1950067776434815</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.07864913489522615</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.1955913290690877</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.1232312888893212</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.1945088264290761</v>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="F185" t="n">
-        <v>0.0205030647696255</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.1953520280021082</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.03540999355291859</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.1966454900606535</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.07897931162353142</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.1972349536831137</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.1241394354873736</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.1961433543822616</v>
-      </c>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="F186" t="n">
-        <v>0.02056975513364328</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.1969799615687925</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.03575185852934634</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.1982842024778257</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.07972117674813523</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0.1988785782971396</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.12339848348682</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.1977778823354471</v>
-      </c>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="F187" t="n">
-        <v>0.01862336117488819</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.1986078951354767</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.03565196448979735</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.1999229148949978</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0.07956116906666547</v>
-      </c>
-      <c r="M187" t="n">
-        <v>0.2005222029111656</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.1246320907789175</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0.1994124102886326</v>
-      </c>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="F188" t="n">
-        <v>0.01867580795943641</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.2002358287021609</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.03574515571131683</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.2015616273121699</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0.07977127747019735</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0.2021658275251915</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.1250535452114151</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0.2010469382418181</v>
-      </c>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="F189" t="n">
-        <v>0.01972707710862252</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.2018637622688452</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.03603628034001075</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.203200339729342</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0.0800767527671862</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0.2038094521392175</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.1244678366470602</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0.2026814661950037</v>
-      </c>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="F190" t="n">
-        <v>0.019777150243781</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.2034916958355294</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.03592530565324713</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.2048390521465141</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0.08087752111027713</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0.2054530767532434</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.1246748523024496</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0.2043159941481892</v>
-      </c>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="F191" t="n">
-        <v>0.02082600898624643</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.2051196294022136</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.03611219892839393</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.2064777645636862</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0.08037350865211498</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0.2070967013672694</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0.1254744793941801</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0.2059505221013747</v>
-      </c>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="F192" t="n">
-        <v>0.01887363495735334</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.2067475629688979</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.03619692744281919</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.2081164769808584</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.08096464154534488</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0.2087403259812953</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.1253666051388484</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0.2075850500545602</v>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="F193" t="n">
-        <v>0.01992000977843627</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.2083754965355821</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.03647945847389084</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.2097551893980305</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0.08115084594261179</v>
-      </c>
-      <c r="M193" t="n">
-        <v>0.2103839505953213</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.1257511167530512</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0.2092195780077457</v>
-      </c>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="F194" t="n">
-        <v>0.02096511507082976</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.2100034301022664</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.03625975929897694</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.2113939018152026</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0.08173204799656075</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0.2120275752093472</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0.1268279014533855</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0.2108541059609312</v>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="F195" t="n">
-        <v>0.02000893245586835</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.2116313636689506</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0.03653779719544545</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.2130326142323747</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0.08110817385983674</v>
-      </c>
-      <c r="M195" t="n">
-        <v>0.2136711998233732</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0.1263968464564477</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0.2124886339141167</v>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="F196" t="n">
-        <v>0.01905144355488658</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.2132592972356348</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.03651353944066438</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.2146713266495468</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0.08157914968508473</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0.2153148244373991</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.1262578389788347</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.2141231618673022</v>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="F197" t="n">
-        <v>0.01909262998921899</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.2148872308023191</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.03648695331200172</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.2163100390667189</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0.08144490162494983</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0.216958449051425</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.1266107662371435</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0.2157576898204878</v>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="F198" t="n">
-        <v>0.02013247338020013</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.2165151643690033</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0.03685800608682545</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.217948751483891</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0.08220535583207694</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0.218602073665451</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.1271555154479707</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0.2173922177736733</v>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="F199" t="n">
-        <v>0.01917095534916453</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.2181430979356875</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0.03662666504250356</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.2195874639010632</v>
-      </c>
-      <c r="L199" t="n">
-        <v>0.08256043845911112</v>
-      </c>
-      <c r="M199" t="n">
-        <v>0.220245698279477</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0.1273919738279129</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0.2190267457268588</v>
-      </c>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="F200" t="n">
-        <v>0.02020805751744672</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.2197710315023718</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0.03689289745640406</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.2212261763182353</v>
-      </c>
-      <c r="L200" t="n">
-        <v>0.08241007565869737</v>
-      </c>
-      <c r="M200" t="n">
-        <v>0.2218893228935029</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.1282200285935671</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.2206612736800443</v>
-      </c>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="F201" t="n">
-        <v>0.02024376150638127</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.221398965069056</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0.03675667060589495</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.2228648887354074</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0.08205419358348068</v>
-      </c>
-      <c r="M201" t="n">
-        <v>0.2235329475075289</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0.1283395669615299</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0.2222958016332298</v>
-      </c>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="F202" t="n">
-        <v>0.02127804893730269</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.2230268986357402</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0.03691795176834421</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.2245036011525795</v>
-      </c>
-      <c r="L202" t="n">
-        <v>0.08279271838610605</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0.2251765721215548</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0.1277504761483981</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.2239303295864153</v>
-      </c>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="F203" t="n">
-        <v>0.02131090143154554</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.2246548322024245</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0.03717670822111983</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.2261423135697516</v>
-      </c>
-      <c r="L203" t="n">
-        <v>0.08282557621921849</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0.2268201967355807</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.1284526433707686</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.2255648575396009</v>
-      </c>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="F204" t="n">
-        <v>0.02034230061044433</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.2262827657691087</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0.03713290724158982</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.2277810259869237</v>
-      </c>
-      <c r="L204" t="n">
-        <v>0.08325269323546305</v>
-      </c>
-      <c r="M204" t="n">
-        <v>0.2284638213496067</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.1291459558452379</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0.2271993854927864</v>
-      </c>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="F205" t="n">
-        <v>0.02037222809533366</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.227910699335793</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0.03718651610712216</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.2294197384040958</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0.08257399558748468</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0.2301074459636326</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0.1295303007884029</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0.2288339134459718</v>
-      </c>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="F206" t="n">
-        <v>0.02140066550754801</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.2295386329024772</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0.03723750209508485</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.2310584508212679</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0.08338940942792841</v>
-      </c>
-      <c r="M206" t="n">
-        <v>0.2317510705776586</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0.1293055654168604</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0.2304684413991574</v>
-      </c>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="F207" t="n">
-        <v>0.01942759446842194</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.2311665664691614</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.03728583248284589</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.2326971632384401</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0.08359886090943924</v>
-      </c>
-      <c r="M207" t="n">
-        <v>0.2333946951916845</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.1289716369472071</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0.2321029693523429</v>
-      </c>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="F208" t="n">
-        <v>0.01945299659929001</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.2327945000358456</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0.03713147454777325</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.2343358756556121</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0.08310227618466223</v>
-      </c>
-      <c r="M208" t="n">
-        <v>0.2350383198057105</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.1300284025960398</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.2337374973055284</v>
-      </c>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="F209" t="n">
-        <v>0.02147685352148674</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.2344224336025299</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0.03737439556723494</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.2359745880727843</v>
-      </c>
-      <c r="L209" t="n">
-        <v>0.08349958140624225</v>
-      </c>
-      <c r="M209" t="n">
-        <v>0.2366819444197364</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0.1295757495799553</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.2353720252587139</v>
-      </c>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="F210" t="n">
-        <v>0.02049914685634666</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.2360503671692141</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.03731456281859896</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.2376133004899564</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0.08309070272682445</v>
-      </c>
-      <c r="M210" t="n">
-        <v>0.2383255690337624</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.1300135651155502</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0.2370065532118995</v>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="F211" t="n">
-        <v>0.02151985822520434</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.2376783007358983</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0.03745194357923332</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.2392520129071285</v>
-      </c>
-      <c r="L211" t="n">
-        <v>0.08367556629905376</v>
-      </c>
-      <c r="M211" t="n">
-        <v>0.2399691936477883</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0.1294417364194214</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0.238641081165085</v>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="F212" t="n">
-        <v>0.0215389692493943</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.2393062343025826</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0.03738650512650597</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.2408907253243006</v>
-      </c>
-      <c r="L212" t="n">
-        <v>0.08345409827557518</v>
-      </c>
-      <c r="M212" t="n">
-        <v>0.2416128182618143</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0.1301601507081657</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.2402756091182705</v>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="F213" t="n">
-        <v>0.01955646155025108</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.2409341678692668</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0.03751821473778492</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.2425294377414727</v>
-      </c>
-      <c r="L213" t="n">
-        <v>0.08372622480903372</v>
-      </c>
-      <c r="M213" t="n">
-        <v>0.2432564428758402</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0.1306686951983796</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0.241910137071456</v>
-      </c>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="F214" t="n">
-        <v>0.02057231674910923</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.2425621014359511</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0.03734703969043819</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.2441681501586448</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0.08369187205207446</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0.2449000674898661</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.1297672571066602</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.2435446650246415</v>
-      </c>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="F215" t="n">
-        <v>0.01958651646730328</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.2441900350026353</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0.03747294726183374</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.245806862575817</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0.08405096615734231</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0.2465436921038921</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0.129955723649604</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.245179192977827</v>
-      </c>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="F216" t="n">
-        <v>0.0195990423261678</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.2458179685693195</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0.03759590472933959</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.2474455749929891</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0.08390343327748231</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0.248187316717918</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0.130733982043808</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0.2468137209310125</v>
-      </c>
-    </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="F217" t="n">
-        <v>0.02160987594703729</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.2474459021360038</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0.03741587937032373</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.2490842874101612</v>
-      </c>
-      <c r="L217" t="n">
-        <v>0.08404919956513951</v>
-      </c>
-      <c r="M217" t="n">
-        <v>0.249830941331944</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.1300019195058688</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0.248448248884198</v>
-      </c>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="F218" t="n">
-        <v>0.0196189989512463</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.249073835702688</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.03773283846215411</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.2507229998273333</v>
-      </c>
-      <c r="L218" t="n">
-        <v>0.08418819117295881</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0.25147456594597</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.130759423252383</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.2500827768373835</v>
-      </c>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="F219" t="n">
-        <v>0.02162639296012938</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.2507017692693722</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0.03754674928219878</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.2523617122445054</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0.08412033425358534</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0.2531181905599959</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0.1311063804999477</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0.2517173047905691</v>
-      </c>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="F220" t="n">
-        <v>0.02063203959502106</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.2523297028360564</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0.03755757910782571</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.2540004246616775</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0.08384555495966403</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0.2547618151740219</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0.1305426784651595</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0.2533518327437546</v>
-      </c>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="F221" t="n">
-        <v>0.0216359204772559</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.2539576364027407</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0.0376652952164029</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.2556391370788496</v>
-      </c>
-      <c r="L221" t="n">
-        <v>0.08376377944383986</v>
-      </c>
-      <c r="M221" t="n">
-        <v>0.2564054397880478</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.1299682043646152</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.2549863606969401</v>
-      </c>
-    </row>
-    <row r="222" ht="15" customHeight="1">
-      <c r="F222" t="n">
-        <v>0.02163801722816844</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.2555855699694249</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0.03756986488529834</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.2572778494960217</v>
-      </c>
-      <c r="L222" t="n">
-        <v>0.08407493385875792</v>
-      </c>
-      <c r="M222" t="n">
-        <v>0.2580490644020738</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.1301828454149114</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.2566208886501256</v>
-      </c>
-    </row>
-    <row r="223" ht="15" customHeight="1">
-      <c r="F223" t="n">
-        <v>0.02063518478271872</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.2572135035361092</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.03777104552487014</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.2589165619131938</v>
-      </c>
-      <c r="L223" t="n">
-        <v>0.08397894435706316</v>
-      </c>
-      <c r="M223" t="n">
-        <v>0.2596926890160997</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0.130381576094442</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.2582554166033111</v>
-      </c>
-    </row>
-    <row r="224" ht="15" customHeight="1">
-      <c r="F224" t="n">
-        <v>0.02158934963330607</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.2588414371027934</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0.03771567272745646</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.260555274330366</v>
-      </c>
-      <c r="L224" t="n">
-        <v>0.0843806280288493</v>
-      </c>
-      <c r="M224" t="n">
-        <v>0.2613363136301256</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0.1304556049951324</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.2598899445564966</v>
-      </c>
-    </row>
-    <row r="225" ht="15" customHeight="1">
-      <c r="F225" t="n">
-        <v>0.0194937511000088</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.2604693706694777</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.03756959663825314</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.2621939867475381</v>
-      </c>
-      <c r="L225" t="n">
-        <v>0.08327583960674145</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0.2629799382441516</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.1303198116173872</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.2615244725096821</v>
-      </c>
-    </row>
-    <row r="226" ht="15" customHeight="1">
-      <c r="F226" t="n">
-        <v>0.02135411861016335</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.2620973042361618</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.03724301832124635</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.2638326991647102</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0.08348723607174804</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0.2646235628581775</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.128409355440823</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.2631590004628677</v>
-      </c>
-    </row>
-    <row r="227" ht="15" customHeight="1">
-      <c r="F227" t="n">
-        <v>0.02117618159110608</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.2637252378028461</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0.0368461388404222</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.2654714115818823</v>
-      </c>
-      <c r="L227" t="n">
-        <v>0.08223783884810409</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0.2662671874722035</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0.1282593959450564</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.2647935284160531</v>
-      </c>
-    </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="F228" t="n">
-        <v>0.0199656694701734</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.2653531713695303</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.03668915925976682</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.2671101239990544</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0.08215066936004484</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0.2679108120862295</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0.126005092609704</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.2664280563692387</v>
-      </c>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="F229" t="n">
-        <v>0.01972831167470168</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.2669811049362146</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0.03598228064326633</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.2687488364162265</v>
-      </c>
-      <c r="L229" t="n">
-        <v>0.08044874903180541</v>
-      </c>
-      <c r="M229" t="n">
-        <v>0.2695544367002554</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.1251816049143823</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.2680625843224242</v>
-      </c>
-    </row>
-    <row r="230" ht="15" customHeight="1">
-      <c r="F230" t="n">
-        <v>0.01946983763202734</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.2686090385028988</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.03553570405490686</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.2703875488333987</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0.0797550992876209</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0.2711980613142813</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.1236240923387079</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.2696971122756097</v>
-      </c>
-    </row>
-    <row r="231" ht="15" customHeight="1">
-      <c r="F231" t="n">
-        <v>0.01819597676948675</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.2702369720695831</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0.03525963055867454</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.2720262612505707</v>
-      </c>
-      <c r="L231" t="n">
-        <v>0.07879274155172641</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0.2728416859283073</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.1213677143622972</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.2713316402287952</v>
-      </c>
-    </row>
-    <row r="232" ht="15" customHeight="1">
-      <c r="F232" t="n">
-        <v>0.01791245851441632</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.2718649056362673</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0.03466426121855548</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.2736649736677428</v>
-      </c>
-      <c r="L232" t="n">
-        <v>0.0775846972483572</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0.2744853105423332</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.1209476304647671</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.2729661681819808</v>
-      </c>
-    </row>
-    <row r="233" ht="15" customHeight="1">
-      <c r="F233" t="n">
-        <v>0.01762501229415244</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.2734928392029515</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0.03405979709853585</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.275303686084915</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0.07695398780174831</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0.2761289351563592</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0.118599000125734</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.2746006961351662</v>
-      </c>
-    </row>
-    <row r="234" ht="15" customHeight="1">
-      <c r="F234" t="n">
-        <v>0.01733936753603148</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.2751207727696358</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0.03355643926260174</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.2769423985020871</v>
-      </c>
-      <c r="L234" t="n">
-        <v>0.07562363463613486</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0.2777725597703851</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0.1172569828248144</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.2762352240883518</v>
-      </c>
-    </row>
-    <row r="235" ht="15" customHeight="1">
-      <c r="F235" t="n">
-        <v>0.01706125366738986</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.27674870633632</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0.03316438877473928</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.2785811109192592</v>
-      </c>
-      <c r="L235" t="n">
-        <v>0.07431665917575206</v>
-      </c>
-      <c r="M235" t="n">
-        <v>0.279416184384411</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.115056738041625</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.2778697520415372</v>
-      </c>
-    </row>
-    <row r="236" ht="15" customHeight="1">
-      <c r="F236" t="n">
-        <v>0.01879640011556397</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.2783766399030043</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0.0326938466989346</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.2802198233364313</v>
-      </c>
-      <c r="L236" t="n">
-        <v>0.07365608284483499</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0.281059808998437</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0.1136334252557824</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.2795042799947228</v>
-      </c>
-    </row>
-    <row r="237" ht="15" customHeight="1">
-      <c r="F237" t="n">
-        <v>0.01755053630789018</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.2800045734696884</v>
-      </c>
-      <c r="J237" t="n">
-        <v>0.03235501409917385</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.2818585357536034</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0.0720649270676188</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0.2827034336124629</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.111322203946903</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.2811388079479083</v>
-      </c>
-    </row>
-    <row r="238" ht="15" customHeight="1">
-      <c r="F238" t="n">
-        <v>0.01632344778328122</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.2816325070363727</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0.03175259784402253</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.2834972481707755</v>
-      </c>
-      <c r="L238" t="n">
-        <v>0.07135773037729934</v>
-      </c>
-      <c r="M238" t="n">
-        <v>0.2843470582264889</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0.1105332260495808</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.2827733359010938</v>
-      </c>
-    </row>
-    <row r="239" ht="15" customHeight="1">
-      <c r="F239" t="n">
-        <v>0.01809723919249338</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.2832604406030569</v>
-      </c>
-      <c r="J239" t="n">
-        <v>0.03145537371691083</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.2851359605879477</v>
-      </c>
-      <c r="L239" t="n">
-        <v>0.07086689563976642</v>
-      </c>
-      <c r="M239" t="n">
-        <v>0.2859906828405149</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.1098567765141407</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.2844078638542794</v>
-      </c>
-    </row>
-    <row r="240" ht="15" customHeight="1">
-      <c r="F240" t="n">
-        <v>0.01787017268781121</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.2848883741697412</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0.03115663612252374</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.2867746730051198</v>
-      </c>
-      <c r="L240" t="n">
-        <v>0.06927265964199941</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0.2876343074545408</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.1082750919042194</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.2860423918074648</v>
-      </c>
-    </row>
-    <row r="241" ht="15" customHeight="1">
-      <c r="F241" t="n">
-        <v>0.01564223469600891</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.2865163077364254</v>
-      </c>
-      <c r="J241" t="n">
-        <v>0.03055636089416233</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.2884133854222919</v>
-      </c>
-      <c r="L241" t="n">
-        <v>0.0683749678453906</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0.2892779320685667</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0.1064880889257057</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.2876769197606504</v>
-      </c>
-    </row>
-    <row r="242" ht="15" customHeight="1">
-      <c r="F242" t="n">
-        <v>0.01641341164386064</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.2881442413031097</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0.03025452386512777</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.290052097839464</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0.06767376571133227</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0.2909215566825927</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.1051956842844889</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.2893114477138359</v>
-      </c>
-    </row>
-    <row r="243" ht="15" customHeight="1">
-      <c r="F243" t="n">
-        <v>0.01618368995814058</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.2897721748697939</v>
-      </c>
-      <c r="J243" t="n">
-        <v>0.02975110086872117</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.2916908102566361</v>
-      </c>
-      <c r="L243" t="n">
-        <v>0.06696899870121667</v>
-      </c>
-      <c r="M243" t="n">
-        <v>0.2925651812966186</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.1032977946864576</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.2909459756670214</v>
-      </c>
-    </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="F244" t="n">
-        <v>0.01695305606562289</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.2914001084364781</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0.02934606773824365</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.2933295226738082</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0.06576061227643609</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0.2942088059106446</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.1016943368375009</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.2925805036202069</v>
-      </c>
-    </row>
-    <row r="245" ht="15" customHeight="1">
-      <c r="F245" t="n">
-        <v>0.01472149639308176</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.2930280420031623</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0.02903940030699634</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.2949682350909803</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0.06514855189838278</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0.2958524305246705</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.1007852274435078</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.2942150315733924</v>
-      </c>
-    </row>
-    <row r="246" ht="15" customHeight="1">
-      <c r="F246" t="n">
-        <v>0.01448899736729135</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.2946559755698466</v>
-      </c>
-      <c r="J246" t="n">
-        <v>0.02863107440828035</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.2966069475081524</v>
-      </c>
-      <c r="L246" t="n">
-        <v>0.06393276302844902</v>
-      </c>
-      <c r="M246" t="n">
-        <v>0.2974960551386965</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0.09917038321036714</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.2958495595265779</v>
-      </c>
-    </row>
-    <row r="247" ht="15" customHeight="1">
-      <c r="F247" t="n">
-        <v>0.01625554541502583</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.2962839091365308</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0.02812106587539684</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.2982456599253245</v>
-      </c>
-      <c r="L247" t="n">
-        <v>0.06351319112802714</v>
-      </c>
-      <c r="M247" t="n">
-        <v>0.2991396797527224</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.09754972084396801</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0.2974840874797634</v>
-      </c>
-    </row>
-    <row r="248" ht="15" customHeight="1">
-      <c r="F248" t="n">
-        <v>0.01602112696305939</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.297911842703215</v>
-      </c>
-      <c r="J248" t="n">
-        <v>0.0278093505416469</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.2998843723424967</v>
-      </c>
-      <c r="L248" t="n">
-        <v>0.06258978165850931</v>
-      </c>
-      <c r="M248" t="n">
-        <v>0.3007833043667484</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.09662315705019919</v>
-      </c>
-      <c r="O248" t="n">
-        <v>0.2991186154329489</v>
-      </c>
-    </row>
-    <row r="249" ht="15" customHeight="1">
-      <c r="F249" t="n">
-        <v>0.01478572843816619</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.2995397762698993</v>
-      </c>
-      <c r="J249" t="n">
-        <v>0.02729590424033171</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.3015230847596688</v>
-      </c>
-      <c r="L249" t="n">
-        <v>0.06156248008128784</v>
-      </c>
-      <c r="M249" t="n">
-        <v>0.3024269289807743</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.09559060853494977</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0.3007531433861345</v>
-      </c>
-    </row>
-    <row r="250" ht="15" customHeight="1">
-      <c r="F250" t="n">
-        <v>0.01454933626712041</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.3011677098365835</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.02698070280475232</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.3031617971768409</v>
-      </c>
-      <c r="L250" t="n">
-        <v>0.06063123185775507</v>
-      </c>
-      <c r="M250" t="n">
-        <v>0.3040705535948003</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.09325199200410861</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0.30238767133932</v>
-      </c>
-    </row>
-    <row r="251" ht="15" customHeight="1">
-      <c r="F251" t="n">
-        <v>0.0133119368766962</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.3027956434032678</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0.02676372206820993</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.304800509594013</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0.05939598244930319</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0.3057141782088262</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0.09200722416356472</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0.3040221992925055</v>
-      </c>
-    </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="F252" t="n">
-        <v>0.01307351669366777</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.304423576969952</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0.0263449378640056</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.3064392220111851</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0.05815667731732452</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0.3073578028228521</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0.09125622171920711</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0.305656727245691</v>
-      </c>
-    </row>
-    <row r="253" ht="15" customHeight="1">
-      <c r="F253" t="n">
-        <v>0.01383406214480927</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.3060515105366363</v>
-      </c>
-      <c r="J253" t="n">
-        <v>0.02582432602544049</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.3080779344283572</v>
-      </c>
-      <c r="L253" t="n">
-        <v>0.05741326192321131</v>
-      </c>
-      <c r="M253" t="n">
-        <v>0.3090014274368781</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0.08879890137692459</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0.3072912551988765</v>
-      </c>
-    </row>
-    <row r="254" ht="15" customHeight="1">
-      <c r="F254" t="n">
-        <v>0.01459355965689488</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.3076794441033204</v>
-      </c>
-      <c r="J254" t="n">
-        <v>0.02530186238581572</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.3097166468455294</v>
-      </c>
-      <c r="L254" t="n">
-        <v>0.0562656817283558</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0.310645052050904</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0.08843517984260624</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0.308925783152062</v>
-      </c>
-    </row>
-    <row r="255" ht="15" customHeight="1">
-      <c r="F255" t="n">
-        <v>0.01335199565669876</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.3093073776700047</v>
-      </c>
-      <c r="J255" t="n">
-        <v>0.02487752277843244</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.3113553592627015</v>
-      </c>
-      <c r="L255" t="n">
-        <v>0.05531388219415034</v>
-      </c>
-      <c r="M255" t="n">
-        <v>0.31228867666493</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0.08646497382214086</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0.3105603111052475</v>
-      </c>
-    </row>
-    <row r="256" ht="15" customHeight="1">
-      <c r="F256" t="n">
-        <v>0.01210935657099511</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.3109353112366889</v>
-      </c>
-      <c r="J256" t="n">
-        <v>0.02465128303659174</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.3129940716798736</v>
-      </c>
-      <c r="L256" t="n">
-        <v>0.05515780878198714</v>
-      </c>
-      <c r="M256" t="n">
-        <v>0.3139323012789559</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.08438820002141756</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0.3121948390584331</v>
-      </c>
-    </row>
-    <row r="257" ht="15" customHeight="1">
-      <c r="F257" t="n">
-        <v>0.01286562882655809</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.3125632448033732</v>
-      </c>
-      <c r="J257" t="n">
-        <v>0.02402311899359477</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.3146327840970457</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0.05419740695325848</v>
-      </c>
-      <c r="M257" t="n">
-        <v>0.3155759258929819</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.08290477514632522</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0.3138293670116186</v>
-      </c>
-    </row>
-    <row r="258" ht="15" customHeight="1">
-      <c r="F258" t="n">
-        <v>0.01262079885016185</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.3141911783700574</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0.02379300648274263</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.3162714965142178</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0.05293262216935665</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0.3172195505070078</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.0818146159027528</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0.315463894964804</v>
-      </c>
-    </row>
-    <row r="259" ht="15" customHeight="1">
-      <c r="F259" t="n">
-        <v>0.0133748530685806</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.3158191119367416</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0.02336092133733648</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.3179102089313899</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0.05206339989167394</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0.3188631751210338</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0.0801176389965893</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0.3170984229179896</v>
-      </c>
-    </row>
-    <row r="260" ht="15" customHeight="1">
-      <c r="F260" t="n">
-        <v>0.01312777790858848</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.3174470455034259</v>
-      </c>
-      <c r="J260" t="n">
-        <v>0.02282683939067742</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.319548921348562</v>
-      </c>
-      <c r="L260" t="n">
-        <v>0.05098968558160261</v>
-      </c>
-      <c r="M260" t="n">
-        <v>0.3205067997350597</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.07931376113372357</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0.3187329508711751</v>
-      </c>
-    </row>
-    <row r="261" ht="15" customHeight="1">
-      <c r="F261" t="n">
-        <v>0.01087955979695968</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.3190749790701101</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0.02249073647606659</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.3211876337657341</v>
-      </c>
-      <c r="L261" t="n">
-        <v>0.05011142470053492</v>
-      </c>
-      <c r="M261" t="n">
-        <v>0.3221504243490857</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0.07740289902004466</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0.3203674788243606</v>
-      </c>
-    </row>
-    <row r="262" ht="15" customHeight="1">
-      <c r="F262" t="n">
-        <v>0.01063018516046838</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.3207029126367943</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0.0218525884268051</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.3228263461829062</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0.04922856270986312</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0.3237940489631116</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.0759849693614415</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0.3220020067775461</v>
-      </c>
-    </row>
-    <row r="263" ht="15" customHeight="1">
-      <c r="F263" t="n">
-        <v>0.01237964042588875</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.3223308462034786</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0.0216123710761941</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.3244650586000784</v>
-      </c>
-      <c r="L263" t="n">
-        <v>0.04794104507097952</v>
-      </c>
-      <c r="M263" t="n">
-        <v>0.3254376735771376</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.07475988886380286</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0.3236365347307317</v>
-      </c>
-    </row>
-    <row r="264" ht="15" customHeight="1">
-      <c r="F264" t="n">
-        <v>0.01012791201999494</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.3239587797701629</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0.02097006025753469</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.3261037710172505</v>
-      </c>
-      <c r="L264" t="n">
-        <v>0.04724881724527641</v>
-      </c>
-      <c r="M264" t="n">
-        <v>0.3270812981911635</v>
-      </c>
-      <c r="N264" t="n">
-        <v>0.0729275742330181</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0.3252710626839171</v>
-      </c>
-    </row>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1"/>
+    <row r="218" ht="15" customHeight="1"/>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="220" ht="15" customHeight="1"/>
+    <row r="221" ht="15" customHeight="1"/>
+    <row r="222" ht="15" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" ht="15" customHeight="1"/>
+    <row r="242" ht="15" customHeight="1"/>
+    <row r="243" ht="15" customHeight="1"/>
+    <row r="244" ht="15" customHeight="1"/>
+    <row r="245" ht="15" customHeight="1"/>
+    <row r="246" ht="15" customHeight="1"/>
+    <row r="247" ht="15" customHeight="1"/>
+    <row r="248" ht="15" customHeight="1"/>
+    <row r="249" ht="15" customHeight="1"/>
+    <row r="250" ht="15" customHeight="1"/>
+    <row r="251" ht="15" customHeight="1"/>
+    <row r="252" ht="15" customHeight="1"/>
+    <row r="253" ht="15" customHeight="1"/>
+    <row r="254" ht="15" customHeight="1"/>
+    <row r="255" ht="15" customHeight="1"/>
+    <row r="256" ht="15" customHeight="1"/>
+    <row r="257" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="259" ht="15" customHeight="1"/>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="261" ht="15" customHeight="1"/>
+    <row r="262" ht="15" customHeight="1"/>
+    <row r="263" ht="15" customHeight="1"/>
+    <row r="264" ht="15" customHeight="1"/>
     <row r="265" ht="15" customHeight="1"/>
     <row r="266" ht="15" customHeight="1"/>
     <row r="267" ht="15" customHeight="1"/>
